--- a/IS_v12_shk.xlsx
+++ b/IS_v12_shk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lloydsregistergroup.sharepoint.com/sites/group-proj-energyprj11100223773/Shared Documents/6. Project Work place/01 FRA/PyExdCrv/Rev.B/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="646" documentId="8_{33F232BA-2D80-46F3-9E42-E7E3051A05A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{A13CC777-728E-4630-8F21-6BE3EABAD6DD}"/>
+  <xr:revisionPtr revIDLastSave="699" documentId="8_{33F232BA-2D80-46F3-9E42-E7E3051A05A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8F3134E-C8DD-4028-A321-086C834DBB92}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="210" windowWidth="17895" windowHeight="14475" xr2:uid="{13819909-11E9-4993-88E8-9718048B5B70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{13819909-11E9-4993-88E8-9718048B5B70}"/>
   </bookViews>
   <sheets>
     <sheet name="Isolatable summary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Sheet2" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Isolatable summary'!$B$2:$AX$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Isolatable summary'!$A$2:$AY$81</definedName>
     <definedName name="FH">Sheet1!$G$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Isolatable summary'!$A$2:$AU$81</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Isolatable summary'!$2:$2</definedName>
@@ -35,7 +35,7 @@
     <definedName name="RHigh">Sheet1!$K$2</definedName>
     <definedName name="RLow">Sheet1!$I$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="888">
   <si>
     <t>Area</t>
   </si>
@@ -3283,6 +3283,39 @@
   </si>
   <si>
     <t>ReelStation</t>
+  </si>
+  <si>
+    <t>131-01-L-fwdP</t>
+  </si>
+  <si>
+    <t>131-01-L-aftP</t>
+  </si>
+  <si>
+    <t>131-01-L-fwdS</t>
+  </si>
+  <si>
+    <t>131-01-L-aftS</t>
+  </si>
+  <si>
+    <t>131-02-L-fwdP</t>
+  </si>
+  <si>
+    <t>131-02-L-aftP</t>
+  </si>
+  <si>
+    <t>131-02-L-aftS</t>
+  </si>
+  <si>
+    <t>131-02-L-fwdS</t>
+  </si>
+  <si>
+    <t>Deck</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>3rd deck</t>
   </si>
 </sst>
 </file>
@@ -3551,7 +3584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3830,9 +3863,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -4002,13 +4032,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4020,19 +4065,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4041,20 +4080,62 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -4062,43 +4143,16 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4113,53 +4167,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4512,16 +4548,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C15D41-5741-4F04-ACA4-CA94CA2147AC}">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AY82"/>
+  <dimension ref="A1:AY90"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomRight" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4534,18 +4570,17 @@
     <col min="6" max="6" width="16.28515625" style="48" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="11" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="48" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="88" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="48" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="88" customWidth="1"/>
     <col min="11" max="11" width="10.140625" style="88" customWidth="1"/>
-    <col min="12" max="14" width="6.7109375" style="88" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="88" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="11" hidden="1" customWidth="1"/>
+    <col min="12" max="15" width="6.7109375" style="88" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="11" customWidth="1"/>
     <col min="17" max="17" width="10.140625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" style="11" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" style="48" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="29.85546875" style="48" customWidth="1"/>
     <col min="20" max="20" width="21" style="48" customWidth="1"/>
     <col min="21" max="21" width="9.42578125" style="13" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" style="11" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" style="11" customWidth="1"/>
     <col min="23" max="23" width="24.28515625" style="11" customWidth="1"/>
     <col min="24" max="24" width="17.28515625" style="11" customWidth="1"/>
     <col min="25" max="25" width="9.7109375" style="11" hidden="1" customWidth="1"/>
@@ -4557,18 +4592,17 @@
     <col min="31" max="31" width="8.5703125" style="11" customWidth="1"/>
     <col min="32" max="32" width="9.85546875" style="11" customWidth="1"/>
     <col min="33" max="34" width="9.140625" style="20" customWidth="1"/>
-    <col min="35" max="35" width="13.42578125" style="11" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="11" style="13" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="13.42578125" style="11" customWidth="1"/>
+    <col min="36" max="36" width="11" style="13" customWidth="1"/>
     <col min="37" max="37" width="8.7109375" style="13" customWidth="1"/>
     <col min="38" max="38" width="8.140625" style="11" customWidth="1"/>
     <col min="39" max="39" width="9.42578125" style="11" customWidth="1"/>
     <col min="40" max="40" width="11.5703125" style="11" customWidth="1"/>
-    <col min="41" max="41" width="22.7109375" style="11" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="16" style="11" customWidth="1"/>
-    <col min="43" max="43" width="16" style="11" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="22.7109375" style="11" customWidth="1"/>
+    <col min="42" max="43" width="16" style="11" customWidth="1"/>
     <col min="44" max="44" width="11.7109375" style="14" customWidth="1"/>
-    <col min="45" max="45" width="16.42578125" style="11" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="79.140625" style="11" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="16.42578125" style="11" customWidth="1"/>
+    <col min="46" max="46" width="17.42578125" style="11" customWidth="1"/>
     <col min="47" max="47" width="10.28515625" style="11" customWidth="1"/>
     <col min="48" max="49" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="50" max="16384" width="9.140625" style="11"/>
@@ -4622,7 +4656,7 @@
       <c r="N2" s="69" t="s">
         <v>811</v>
       </c>
-      <c r="O2" s="127"/>
+      <c r="O2" s="126"/>
       <c r="P2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4635,7 +4669,7 @@
       <c r="S2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="107" t="s">
+      <c r="T2" s="106" t="s">
         <v>3</v>
       </c>
       <c r="U2" s="7" t="s">
@@ -4725,19 +4759,19 @@
       <c r="A3" s="11">
         <v>39</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="117" t="s">
         <v>484</v>
       </c>
-      <c r="D3" s="130">
+      <c r="D3" s="129">
         <v>1</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="117" t="s">
         <v>484</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="128" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="25" t="s">
@@ -4746,7 +4780,7 @@
       <c r="H3" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="117" t="s">
         <v>461</v>
       </c>
       <c r="J3" s="49" t="s">
@@ -4758,13 +4792,13 @@
       <c r="L3" s="74">
         <v>176.1</v>
       </c>
-      <c r="M3" s="98">
+      <c r="M3" s="97">
         <v>-10.4</v>
       </c>
-      <c r="N3" s="98">
+      <c r="N3" s="97">
         <v>44.8</v>
       </c>
-      <c r="O3" s="124"/>
+      <c r="O3" s="123"/>
       <c r="P3" s="23"/>
       <c r="Q3" s="26" t="s">
         <v>10</v>
@@ -4775,7 +4809,7 @@
       <c r="S3" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="T3" s="105" t="s">
+      <c r="T3" s="104" t="s">
         <v>808</v>
       </c>
       <c r="U3" s="52">
@@ -4793,7 +4827,7 @@
       <c r="Y3" s="43">
         <v>12</v>
       </c>
-      <c r="Z3" s="104" t="s">
+      <c r="Z3" s="103" t="s">
         <v>807</v>
       </c>
       <c r="AA3" s="26">
@@ -4821,7 +4855,7 @@
       <c r="AG3" s="46">
         <v>131.5</v>
       </c>
-      <c r="AH3" s="135">
+      <c r="AH3" s="134">
         <f>AG3*AN3</f>
         <v>15582.75</v>
       </c>
@@ -4833,7 +4867,7 @@
         <f>AJ3/3600</f>
         <v>41.214722222222221</v>
       </c>
-      <c r="AL3" s="147">
+      <c r="AL3" s="146">
         <v>120</v>
       </c>
       <c r="AM3" s="26">
@@ -4871,19 +4905,19 @@
       <c r="A4" s="11">
         <v>40</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="117" t="s">
         <v>485</v>
       </c>
-      <c r="D4" s="130">
+      <c r="D4" s="129">
         <v>1</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="117" t="s">
         <v>872</v>
       </c>
-      <c r="F4" s="129" t="s">
+      <c r="F4" s="128" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="25" t="s">
@@ -4892,7 +4926,7 @@
       <c r="H4" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I4" s="118" t="s">
+      <c r="I4" s="117" t="s">
         <v>461</v>
       </c>
       <c r="J4" s="49" t="s">
@@ -4904,13 +4938,13 @@
       <c r="L4" s="74">
         <v>189.9</v>
       </c>
-      <c r="M4" s="98">
+      <c r="M4" s="97">
         <v>-7</v>
       </c>
-      <c r="N4" s="98">
+      <c r="N4" s="97">
         <v>44.9</v>
       </c>
-      <c r="O4" s="124"/>
+      <c r="O4" s="123"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="26" t="s">
         <v>14</v>
@@ -4921,7 +4955,7 @@
       <c r="S4" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="T4" s="105" t="s">
+      <c r="T4" s="104" t="s">
         <v>808</v>
       </c>
       <c r="U4" s="52">
@@ -4966,7 +5000,7 @@
       <c r="AG4" s="46">
         <v>131.5</v>
       </c>
-      <c r="AH4" s="135">
+      <c r="AH4" s="134">
         <f t="shared" ref="AH4:AH67" si="3">AG4*AN4</f>
         <v>15845.75</v>
       </c>
@@ -4978,7 +5012,7 @@
         <f t="shared" ref="AK4:AK77" si="4">AJ4/3600</f>
         <v>37.485277777777775</v>
       </c>
-      <c r="AL4" s="147">
+      <c r="AL4" s="146">
         <v>120</v>
       </c>
       <c r="AM4" s="26">
@@ -5016,19 +5050,19 @@
       <c r="A5" s="11">
         <v>41</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="117" t="s">
         <v>486</v>
       </c>
-      <c r="D5" s="130">
+      <c r="D5" s="129">
         <v>1</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="117" t="s">
         <v>873</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F5" s="128" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="25" t="s">
@@ -5037,7 +5071,7 @@
       <c r="H5" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I5" s="118" t="s">
+      <c r="I5" s="117" t="s">
         <v>461</v>
       </c>
       <c r="J5" s="49" t="s">
@@ -5049,13 +5083,13 @@
       <c r="L5" s="74">
         <v>186.6</v>
       </c>
-      <c r="M5" s="98">
+      <c r="M5" s="97">
         <v>-10.8</v>
       </c>
-      <c r="N5" s="98">
+      <c r="N5" s="97">
         <v>45</v>
       </c>
-      <c r="O5" s="124"/>
+      <c r="O5" s="123"/>
       <c r="P5" s="23"/>
       <c r="Q5" s="26" t="s">
         <v>15</v>
@@ -5066,7 +5100,7 @@
       <c r="S5" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="T5" s="105" t="s">
+      <c r="T5" s="104" t="s">
         <v>808</v>
       </c>
       <c r="U5" s="52">
@@ -5111,7 +5145,7 @@
       <c r="AG5" s="46">
         <v>131.5</v>
       </c>
-      <c r="AH5" s="135">
+      <c r="AH5" s="134">
         <f t="shared" si="3"/>
         <v>15332.9</v>
       </c>
@@ -5123,7 +5157,7 @@
         <f t="shared" si="4"/>
         <v>56.189444444444447</v>
       </c>
-      <c r="AL5" s="147">
+      <c r="AL5" s="146">
         <v>120</v>
       </c>
       <c r="AM5" s="26">
@@ -5161,19 +5195,19 @@
       <c r="A6" s="11">
         <v>42</v>
       </c>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="113" t="s">
         <v>350</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="117" t="s">
         <v>487</v>
       </c>
-      <c r="D6" s="130">
+      <c r="D6" s="129">
         <v>1</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="117" t="s">
         <v>874</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F6" s="128" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="25" t="s">
@@ -5182,7 +5216,7 @@
       <c r="H6" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I6" s="118" t="s">
+      <c r="I6" s="117" t="s">
         <v>461</v>
       </c>
       <c r="J6" s="49" t="s">
@@ -5194,13 +5228,13 @@
       <c r="L6" s="74">
         <v>176.1</v>
       </c>
-      <c r="M6" s="98">
+      <c r="M6" s="97">
         <v>-10.3</v>
       </c>
-      <c r="N6" s="98">
+      <c r="N6" s="97">
         <v>44.8</v>
       </c>
-      <c r="O6" s="124"/>
+      <c r="O6" s="123"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="26" t="s">
         <v>16</v>
@@ -5211,7 +5245,7 @@
       <c r="S6" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="T6" s="105" t="s">
+      <c r="T6" s="104" t="s">
         <v>808</v>
       </c>
       <c r="U6" s="52">
@@ -5256,7 +5290,7 @@
       <c r="AG6" s="46">
         <v>131.5</v>
       </c>
-      <c r="AH6" s="135">
+      <c r="AH6" s="134">
         <f t="shared" si="3"/>
         <v>15687.949999999999</v>
       </c>
@@ -5268,7 +5302,7 @@
         <f t="shared" si="4"/>
         <v>33.087499999999999</v>
       </c>
-      <c r="AL6" s="147">
+      <c r="AL6" s="146">
         <v>120</v>
       </c>
       <c r="AM6" s="26">
@@ -5306,13 +5340,13 @@
       <c r="A7" s="20">
         <v>57</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="113" t="s">
         <v>351</v>
       </c>
       <c r="C7" s="49" t="s">
         <v>488</v>
       </c>
-      <c r="D7" s="130">
+      <c r="D7" s="129">
         <v>1</v>
       </c>
       <c r="E7" s="49" t="s">
@@ -5345,7 +5379,7 @@
       <c r="N7" s="49">
         <v>31.5</v>
       </c>
-      <c r="O7" s="123"/>
+      <c r="O7" s="122"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="30" t="s">
         <v>613</v>
@@ -5402,7 +5436,7 @@
       <c r="AG7" s="46">
         <v>121</v>
       </c>
-      <c r="AH7" s="135">
+      <c r="AH7" s="134">
         <f t="shared" si="3"/>
         <v>90556.4</v>
       </c>
@@ -5414,7 +5448,7 @@
         <f t="shared" si="4"/>
         <v>45.723711111111108</v>
       </c>
-      <c r="AL7" s="147">
+      <c r="AL7" s="146">
         <v>141.81</v>
       </c>
       <c r="AM7" s="30">
@@ -5451,13 +5485,13 @@
       <c r="A8" s="20">
         <v>58</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>352</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>489</v>
       </c>
-      <c r="D8" s="130">
+      <c r="D8" s="129">
         <v>1</v>
       </c>
       <c r="E8" s="49" t="s">
@@ -5490,7 +5524,7 @@
       <c r="N8" s="49">
         <v>30.5</v>
       </c>
-      <c r="O8" s="123"/>
+      <c r="O8" s="122"/>
       <c r="P8" s="25"/>
       <c r="Q8" s="30" t="s">
         <v>613</v>
@@ -5547,7 +5581,7 @@
       <c r="AG8" s="46">
         <v>121</v>
       </c>
-      <c r="AH8" s="135">
+      <c r="AH8" s="134">
         <f t="shared" si="3"/>
         <v>96473.299999999988</v>
       </c>
@@ -5559,7 +5593,7 @@
         <f t="shared" si="4"/>
         <v>12.177602777777778</v>
       </c>
-      <c r="AL8" s="147">
+      <c r="AL8" s="146">
         <v>14.67</v>
       </c>
       <c r="AM8" s="30">
@@ -5596,31 +5630,31 @@
       <c r="A9" s="20">
         <v>43</v>
       </c>
-      <c r="B9" s="192" t="s">
+      <c r="B9" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="117" t="s">
         <v>490</v>
       </c>
-      <c r="D9" s="130">
+      <c r="D9" s="129">
         <v>1</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="117" t="s">
         <v>490</v>
       </c>
-      <c r="F9" s="129" t="s">
+      <c r="F9" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="134" t="s">
+      <c r="H9" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="I9" s="118" t="s">
+      <c r="I9" s="117" t="s">
         <v>441</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="104" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="49">
@@ -5629,13 +5663,13 @@
       <c r="L9" s="74">
         <v>185</v>
       </c>
-      <c r="M9" s="98">
+      <c r="M9" s="97">
         <v>-9</v>
       </c>
-      <c r="N9" s="98">
+      <c r="N9" s="97">
         <v>40.5</v>
       </c>
-      <c r="O9" s="124">
+      <c r="O9" s="123">
         <f>40.5-35</f>
         <v>5.5</v>
       </c>
@@ -5694,7 +5728,7 @@
       <c r="AG9" s="46">
         <v>68.900000000000006</v>
       </c>
-      <c r="AH9" s="135">
+      <c r="AH9" s="134">
         <f t="shared" si="3"/>
         <v>7537.6600000000008</v>
       </c>
@@ -5706,7 +5740,7 @@
         <f t="shared" si="4"/>
         <v>167.97666666666666</v>
       </c>
-      <c r="AL9" s="147">
+      <c r="AL9" s="146">
         <v>110.5</v>
       </c>
       <c r="AM9" s="26">
@@ -5750,29 +5784,29 @@
       <c r="A10" s="20">
         <v>44</v>
       </c>
-      <c r="B10" s="192"/>
-      <c r="C10" s="118" t="s">
+      <c r="B10" s="191"/>
+      <c r="C10" s="117" t="s">
         <v>491</v>
       </c>
-      <c r="D10" s="130">
+      <c r="D10" s="129">
         <v>1</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="117" t="s">
         <v>491</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="134" t="s">
+      <c r="H10" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="117" t="s">
         <v>441</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="J10" s="104" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="49">
@@ -5781,13 +5815,13 @@
       <c r="L10" s="74">
         <v>172.8</v>
       </c>
-      <c r="M10" s="98">
+      <c r="M10" s="97">
         <v>-8.9</v>
       </c>
-      <c r="N10" s="98">
+      <c r="N10" s="97">
         <v>36.1</v>
       </c>
-      <c r="O10" s="124">
+      <c r="O10" s="123">
         <v>1.1000000000000001</v>
       </c>
       <c r="P10" s="23"/>
@@ -5845,7 +5879,7 @@
       <c r="AG10" s="46">
         <v>22.7</v>
       </c>
-      <c r="AH10" s="135">
+      <c r="AH10" s="134">
         <f t="shared" si="3"/>
         <v>16378.05</v>
       </c>
@@ -5857,7 +5891,7 @@
         <f t="shared" si="4"/>
         <v>41.292499999999997</v>
       </c>
-      <c r="AL10" s="147">
+      <c r="AL10" s="146">
         <v>110.5</v>
       </c>
       <c r="AM10" s="26">
@@ -5892,28 +5926,28 @@
       <c r="A11" s="20">
         <v>45</v>
       </c>
-      <c r="B11" s="192" t="s">
+      <c r="B11" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="117" t="s">
         <v>492</v>
       </c>
-      <c r="D11" s="130">
+      <c r="D11" s="129">
         <v>1</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="117" t="s">
         <v>492</v>
       </c>
-      <c r="F11" s="129" t="s">
+      <c r="F11" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="I11" s="118" t="s">
+      <c r="I11" s="117" t="s">
         <v>441</v>
       </c>
       <c r="J11" s="74" t="s">
@@ -5931,7 +5965,7 @@
       <c r="N11" s="49">
         <v>41</v>
       </c>
-      <c r="O11" s="123">
+      <c r="O11" s="122">
         <v>6</v>
       </c>
       <c r="P11" s="23"/>
@@ -5941,7 +5975,7 @@
       <c r="R11" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="118" t="s">
+      <c r="S11" s="117" t="s">
         <v>854</v>
       </c>
       <c r="T11" s="66" t="s">
@@ -5987,7 +6021,7 @@
       <c r="AG11" s="46">
         <v>33.6</v>
       </c>
-      <c r="AH11" s="135">
+      <c r="AH11" s="134">
         <f t="shared" si="3"/>
         <v>8571.36</v>
       </c>
@@ -5999,7 +6033,7 @@
         <f t="shared" si="4"/>
         <v>45.4375</v>
       </c>
-      <c r="AL11" s="147">
+      <c r="AL11" s="146">
         <v>27</v>
       </c>
       <c r="AM11" s="26">
@@ -6034,26 +6068,26 @@
       <c r="A12" s="20">
         <v>46</v>
       </c>
-      <c r="B12" s="192"/>
-      <c r="C12" s="118" t="s">
+      <c r="B12" s="191"/>
+      <c r="C12" s="117" t="s">
         <v>493</v>
       </c>
-      <c r="D12" s="130">
+      <c r="D12" s="129">
         <v>1</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="117" t="s">
         <v>493</v>
       </c>
-      <c r="F12" s="129" t="s">
+      <c r="F12" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="134" t="s">
+      <c r="H12" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="I12" s="118" t="s">
+      <c r="I12" s="117" t="s">
         <v>441</v>
       </c>
       <c r="J12" s="74" t="s">
@@ -6071,7 +6105,7 @@
       <c r="N12" s="49">
         <v>41</v>
       </c>
-      <c r="O12" s="123">
+      <c r="O12" s="122">
         <v>6</v>
       </c>
       <c r="P12" s="23"/>
@@ -6129,7 +6163,7 @@
       <c r="AG12" s="46">
         <v>13.3</v>
       </c>
-      <c r="AH12" s="135">
+      <c r="AH12" s="134">
         <f t="shared" si="3"/>
         <v>288.61</v>
       </c>
@@ -6141,7 +6175,7 @@
         <f t="shared" si="4"/>
         <v>2.6452777777777778</v>
       </c>
-      <c r="AL12" s="147">
+      <c r="AL12" s="146">
         <v>26.9</v>
       </c>
       <c r="AM12" s="26">
@@ -6177,26 +6211,26 @@
       <c r="A13" s="20">
         <v>47</v>
       </c>
-      <c r="B13" s="192"/>
-      <c r="C13" s="118" t="s">
+      <c r="B13" s="191"/>
+      <c r="C13" s="117" t="s">
         <v>494</v>
       </c>
-      <c r="D13" s="130">
+      <c r="D13" s="129">
         <v>1</v>
       </c>
-      <c r="E13" s="118" t="s">
+      <c r="E13" s="117" t="s">
         <v>494</v>
       </c>
-      <c r="F13" s="129" t="s">
+      <c r="F13" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="119" t="s">
+      <c r="G13" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="134" t="s">
+      <c r="H13" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="I13" s="118" t="s">
+      <c r="I13" s="117" t="s">
         <v>441</v>
       </c>
       <c r="J13" s="74" t="s">
@@ -6208,13 +6242,13 @@
       <c r="L13" s="74">
         <v>174</v>
       </c>
-      <c r="M13" s="98">
+      <c r="M13" s="97">
         <v>-19</v>
       </c>
-      <c r="N13" s="98">
+      <c r="N13" s="97">
         <v>36</v>
       </c>
-      <c r="O13" s="124">
+      <c r="O13" s="123">
         <f>N13-35</f>
         <v>1</v>
       </c>
@@ -6273,7 +6307,7 @@
       <c r="AG13" s="46">
         <v>22.7</v>
       </c>
-      <c r="AH13" s="135">
+      <c r="AH13" s="134">
         <f t="shared" si="3"/>
         <v>17197.52</v>
       </c>
@@ -6285,7 +6319,7 @@
         <f t="shared" si="4"/>
         <v>42.792222222222222</v>
       </c>
-      <c r="AL13" s="147">
+      <c r="AL13" s="146">
         <v>27</v>
       </c>
       <c r="AM13" s="26">
@@ -6320,28 +6354,28 @@
       <c r="A14" s="20">
         <v>34</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="117" t="s">
         <v>495</v>
       </c>
-      <c r="D14" s="130">
+      <c r="D14" s="129">
         <v>1</v>
       </c>
-      <c r="E14" s="118" t="s">
+      <c r="E14" s="117" t="s">
         <v>495</v>
       </c>
-      <c r="F14" s="129" t="s">
+      <c r="F14" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="134" t="s">
+      <c r="H14" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="I14" s="118" t="s">
+      <c r="I14" s="117" t="s">
         <v>664</v>
       </c>
       <c r="J14" s="74" t="s">
@@ -6353,13 +6387,13 @@
       <c r="L14" s="74">
         <v>157.9</v>
       </c>
-      <c r="M14" s="98">
+      <c r="M14" s="97">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="N14" s="98">
+      <c r="N14" s="97">
         <v>44.8</v>
       </c>
-      <c r="O14" s="124"/>
+      <c r="O14" s="123"/>
       <c r="P14" s="23"/>
       <c r="Q14" s="26">
         <v>6</v>
@@ -6415,7 +6449,7 @@
       <c r="AG14" s="46">
         <v>51.9</v>
       </c>
-      <c r="AH14" s="135">
+      <c r="AH14" s="134">
         <f t="shared" si="3"/>
         <v>4966.83</v>
       </c>
@@ -6427,7 +6461,7 @@
         <f t="shared" si="4"/>
         <v>56.988055555555555</v>
       </c>
-      <c r="AL14" s="147">
+      <c r="AL14" s="146">
         <v>10</v>
       </c>
       <c r="AM14" s="26">
@@ -6465,26 +6499,26 @@
       <c r="A15" s="20">
         <v>35</v>
       </c>
-      <c r="B15" s="192"/>
-      <c r="C15" s="118" t="s">
+      <c r="B15" s="191"/>
+      <c r="C15" s="117" t="s">
         <v>496</v>
       </c>
-      <c r="D15" s="130">
+      <c r="D15" s="129">
         <v>1</v>
       </c>
-      <c r="E15" s="118" t="s">
+      <c r="E15" s="117" t="s">
         <v>496</v>
       </c>
-      <c r="F15" s="129" t="s">
+      <c r="F15" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="119" t="s">
+      <c r="G15" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="134" t="s">
+      <c r="H15" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="I15" s="118" t="s">
+      <c r="I15" s="117" t="s">
         <v>670</v>
       </c>
       <c r="J15" s="74" t="s">
@@ -6496,13 +6530,13 @@
       <c r="L15" s="74">
         <v>151.9</v>
       </c>
-      <c r="M15" s="98">
+      <c r="M15" s="97">
         <v>-14.4</v>
       </c>
-      <c r="N15" s="98">
+      <c r="N15" s="97">
         <v>49.3</v>
       </c>
-      <c r="O15" s="124"/>
+      <c r="O15" s="123"/>
       <c r="P15" s="23"/>
       <c r="Q15" s="26">
         <v>7</v>
@@ -6558,7 +6592,7 @@
       <c r="AG15" s="46">
         <v>26.7</v>
       </c>
-      <c r="AH15" s="135">
+      <c r="AH15" s="134">
         <f t="shared" si="3"/>
         <v>293.7</v>
       </c>
@@ -6570,7 +6604,7 @@
         <f t="shared" si="4"/>
         <v>5.8866666666666667</v>
       </c>
-      <c r="AL15" s="147">
+      <c r="AL15" s="146">
         <v>9.9</v>
       </c>
       <c r="AM15" s="26">
@@ -6609,26 +6643,26 @@
       <c r="A16" s="20">
         <v>36</v>
       </c>
-      <c r="B16" s="192"/>
-      <c r="C16" s="118" t="s">
+      <c r="B16" s="191"/>
+      <c r="C16" s="117" t="s">
         <v>497</v>
       </c>
-      <c r="D16" s="130">
+      <c r="D16" s="129">
         <v>1</v>
       </c>
-      <c r="E16" s="118" t="s">
+      <c r="E16" s="117" t="s">
         <v>497</v>
       </c>
-      <c r="F16" s="129" t="s">
+      <c r="F16" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="119" t="s">
+      <c r="G16" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="134" t="s">
+      <c r="H16" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="I16" s="118" t="s">
+      <c r="I16" s="117" t="s">
         <v>671</v>
       </c>
       <c r="J16" s="74" t="s">
@@ -6640,13 +6674,13 @@
       <c r="L16" s="74">
         <v>161</v>
       </c>
-      <c r="M16" s="98">
+      <c r="M16" s="97">
         <v>-18.600000000000001</v>
       </c>
-      <c r="N16" s="98">
+      <c r="N16" s="97">
         <v>39.799999999999997</v>
       </c>
-      <c r="O16" s="124"/>
+      <c r="O16" s="123"/>
       <c r="P16" s="23"/>
       <c r="Q16" s="33" t="s">
         <v>48</v>
@@ -6703,7 +6737,7 @@
       <c r="AG16" s="46">
         <v>113.3</v>
       </c>
-      <c r="AH16" s="135">
+      <c r="AH16" s="134">
         <f t="shared" si="3"/>
         <v>84793.72</v>
       </c>
@@ -6715,7 +6749,7 @@
         <f t="shared" si="4"/>
         <v>51.101388888888891</v>
       </c>
-      <c r="AL16" s="147">
+      <c r="AL16" s="146">
         <v>10</v>
       </c>
       <c r="AM16" s="26">
@@ -6750,31 +6784,31 @@
       <c r="A17" s="20">
         <v>37</v>
       </c>
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="117" t="s">
         <v>498</v>
       </c>
-      <c r="D17" s="130">
+      <c r="D17" s="129">
         <v>1</v>
       </c>
-      <c r="E17" s="118" t="s">
+      <c r="E17" s="117" t="s">
         <v>498</v>
       </c>
-      <c r="F17" s="129" t="s">
+      <c r="F17" s="128" t="s">
         <v>864</v>
       </c>
-      <c r="G17" s="119" t="s">
+      <c r="G17" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="134" t="s">
+      <c r="H17" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="I17" s="118" t="s">
+      <c r="I17" s="117" t="s">
         <v>672</v>
       </c>
-      <c r="J17" s="105" t="s">
+      <c r="J17" s="104" t="s">
         <v>205</v>
       </c>
       <c r="K17" s="49">
@@ -6783,13 +6817,13 @@
       <c r="L17" s="74">
         <v>159.5</v>
       </c>
-      <c r="M17" s="98">
+      <c r="M17" s="97">
         <v>-7.5</v>
       </c>
-      <c r="N17" s="98">
+      <c r="N17" s="97">
         <v>36.5</v>
       </c>
-      <c r="O17" s="124">
+      <c r="O17" s="123">
         <v>1.5</v>
       </c>
       <c r="P17" s="23"/>
@@ -6847,7 +6881,7 @@
       <c r="AG17" s="46">
         <v>76.8</v>
       </c>
-      <c r="AH17" s="135">
+      <c r="AH17" s="134">
         <f t="shared" si="3"/>
         <v>57815.039999999994</v>
       </c>
@@ -6859,7 +6893,7 @@
         <f t="shared" si="4"/>
         <v>44.19222222222222</v>
       </c>
-      <c r="AL17" s="147">
+      <c r="AL17" s="146">
         <v>8.5</v>
       </c>
       <c r="AM17" s="26">
@@ -6894,26 +6928,26 @@
       <c r="A18" s="20">
         <v>38</v>
       </c>
-      <c r="B18" s="192"/>
-      <c r="C18" s="118" t="s">
+      <c r="B18" s="191"/>
+      <c r="C18" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="D18" s="130">
+      <c r="D18" s="129">
         <v>1</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="F18" s="129" t="s">
+      <c r="F18" s="128" t="s">
         <v>864</v>
       </c>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="134" t="s">
+      <c r="H18" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="I18" s="118" t="s">
+      <c r="I18" s="117" t="s">
         <v>673</v>
       </c>
       <c r="J18" s="74" t="s">
@@ -6925,13 +6959,13 @@
       <c r="L18" s="74">
         <v>157.69999999999999</v>
       </c>
-      <c r="M18" s="98">
+      <c r="M18" s="97">
         <v>-8.4</v>
       </c>
-      <c r="N18" s="98">
+      <c r="N18" s="97">
         <v>48.9</v>
       </c>
-      <c r="O18" s="124"/>
+      <c r="O18" s="123"/>
       <c r="P18" s="23"/>
       <c r="Q18" s="26">
         <v>10</v>
@@ -6987,7 +7021,7 @@
       <c r="AG18" s="46">
         <v>34.299999999999997</v>
       </c>
-      <c r="AH18" s="135">
+      <c r="AH18" s="134">
         <f t="shared" si="3"/>
         <v>116.61999999999999</v>
       </c>
@@ -6999,7 +7033,7 @@
         <f t="shared" si="4"/>
         <v>4.6880555555555556</v>
       </c>
-      <c r="AL18" s="147">
+      <c r="AL18" s="146">
         <v>2</v>
       </c>
       <c r="AM18" s="26">
@@ -7034,25 +7068,25 @@
       <c r="A19" s="20">
         <v>48</v>
       </c>
-      <c r="B19" s="192" t="s">
+      <c r="B19" s="191" t="s">
         <v>241</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="D19" s="130">
+      <c r="D19" s="129">
         <v>1</v>
       </c>
       <c r="E19" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="F19" s="130" t="s">
+      <c r="F19" s="129" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="134" t="s">
+      <c r="H19" s="133" t="s">
         <v>286</v>
       </c>
       <c r="I19" s="49" t="s">
@@ -7073,7 +7107,7 @@
       <c r="N19" s="49">
         <v>40.9</v>
       </c>
-      <c r="O19" s="123">
+      <c r="O19" s="122">
         <v>5.9</v>
       </c>
       <c r="P19" s="25"/>
@@ -7132,7 +7166,7 @@
       <c r="AG19" s="46">
         <v>15.3</v>
       </c>
-      <c r="AH19" s="135">
+      <c r="AH19" s="134">
         <f t="shared" si="3"/>
         <v>1673.8200000000002</v>
       </c>
@@ -7144,7 +7178,7 @@
         <f t="shared" si="4"/>
         <v>167.97666666666666</v>
       </c>
-      <c r="AL19" s="147" t="s">
+      <c r="AL19" s="146" t="s">
         <v>608</v>
       </c>
       <c r="AM19" s="30" t="s">
@@ -7180,23 +7214,23 @@
       <c r="A20" s="20">
         <v>49</v>
       </c>
-      <c r="B20" s="192"/>
+      <c r="B20" s="191"/>
       <c r="C20" s="49" t="s">
         <v>501</v>
       </c>
-      <c r="D20" s="130">
+      <c r="D20" s="129">
         <v>1</v>
       </c>
       <c r="E20" s="49" t="s">
         <v>501</v>
       </c>
-      <c r="F20" s="130" t="s">
+      <c r="F20" s="129" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="134" t="s">
+      <c r="H20" s="133" t="s">
         <v>286</v>
       </c>
       <c r="I20" s="49" t="s">
@@ -7217,7 +7251,7 @@
       <c r="N20" s="49">
         <v>36.299999999999997</v>
       </c>
-      <c r="O20" s="123">
+      <c r="O20" s="122">
         <v>1.3</v>
       </c>
       <c r="P20" s="25"/>
@@ -7276,7 +7310,7 @@
       <c r="AG20" s="46">
         <v>20.6</v>
       </c>
-      <c r="AH20" s="135">
+      <c r="AH20" s="134">
         <f t="shared" si="3"/>
         <v>14862.900000000001</v>
       </c>
@@ -7288,7 +7322,7 @@
         <f t="shared" si="4"/>
         <v>41.292499999999997</v>
       </c>
-      <c r="AL20" s="147" t="s">
+      <c r="AL20" s="146" t="s">
         <v>608</v>
       </c>
       <c r="AM20" s="30" t="s">
@@ -7323,28 +7357,28 @@
       <c r="A21" s="20">
         <v>27</v>
       </c>
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="193" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="49" t="s">
         <v>724</v>
       </c>
-      <c r="D21" s="130">
+      <c r="D21" s="129">
         <v>1</v>
       </c>
       <c r="E21" s="49" t="s">
         <v>724</v>
       </c>
-      <c r="F21" s="129" t="s">
+      <c r="F21" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="119" t="s">
+      <c r="G21" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="H21" s="134" t="s">
+      <c r="H21" s="133" t="s">
         <v>286</v>
       </c>
-      <c r="I21" s="118" t="s">
+      <c r="I21" s="117" t="s">
         <v>676</v>
       </c>
       <c r="J21" s="74" t="s">
@@ -7356,13 +7390,13 @@
       <c r="L21" s="74">
         <v>111.5</v>
       </c>
-      <c r="M21" s="98">
+      <c r="M21" s="97">
         <v>-19.600000000000001</v>
       </c>
-      <c r="N21" s="98">
+      <c r="N21" s="97">
         <v>36.6</v>
       </c>
-      <c r="O21" s="124"/>
+      <c r="O21" s="123"/>
       <c r="P21" s="23"/>
       <c r="Q21" s="26" t="s">
         <v>616</v>
@@ -7420,19 +7454,20 @@
       <c r="AG21" s="46">
         <v>121</v>
       </c>
-      <c r="AH21" s="135">
+      <c r="AH21" s="134">
         <f t="shared" si="3"/>
         <v>94222.700000000012</v>
       </c>
       <c r="AI21" s="26"/>
       <c r="AJ21" s="31">
-        <v>6000</v>
+        <f>6000*AN21</f>
+        <v>4672200</v>
       </c>
       <c r="AK21" s="28">
         <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AL21" s="147">
+        <v>1297.8333333333333</v>
+      </c>
+      <c r="AL21" s="146">
         <v>11.6</v>
       </c>
       <c r="AM21" s="26">
@@ -7467,23 +7502,23 @@
       <c r="A22" s="20">
         <v>50</v>
       </c>
-      <c r="B22" s="187"/>
+      <c r="B22" s="194"/>
       <c r="C22" s="49" t="s">
         <v>723</v>
       </c>
-      <c r="D22" s="130">
+      <c r="D22" s="129">
         <v>1</v>
       </c>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="132" t="s">
         <v>723</v>
       </c>
-      <c r="F22" s="129" t="s">
+      <c r="F22" s="128" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="153" t="s">
+      <c r="H22" s="152" t="s">
         <v>173</v>
       </c>
       <c r="I22" s="49" t="s">
@@ -7498,13 +7533,13 @@
       <c r="L22" s="90">
         <v>46.8</v>
       </c>
-      <c r="M22" s="98">
+      <c r="M22" s="97">
         <v>-20</v>
       </c>
-      <c r="N22" s="98">
+      <c r="N22" s="97">
         <v>32.799999999999997</v>
       </c>
-      <c r="O22" s="124"/>
+      <c r="O22" s="123"/>
       <c r="P22" s="91"/>
       <c r="Q22" s="93" t="s">
         <v>616</v>
@@ -7515,7 +7550,7 @@
       <c r="S22" s="92" t="s">
         <v>855</v>
       </c>
-      <c r="T22" s="105" t="s">
+      <c r="T22" s="104" t="s">
         <v>812</v>
       </c>
       <c r="U22" s="52">
@@ -7562,19 +7597,20 @@
       <c r="AG22" s="46">
         <v>121</v>
       </c>
-      <c r="AH22" s="135">
+      <c r="AH22" s="134">
         <f t="shared" si="3"/>
         <v>94222.700000000012</v>
       </c>
       <c r="AI22" s="93"/>
-      <c r="AJ22" s="96">
-        <v>6000</v>
+      <c r="AJ22" s="153">
+        <f>6000*AN22</f>
+        <v>4672200</v>
       </c>
       <c r="AK22" s="95">
         <f t="shared" ref="AK22:AK23" si="9">AJ22/3600</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AL22" s="147">
+        <v>1297.8333333333333</v>
+      </c>
+      <c r="AL22" s="146">
         <v>11.6</v>
       </c>
       <c r="AM22" s="93">
@@ -7609,25 +7645,25 @@
       <c r="A23" s="20">
         <v>64</v>
       </c>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="114" t="s">
         <v>731</v>
       </c>
       <c r="C23" s="49" t="s">
         <v>728</v>
       </c>
-      <c r="D23" s="130">
+      <c r="D23" s="129">
         <v>1</v>
       </c>
-      <c r="E23" s="133" t="s">
+      <c r="E23" s="132" t="s">
         <v>728</v>
       </c>
-      <c r="F23" s="118" t="s">
+      <c r="F23" s="117" t="s">
         <v>725</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>876</v>
       </c>
-      <c r="H23" s="134" t="s">
+      <c r="H23" s="133" t="s">
         <v>173</v>
       </c>
       <c r="I23" s="49" t="s">
@@ -7642,13 +7678,13 @@
       <c r="L23" s="90">
         <v>-5.6</v>
       </c>
-      <c r="M23" s="98">
+      <c r="M23" s="97">
         <v>-5.8</v>
       </c>
-      <c r="N23" s="98">
+      <c r="N23" s="97">
         <v>38</v>
       </c>
-      <c r="O23" s="124"/>
+      <c r="O23" s="123"/>
       <c r="P23" s="91"/>
       <c r="Q23" s="93" t="s">
         <v>616</v>
@@ -7659,7 +7695,7 @@
       <c r="S23" s="92" t="s">
         <v>813</v>
       </c>
-      <c r="T23" s="105" t="s">
+      <c r="T23" s="104" t="s">
         <v>726</v>
       </c>
       <c r="U23" s="52">
@@ -7705,19 +7741,20 @@
       <c r="AG23" s="46">
         <v>78.099999999999994</v>
       </c>
-      <c r="AH23" s="135">
+      <c r="AH23" s="134">
         <f t="shared" si="3"/>
         <v>60816.47</v>
       </c>
       <c r="AI23" s="93"/>
-      <c r="AJ23" s="96">
-        <v>6000</v>
+      <c r="AJ23" s="153">
+        <f>6000*AN23</f>
+        <v>4672200</v>
       </c>
       <c r="AK23" s="95">
         <f t="shared" si="9"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AL23" s="147">
+        <v>1297.8333333333333</v>
+      </c>
+      <c r="AL23" s="146">
         <v>11.6</v>
       </c>
       <c r="AM23" s="93">
@@ -7749,28 +7786,28 @@
       <c r="AV23" s="89"/>
     </row>
     <row r="24" spans="1:48" s="20" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="179">
+      <c r="A24" s="201">
         <v>5</v>
       </c>
-      <c r="B24" s="188" t="s">
+      <c r="B24" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="186" t="s">
+      <c r="C24" s="158" t="s">
         <v>502</v>
       </c>
-      <c r="D24" s="160">
+      <c r="D24" s="154">
         <v>2</v>
       </c>
-      <c r="E24" s="133" t="s">
+      <c r="E24" s="132" t="s">
         <v>875</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="F24" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="153" t="s">
+      <c r="G24" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="134" t="s">
+      <c r="H24" s="133" t="s">
         <v>285</v>
       </c>
       <c r="I24" s="49" t="s">
@@ -7779,7 +7816,7 @@
       <c r="J24" s="49" t="s">
         <v>680</v>
       </c>
-      <c r="K24" s="132">
+      <c r="K24" s="131">
         <v>0.5</v>
       </c>
       <c r="L24" s="49">
@@ -7791,121 +7828,121 @@
       <c r="N24" s="49">
         <v>47.2</v>
       </c>
-      <c r="O24" s="123"/>
+      <c r="O24" s="122"/>
       <c r="P24" s="25"/>
-      <c r="Q24" s="157">
+      <c r="Q24" s="161">
         <v>104</v>
       </c>
-      <c r="R24" s="157" t="s">
+      <c r="R24" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="S24" s="160" t="s">
+      <c r="S24" s="154" t="s">
         <v>557</v>
       </c>
-      <c r="T24" s="160" t="s">
+      <c r="T24" s="154" t="s">
         <v>680</v>
       </c>
-      <c r="U24" s="172">
+      <c r="U24" s="188">
         <v>100</v>
       </c>
-      <c r="V24" s="109" t="s">
+      <c r="V24" s="108" t="s">
         <v>544</v>
       </c>
-      <c r="W24" s="157" t="s">
+      <c r="W24" s="161" t="s">
         <v>380</v>
       </c>
-      <c r="X24" s="157" t="s">
+      <c r="X24" s="161" t="s">
         <v>381</v>
       </c>
-      <c r="Y24" s="108">
+      <c r="Y24" s="107">
         <v>14</v>
       </c>
-      <c r="Z24" s="103" t="s">
+      <c r="Z24" s="102" t="s">
         <v>773</v>
       </c>
-      <c r="AA24" s="110">
+      <c r="AA24" s="109">
         <v>120</v>
       </c>
-      <c r="AB24" s="109">
+      <c r="AB24" s="108">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="AC24" s="108">
+      <c r="AC24" s="107">
         <v>12.35</v>
       </c>
-      <c r="AD24" s="163">
+      <c r="AD24" s="164">
         <f t="shared" si="0"/>
         <v>12.967499999999999</v>
       </c>
-      <c r="AE24" s="163">
+      <c r="AE24" s="164">
         <v>21.35</v>
       </c>
-      <c r="AF24" s="163">
+      <c r="AF24" s="164">
         <f t="shared" si="2"/>
         <v>34.317500000000003</v>
       </c>
-      <c r="AG24" s="163">
+      <c r="AG24" s="164">
         <v>214.3</v>
       </c>
-      <c r="AH24" s="135">
+      <c r="AH24" s="134">
         <f t="shared" si="3"/>
         <v>2614.46</v>
       </c>
-      <c r="AI24" s="108"/>
-      <c r="AJ24" s="167">
+      <c r="AI24" s="107"/>
+      <c r="AJ24" s="170">
         <v>20277</v>
       </c>
-      <c r="AK24" s="163">
+      <c r="AK24" s="164">
         <f t="shared" si="4"/>
         <v>5.6325000000000003</v>
       </c>
-      <c r="AL24" s="169">
+      <c r="AL24" s="177">
         <v>8</v>
       </c>
-      <c r="AM24" s="157">
+      <c r="AM24" s="161">
         <v>117.5</v>
       </c>
-      <c r="AN24" s="157">
+      <c r="AN24" s="161">
         <v>12.2</v>
       </c>
-      <c r="AO24" s="157" t="s">
+      <c r="AO24" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="AP24" s="157" t="s">
+      <c r="AP24" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AQ24" s="108">
+      <c r="AQ24" s="107">
         <v>2</v>
       </c>
-      <c r="AR24" s="154">
+      <c r="AR24" s="181">
         <f t="shared" si="5"/>
         <v>17.917006119334079</v>
       </c>
-      <c r="AS24" s="108">
+      <c r="AS24" s="107">
         <v>252</v>
       </c>
-      <c r="AT24" s="108"/>
-      <c r="AU24" s="157">
+      <c r="AT24" s="107"/>
+      <c r="AU24" s="161">
         <f>AA24+30+AQ24</f>
         <v>152</v>
       </c>
       <c r="AV24" s="30"/>
     </row>
     <row r="25" spans="1:48" s="20" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="179"/>
-      <c r="B25" s="188"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="133" t="s">
+      <c r="A25" s="201"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="132" t="s">
         <v>833</v>
       </c>
-      <c r="F25" s="129" t="s">
+      <c r="F25" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="153" t="s">
+      <c r="G25" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="134" t="s">
+      <c r="H25" s="133" t="s">
         <v>286</v>
       </c>
       <c r="I25" s="49" t="s">
@@ -7914,7 +7951,7 @@
       <c r="J25" s="49" t="s">
         <v>681</v>
       </c>
-      <c r="K25" s="132">
+      <c r="K25" s="131">
         <v>0.5</v>
       </c>
       <c r="L25" s="49">
@@ -7926,67 +7963,67 @@
       <c r="N25" s="49">
         <v>38.5</v>
       </c>
-      <c r="O25" s="123">
+      <c r="O25" s="122">
         <v>3.5</v>
       </c>
       <c r="P25" s="25"/>
-      <c r="Q25" s="159"/>
-      <c r="R25" s="159"/>
-      <c r="S25" s="162"/>
-      <c r="T25" s="162"/>
-      <c r="U25" s="194"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="159"/>
-      <c r="X25" s="159"/>
-      <c r="Y25" s="111"/>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="113"/>
-      <c r="AB25" s="113"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="178"/>
-      <c r="AE25" s="178"/>
-      <c r="AF25" s="178"/>
-      <c r="AG25" s="178"/>
-      <c r="AH25" s="135">
+      <c r="Q25" s="163"/>
+      <c r="R25" s="163"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="190"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="163"/>
+      <c r="X25" s="163"/>
+      <c r="Y25" s="110"/>
+      <c r="Z25" s="111"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="166"/>
+      <c r="AE25" s="166"/>
+      <c r="AF25" s="166"/>
+      <c r="AG25" s="166"/>
+      <c r="AH25" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI25" s="111"/>
-      <c r="AJ25" s="177"/>
-      <c r="AK25" s="178"/>
-      <c r="AL25" s="171"/>
-      <c r="AM25" s="159"/>
-      <c r="AN25" s="159"/>
-      <c r="AO25" s="159"/>
-      <c r="AP25" s="159"/>
-      <c r="AQ25" s="111"/>
-      <c r="AR25" s="156"/>
-      <c r="AS25" s="111"/>
-      <c r="AT25" s="111"/>
-      <c r="AU25" s="159"/>
+      <c r="AI25" s="110"/>
+      <c r="AJ25" s="172"/>
+      <c r="AK25" s="166"/>
+      <c r="AL25" s="178"/>
+      <c r="AM25" s="163"/>
+      <c r="AN25" s="163"/>
+      <c r="AO25" s="163"/>
+      <c r="AP25" s="163"/>
+      <c r="AQ25" s="110"/>
+      <c r="AR25" s="183"/>
+      <c r="AS25" s="110"/>
+      <c r="AT25" s="110"/>
+      <c r="AU25" s="163"/>
       <c r="AV25" s="73"/>
     </row>
     <row r="26" spans="1:48" s="20" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>6</v>
       </c>
-      <c r="B26" s="188"/>
+      <c r="B26" s="195"/>
       <c r="C26" s="49" t="s">
         <v>503</v>
       </c>
-      <c r="D26" s="130">
+      <c r="D26" s="129">
         <v>1</v>
       </c>
-      <c r="E26" s="133" t="s">
+      <c r="E26" s="132" t="s">
         <v>503</v>
       </c>
-      <c r="F26" s="129" t="s">
+      <c r="F26" s="128" t="s">
         <v>65</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="134" t="s">
+      <c r="H26" s="133" t="s">
         <v>286</v>
       </c>
       <c r="I26" s="49" t="s">
@@ -8007,7 +8044,7 @@
       <c r="N26" s="49">
         <v>35.799999999999997</v>
       </c>
-      <c r="O26" s="123">
+      <c r="O26" s="122">
         <v>0.8</v>
       </c>
       <c r="P26" s="25"/>
@@ -8065,7 +8102,7 @@
       <c r="AG26" s="46">
         <v>20.6</v>
       </c>
-      <c r="AH26" s="135">
+      <c r="AH26" s="134">
         <f t="shared" si="3"/>
         <v>16148.34</v>
       </c>
@@ -8077,7 +8114,7 @@
         <f t="shared" si="4"/>
         <v>0.82583333333333331</v>
       </c>
-      <c r="AL26" s="147">
+      <c r="AL26" s="146">
         <v>13</v>
       </c>
       <c r="AM26" s="30">
@@ -8112,25 +8149,25 @@
       <c r="A27" s="20">
         <v>7</v>
       </c>
-      <c r="B27" s="188" t="s">
+      <c r="B27" s="195" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="184" t="s">
+      <c r="C27" s="192" t="s">
         <v>504</v>
       </c>
-      <c r="D27" s="182">
+      <c r="D27" s="202">
         <v>2</v>
       </c>
-      <c r="E27" s="133" t="s">
+      <c r="E27" s="132" t="s">
         <v>834</v>
       </c>
-      <c r="F27" s="129" t="s">
+      <c r="F27" s="128" t="s">
         <v>191</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="134" t="s">
+      <c r="H27" s="133" t="s">
         <v>285</v>
       </c>
       <c r="I27" s="49" t="s">
@@ -8139,19 +8176,19 @@
       <c r="J27" s="49" t="s">
         <v>685</v>
       </c>
-      <c r="K27" s="132">
+      <c r="K27" s="131">
         <v>0.5</v>
       </c>
       <c r="L27" s="74">
         <v>133.30000000000001</v>
       </c>
-      <c r="M27" s="98">
+      <c r="M27" s="97">
         <v>15.3</v>
       </c>
-      <c r="N27" s="98">
+      <c r="N27" s="97">
         <v>47.3</v>
       </c>
-      <c r="O27" s="124"/>
+      <c r="O27" s="123"/>
       <c r="P27" s="23"/>
       <c r="Q27" s="26">
         <v>109</v>
@@ -8159,22 +8196,22 @@
       <c r="R27" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="S27" s="160" t="s">
+      <c r="S27" s="154" t="s">
         <v>70</v>
       </c>
-      <c r="T27" s="195" t="s">
+      <c r="T27" s="185" t="s">
         <v>685</v>
       </c>
-      <c r="U27" s="172">
+      <c r="U27" s="188">
         <v>100</v>
       </c>
       <c r="V27" s="43" t="s">
         <v>544</v>
       </c>
-      <c r="W27" s="157" t="s">
+      <c r="W27" s="161" t="s">
         <v>382</v>
       </c>
-      <c r="X27" s="157" t="s">
+      <c r="X27" s="161" t="s">
         <v>357</v>
       </c>
       <c r="Y27" s="43">
@@ -8193,52 +8230,52 @@
       <c r="AC27" s="26">
         <v>18.23</v>
       </c>
-      <c r="AD27" s="163">
+      <c r="AD27" s="164">
         <f t="shared" si="0"/>
         <v>19.141500000000001</v>
       </c>
-      <c r="AE27" s="163">
+      <c r="AE27" s="164">
         <f>6.1+1.5</f>
         <v>7.6</v>
       </c>
-      <c r="AF27" s="163">
+      <c r="AF27" s="164">
         <f t="shared" si="2"/>
         <v>26.741500000000002</v>
       </c>
-      <c r="AG27" s="165">
+      <c r="AG27" s="167">
         <v>34.299999999999997</v>
       </c>
-      <c r="AH27" s="135">
+      <c r="AH27" s="134">
         <f t="shared" si="3"/>
         <v>991.26999999999987</v>
       </c>
       <c r="AI27" s="26"/>
-      <c r="AJ27" s="167">
+      <c r="AJ27" s="170">
         <v>36563</v>
       </c>
-      <c r="AK27" s="163">
+      <c r="AK27" s="164">
         <f t="shared" si="4"/>
         <v>10.156388888888889</v>
       </c>
-      <c r="AL27" s="169">
+      <c r="AL27" s="177">
         <v>25.2</v>
       </c>
-      <c r="AM27" s="157">
+      <c r="AM27" s="161">
         <v>126</v>
       </c>
-      <c r="AN27" s="157">
+      <c r="AN27" s="161">
         <v>28.9</v>
       </c>
       <c r="AO27" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AP27" s="157" t="s">
+      <c r="AP27" s="161" t="s">
         <v>72</v>
       </c>
       <c r="AQ27" s="43">
         <v>2</v>
       </c>
-      <c r="AR27" s="154">
+      <c r="AR27" s="181">
         <f t="shared" si="5"/>
         <v>14.006367978496231</v>
       </c>
@@ -8248,7 +8285,7 @@
       <c r="AT27" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="AU27" s="157">
+      <c r="AU27" s="161">
         <f>AA27+30+AQ27</f>
         <v>152</v>
       </c>
@@ -8256,19 +8293,19 @@
     </row>
     <row r="28" spans="1:48" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
-      <c r="B28" s="188"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="133" t="s">
+      <c r="B28" s="195"/>
+      <c r="C28" s="192"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="132" t="s">
         <v>835</v>
       </c>
-      <c r="F28" s="129" t="s">
+      <c r="F28" s="128" t="s">
         <v>191</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="134" t="s">
+      <c r="H28" s="133" t="s">
         <v>286</v>
       </c>
       <c r="I28" s="49" t="s">
@@ -8277,19 +8314,19 @@
       <c r="J28" s="49" t="s">
         <v>687</v>
       </c>
-      <c r="K28" s="132">
+      <c r="K28" s="131">
         <v>0.5</v>
       </c>
       <c r="L28" s="74">
         <v>131.4</v>
       </c>
-      <c r="M28" s="98">
+      <c r="M28" s="97">
         <v>12.2</v>
       </c>
-      <c r="N28" s="98">
+      <c r="N28" s="97">
         <v>38.6</v>
       </c>
-      <c r="O28" s="124">
+      <c r="O28" s="123">
         <v>3.6</v>
       </c>
       <c r="P28" s="75"/>
@@ -8299,61 +8336,61 @@
       <c r="R28" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="S28" s="162"/>
-      <c r="T28" s="196"/>
-      <c r="U28" s="194"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="187"/>
+      <c r="U28" s="190"/>
       <c r="V28" s="93"/>
-      <c r="W28" s="159"/>
-      <c r="X28" s="159"/>
+      <c r="W28" s="163"/>
+      <c r="X28" s="163"/>
       <c r="Y28" s="93"/>
       <c r="Z28" s="92"/>
       <c r="AA28" s="67"/>
       <c r="AB28" s="93"/>
       <c r="AC28" s="93"/>
-      <c r="AD28" s="178"/>
-      <c r="AE28" s="178"/>
-      <c r="AF28" s="178"/>
-      <c r="AG28" s="176"/>
-      <c r="AH28" s="135">
+      <c r="AD28" s="166"/>
+      <c r="AE28" s="166"/>
+      <c r="AF28" s="166"/>
+      <c r="AG28" s="169"/>
+      <c r="AH28" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI28" s="93"/>
-      <c r="AJ28" s="177"/>
-      <c r="AK28" s="178"/>
-      <c r="AL28" s="171"/>
-      <c r="AM28" s="159"/>
-      <c r="AN28" s="159"/>
+      <c r="AJ28" s="172"/>
+      <c r="AK28" s="166"/>
+      <c r="AL28" s="178"/>
+      <c r="AM28" s="163"/>
+      <c r="AN28" s="163"/>
       <c r="AO28" s="94"/>
-      <c r="AP28" s="159"/>
+      <c r="AP28" s="163"/>
       <c r="AQ28" s="93"/>
-      <c r="AR28" s="156"/>
+      <c r="AR28" s="183"/>
       <c r="AS28" s="93"/>
       <c r="AT28" s="93"/>
-      <c r="AU28" s="159"/>
+      <c r="AU28" s="163"/>
       <c r="AV28" s="72"/>
     </row>
     <row r="29" spans="1:48" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>8</v>
       </c>
-      <c r="B29" s="188"/>
+      <c r="B29" s="195"/>
       <c r="C29" s="49" t="s">
         <v>505</v>
       </c>
-      <c r="D29" s="130">
+      <c r="D29" s="129">
         <v>1</v>
       </c>
-      <c r="E29" s="133" t="s">
+      <c r="E29" s="132" t="s">
         <v>505</v>
       </c>
-      <c r="F29" s="129" t="s">
+      <c r="F29" s="128" t="s">
         <v>191</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="134" t="s">
+      <c r="H29" s="133" t="s">
         <v>286</v>
       </c>
       <c r="I29" s="49" t="s">
@@ -8368,13 +8405,13 @@
       <c r="L29" s="74">
         <v>128</v>
       </c>
-      <c r="M29" s="98">
+      <c r="M29" s="97">
         <v>6.2</v>
       </c>
-      <c r="N29" s="98">
+      <c r="N29" s="97">
         <v>41</v>
       </c>
-      <c r="O29" s="124">
+      <c r="O29" s="123">
         <v>6</v>
       </c>
       <c r="P29" s="23"/>
@@ -8432,7 +8469,7 @@
       <c r="AG29" s="46">
         <v>20.6</v>
       </c>
-      <c r="AH29" s="135">
+      <c r="AH29" s="134">
         <f t="shared" si="3"/>
         <v>13670.160000000002</v>
       </c>
@@ -8444,7 +8481,7 @@
         <f t="shared" si="4"/>
         <v>1.3627777777777779</v>
       </c>
-      <c r="AL29" s="147">
+      <c r="AL29" s="146">
         <v>6.7</v>
       </c>
       <c r="AM29" s="26">
@@ -8476,72 +8513,72 @@
       <c r="AV29" s="26"/>
     </row>
     <row r="30" spans="1:48" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="179">
+      <c r="A30" s="201">
         <v>29</v>
       </c>
-      <c r="B30" s="189" t="s">
+      <c r="B30" s="196" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="184" t="s">
+      <c r="C30" s="192" t="s">
         <v>506</v>
       </c>
-      <c r="D30" s="182">
+      <c r="D30" s="202">
         <v>3</v>
       </c>
-      <c r="E30" s="133" t="s">
+      <c r="E30" s="132" t="s">
         <v>846</v>
       </c>
-      <c r="F30" s="129" t="s">
+      <c r="F30" s="128" t="s">
         <v>78</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="134" t="s">
+      <c r="H30" s="133" t="s">
         <v>654</v>
       </c>
-      <c r="I30" s="182" t="s">
+      <c r="I30" s="202" t="s">
         <v>692</v>
       </c>
       <c r="J30" s="49" t="s">
         <v>847</v>
       </c>
-      <c r="K30" s="132">
+      <c r="K30" s="131">
         <v>0.2</v>
       </c>
-      <c r="L30" s="118">
+      <c r="L30" s="117">
         <v>123.2</v>
       </c>
-      <c r="M30" s="118">
+      <c r="M30" s="117">
         <v>-12</v>
       </c>
-      <c r="N30" s="118">
+      <c r="N30" s="117">
         <v>55.6</v>
       </c>
-      <c r="O30" s="124"/>
+      <c r="O30" s="123"/>
       <c r="P30" s="23"/>
-      <c r="Q30" s="157" t="s">
+      <c r="Q30" s="161" t="s">
         <v>80</v>
       </c>
-      <c r="R30" s="157" t="s">
+      <c r="R30" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="S30" s="160" t="s">
+      <c r="S30" s="154" t="s">
         <v>212</v>
       </c>
-      <c r="T30" s="195" t="s">
+      <c r="T30" s="185" t="s">
         <v>691</v>
       </c>
-      <c r="U30" s="172">
+      <c r="U30" s="188">
         <v>200</v>
       </c>
       <c r="V30" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="W30" s="157" t="s">
+      <c r="W30" s="161" t="s">
         <v>383</v>
       </c>
-      <c r="X30" s="157" t="s">
+      <c r="X30" s="161" t="s">
         <v>261</v>
       </c>
       <c r="Y30" s="43">
@@ -8560,51 +8597,51 @@
       <c r="AC30" s="26">
         <v>23.2</v>
       </c>
-      <c r="AD30" s="163">
+      <c r="AD30" s="164">
         <f t="shared" si="0"/>
         <v>24.36</v>
       </c>
-      <c r="AE30" s="163">
+      <c r="AE30" s="164">
         <v>23.21</v>
       </c>
-      <c r="AF30" s="163">
+      <c r="AF30" s="164">
         <f t="shared" si="2"/>
         <v>47.57</v>
       </c>
-      <c r="AG30" s="165">
+      <c r="AG30" s="167">
         <v>68.900000000000006</v>
       </c>
-      <c r="AH30" s="135">
+      <c r="AH30" s="134">
         <f t="shared" si="3"/>
         <v>8040.630000000001</v>
       </c>
       <c r="AI30" s="26"/>
-      <c r="AJ30" s="167">
+      <c r="AJ30" s="170">
         <v>31020</v>
       </c>
-      <c r="AK30" s="163">
+      <c r="AK30" s="164">
         <f t="shared" si="4"/>
         <v>8.6166666666666671</v>
       </c>
-      <c r="AL30" s="169">
+      <c r="AL30" s="177">
         <v>109.2</v>
       </c>
-      <c r="AM30" s="157">
+      <c r="AM30" s="161">
         <v>101.3</v>
       </c>
-      <c r="AN30" s="157">
+      <c r="AN30" s="161">
         <v>116.7</v>
       </c>
       <c r="AO30" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="AP30" s="157" t="s">
+      <c r="AP30" s="161" t="s">
         <v>82</v>
       </c>
       <c r="AQ30" s="43">
         <v>4</v>
       </c>
-      <c r="AR30" s="154">
+      <c r="AR30" s="181">
         <f t="shared" si="5"/>
         <v>27.461611886204622</v>
       </c>
@@ -8612,7 +8649,7 @@
         <v>592</v>
       </c>
       <c r="AT30" s="26"/>
-      <c r="AU30" s="157">
+      <c r="AU30" s="161">
         <f>AA30+30+AQ30</f>
         <v>154</v>
       </c>
@@ -8622,91 +8659,91 @@
       </c>
     </row>
     <row r="31" spans="1:48" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="179"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="184"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="133" t="s">
+      <c r="A31" s="201"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="132" t="s">
         <v>836</v>
       </c>
-      <c r="F31" s="129" t="s">
+      <c r="F31" s="128" t="s">
         <v>78</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H31" s="134" t="s">
+      <c r="H31" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="I31" s="185"/>
+      <c r="I31" s="204"/>
       <c r="J31" s="49" t="s">
         <v>691</v>
       </c>
-      <c r="K31" s="132">
+      <c r="K31" s="131">
         <v>0.2</v>
       </c>
-      <c r="L31" s="118">
+      <c r="L31" s="117">
         <v>124.5</v>
       </c>
-      <c r="M31" s="118">
+      <c r="M31" s="117">
         <v>-9</v>
       </c>
-      <c r="N31" s="118">
+      <c r="N31" s="117">
         <v>47.6</v>
       </c>
-      <c r="O31" s="124"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="158"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="161"/>
-      <c r="T31" s="197"/>
-      <c r="U31" s="173"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="158"/>
-      <c r="X31" s="158"/>
-      <c r="Y31" s="120"/>
-      <c r="Z31" s="118"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="162"/>
+      <c r="R31" s="162"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="186"/>
+      <c r="U31" s="189"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="162"/>
+      <c r="Y31" s="119"/>
+      <c r="Z31" s="117"/>
       <c r="AA31" s="67"/>
-      <c r="AB31" s="120"/>
-      <c r="AC31" s="120"/>
-      <c r="AD31" s="164"/>
-      <c r="AE31" s="164"/>
-      <c r="AF31" s="164"/>
-      <c r="AG31" s="166"/>
-      <c r="AH31" s="135">
+      <c r="AB31" s="119"/>
+      <c r="AC31" s="119"/>
+      <c r="AD31" s="165"/>
+      <c r="AE31" s="165"/>
+      <c r="AF31" s="165"/>
+      <c r="AG31" s="168"/>
+      <c r="AH31" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI31" s="120"/>
-      <c r="AJ31" s="168"/>
-      <c r="AK31" s="164"/>
-      <c r="AL31" s="170"/>
-      <c r="AM31" s="158"/>
-      <c r="AN31" s="158"/>
-      <c r="AO31" s="120"/>
-      <c r="AP31" s="158"/>
-      <c r="AQ31" s="120"/>
-      <c r="AR31" s="155"/>
-      <c r="AS31" s="120"/>
-      <c r="AT31" s="120"/>
-      <c r="AU31" s="158"/>
-      <c r="AV31" s="120"/>
+      <c r="AI31" s="119"/>
+      <c r="AJ31" s="171"/>
+      <c r="AK31" s="165"/>
+      <c r="AL31" s="184"/>
+      <c r="AM31" s="162"/>
+      <c r="AN31" s="162"/>
+      <c r="AO31" s="119"/>
+      <c r="AP31" s="162"/>
+      <c r="AQ31" s="119"/>
+      <c r="AR31" s="182"/>
+      <c r="AS31" s="119"/>
+      <c r="AT31" s="119"/>
+      <c r="AU31" s="162"/>
+      <c r="AV31" s="119"/>
     </row>
     <row r="32" spans="1:48" ht="99" x14ac:dyDescent="0.25">
-      <c r="A32" s="179"/>
-      <c r="B32" s="190"/>
-      <c r="C32" s="184"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="133" t="s">
+      <c r="A32" s="201"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="132" t="s">
         <v>837</v>
       </c>
-      <c r="F32" s="129" t="s">
+      <c r="F32" s="128" t="s">
         <v>78</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="134" t="s">
+      <c r="H32" s="133" t="s">
         <v>286</v>
       </c>
       <c r="I32" s="49" t="s">
@@ -8715,77 +8752,77 @@
       <c r="J32" s="49" t="s">
         <v>690</v>
       </c>
-      <c r="K32" s="132">
+      <c r="K32" s="131">
         <v>0.6</v>
       </c>
       <c r="L32" s="74">
         <v>125.9</v>
       </c>
-      <c r="M32" s="98">
+      <c r="M32" s="97">
         <v>-15.1</v>
       </c>
-      <c r="N32" s="98">
+      <c r="N32" s="97">
         <v>38.700000000000003</v>
       </c>
-      <c r="O32" s="124"/>
+      <c r="O32" s="123"/>
       <c r="P32" s="75"/>
-      <c r="Q32" s="159"/>
-      <c r="R32" s="159"/>
-      <c r="S32" s="162"/>
-      <c r="T32" s="196"/>
-      <c r="U32" s="194"/>
+      <c r="Q32" s="163"/>
+      <c r="R32" s="163"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="187"/>
+      <c r="U32" s="190"/>
       <c r="V32" s="93"/>
-      <c r="W32" s="159"/>
-      <c r="X32" s="159"/>
+      <c r="W32" s="163"/>
+      <c r="X32" s="163"/>
       <c r="Y32" s="93"/>
       <c r="Z32" s="92"/>
       <c r="AA32" s="67"/>
       <c r="AB32" s="93"/>
       <c r="AC32" s="93"/>
-      <c r="AD32" s="178"/>
-      <c r="AE32" s="178"/>
-      <c r="AF32" s="178"/>
-      <c r="AG32" s="176"/>
-      <c r="AH32" s="135">
+      <c r="AD32" s="166"/>
+      <c r="AE32" s="166"/>
+      <c r="AF32" s="166"/>
+      <c r="AG32" s="169"/>
+      <c r="AH32" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI32" s="93"/>
-      <c r="AJ32" s="177"/>
-      <c r="AK32" s="178"/>
-      <c r="AL32" s="171"/>
-      <c r="AM32" s="159"/>
-      <c r="AN32" s="159"/>
+      <c r="AJ32" s="172"/>
+      <c r="AK32" s="166"/>
+      <c r="AL32" s="178"/>
+      <c r="AM32" s="163"/>
+      <c r="AN32" s="163"/>
       <c r="AO32" s="93"/>
-      <c r="AP32" s="159"/>
+      <c r="AP32" s="163"/>
       <c r="AQ32" s="93"/>
-      <c r="AR32" s="156"/>
+      <c r="AR32" s="183"/>
       <c r="AS32" s="93"/>
       <c r="AT32" s="93"/>
-      <c r="AU32" s="159"/>
+      <c r="AU32" s="163"/>
       <c r="AV32" s="72"/>
     </row>
     <row r="33" spans="1:49" ht="66" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>30</v>
       </c>
-      <c r="B33" s="190"/>
+      <c r="B33" s="197"/>
       <c r="C33" s="49" t="s">
         <v>507</v>
       </c>
-      <c r="D33" s="130">
+      <c r="D33" s="129">
         <v>1</v>
       </c>
       <c r="E33" s="49" t="s">
         <v>507</v>
       </c>
-      <c r="F33" s="129" t="s">
+      <c r="F33" s="128" t="s">
         <v>78</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="134" t="s">
+      <c r="H33" s="133" t="s">
         <v>286</v>
       </c>
       <c r="I33" s="49" t="s">
@@ -8800,13 +8837,13 @@
       <c r="L33" s="74">
         <v>124.1</v>
       </c>
-      <c r="M33" s="98">
+      <c r="M33" s="97">
         <v>-21.6</v>
       </c>
-      <c r="N33" s="98">
+      <c r="N33" s="97">
         <v>41.4</v>
       </c>
-      <c r="O33" s="124">
+      <c r="O33" s="123">
         <v>6.4</v>
       </c>
       <c r="P33" s="23"/>
@@ -8864,7 +8901,7 @@
       <c r="AG33" s="46">
         <v>19.8</v>
       </c>
-      <c r="AH33" s="135">
+      <c r="AH33" s="134">
         <f t="shared" si="3"/>
         <v>11133.539999999999</v>
       </c>
@@ -8876,7 +8913,7 @@
         <f t="shared" si="4"/>
         <v>2.4669444444444446</v>
       </c>
-      <c r="AL33" s="147">
+      <c r="AL33" s="146">
         <v>23.9</v>
       </c>
       <c r="AM33" s="26">
@@ -8911,23 +8948,23 @@
       <c r="A34" s="20">
         <v>31</v>
       </c>
-      <c r="B34" s="190"/>
+      <c r="B34" s="197"/>
       <c r="C34" s="49" t="s">
         <v>508</v>
       </c>
-      <c r="D34" s="130">
+      <c r="D34" s="129">
         <v>1</v>
       </c>
       <c r="E34" s="49" t="s">
         <v>508</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="128" t="s">
         <v>78</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="H34" s="134" t="s">
+      <c r="H34" s="133" t="s">
         <v>286</v>
       </c>
       <c r="I34" s="49" t="s">
@@ -8942,13 +8979,13 @@
       <c r="L34" s="74">
         <v>128.30000000000001</v>
       </c>
-      <c r="M34" s="98">
+      <c r="M34" s="97">
         <v>-21.5</v>
       </c>
-      <c r="N34" s="98">
+      <c r="N34" s="97">
         <v>41.1</v>
       </c>
-      <c r="O34" s="124">
+      <c r="O34" s="123">
         <v>6.1</v>
       </c>
       <c r="P34" s="23"/>
@@ -9006,7 +9043,7 @@
       <c r="AG34" s="46">
         <v>19.8</v>
       </c>
-      <c r="AH34" s="135">
+      <c r="AH34" s="134">
         <f t="shared" si="3"/>
         <v>9149.58</v>
       </c>
@@ -9018,7 +9055,7 @@
         <f t="shared" si="4"/>
         <v>1.7183333333333333</v>
       </c>
-      <c r="AL34" s="147">
+      <c r="AL34" s="146">
         <v>53.4</v>
       </c>
       <c r="AM34" s="26">
@@ -9053,19 +9090,19 @@
       <c r="A35" s="20">
         <v>32</v>
       </c>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="114" t="s">
         <v>93</v>
       </c>
       <c r="C35" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="D35" s="130">
+      <c r="D35" s="129">
         <v>1</v>
       </c>
       <c r="E35" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="F35" s="118" t="s">
+      <c r="F35" s="117" t="s">
         <v>94</v>
       </c>
       <c r="G35" s="25" t="s">
@@ -9086,13 +9123,13 @@
       <c r="L35" s="74">
         <v>128.80000000000001</v>
       </c>
-      <c r="M35" s="98">
+      <c r="M35" s="97">
         <v>-6.4</v>
       </c>
-      <c r="N35" s="98">
+      <c r="N35" s="97">
         <v>48</v>
       </c>
-      <c r="O35" s="124"/>
+      <c r="O35" s="123"/>
       <c r="P35" s="23"/>
       <c r="Q35" s="26">
         <v>110</v>
@@ -9103,7 +9140,7 @@
       <c r="S35" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="T35" s="105" t="s">
+      <c r="T35" s="104" t="s">
         <v>814</v>
       </c>
       <c r="U35" s="52">
@@ -9146,7 +9183,7 @@
       <c r="AG35" s="46">
         <v>85.7</v>
       </c>
-      <c r="AH35" s="135">
+      <c r="AH35" s="134">
         <f t="shared" si="3"/>
         <v>2245.34</v>
       </c>
@@ -9158,7 +9195,7 @@
         <f t="shared" si="4"/>
         <v>12.801666666666666</v>
       </c>
-      <c r="AL35" s="147">
+      <c r="AL35" s="146">
         <v>25.2</v>
       </c>
       <c r="AM35" s="26">
@@ -9194,19 +9231,19 @@
       <c r="A36" s="20">
         <v>33</v>
       </c>
-      <c r="B36" s="188" t="s">
+      <c r="B36" s="195" t="s">
         <v>98</v>
       </c>
       <c r="C36" s="49" t="s">
         <v>510</v>
       </c>
-      <c r="D36" s="130">
+      <c r="D36" s="129">
         <v>1</v>
       </c>
       <c r="E36" s="49" t="s">
         <v>510</v>
       </c>
-      <c r="F36" s="129" t="s">
+      <c r="F36" s="128" t="s">
         <v>99</v>
       </c>
       <c r="G36" s="25" t="s">
@@ -9227,13 +9264,13 @@
       <c r="L36" s="74">
         <v>136.6</v>
       </c>
-      <c r="M36" s="98">
+      <c r="M36" s="97">
         <v>-16</v>
       </c>
-      <c r="N36" s="98">
+      <c r="N36" s="97">
         <v>51.2</v>
       </c>
-      <c r="O36" s="124"/>
+      <c r="O36" s="123"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="26">
         <v>116</v>
@@ -9289,7 +9326,7 @@
       <c r="AG36" s="46">
         <v>131.5</v>
       </c>
-      <c r="AH36" s="135">
+      <c r="AH36" s="134">
         <f t="shared" si="3"/>
         <v>14530.75</v>
       </c>
@@ -9301,7 +9338,7 @@
         <f t="shared" si="4"/>
         <v>135.30083333333334</v>
       </c>
-      <c r="AL36" s="147">
+      <c r="AL36" s="146">
         <v>107.4</v>
       </c>
       <c r="AM36" s="26">
@@ -9345,24 +9382,24 @@
       <c r="A37" s="20">
         <v>34</v>
       </c>
-      <c r="B37" s="188"/>
+      <c r="B37" s="195"/>
       <c r="C37" s="49" t="s">
         <v>511</v>
       </c>
-      <c r="D37" s="130">
+      <c r="D37" s="129">
         <v>1</v>
       </c>
       <c r="E37" s="49" t="s">
         <v>511</v>
       </c>
-      <c r="F37" s="129" t="s">
+      <c r="F37" s="128" t="s">
         <v>99</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>100</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I37" s="49" t="s">
         <v>815</v>
@@ -9376,13 +9413,13 @@
       <c r="L37" s="74">
         <v>144.6</v>
       </c>
-      <c r="M37" s="98">
+      <c r="M37" s="97">
         <v>7.5</v>
       </c>
-      <c r="N37" s="98">
+      <c r="N37" s="97">
         <v>38.4</v>
       </c>
-      <c r="O37" s="124"/>
+      <c r="O37" s="123"/>
       <c r="P37" s="23"/>
       <c r="Q37" s="26" t="s">
         <v>104</v>
@@ -9438,7 +9475,7 @@
       <c r="AG37" s="46">
         <v>22.7</v>
       </c>
-      <c r="AH37" s="135">
+      <c r="AH37" s="134">
         <f t="shared" si="3"/>
         <v>14727.759999999998</v>
       </c>
@@ -9450,7 +9487,7 @@
         <f t="shared" si="4"/>
         <v>3.96</v>
       </c>
-      <c r="AL37" s="147">
+      <c r="AL37" s="146">
         <v>106.2</v>
       </c>
       <c r="AM37" s="26">
@@ -9482,49 +9519,49 @@
       <c r="AV37" s="26"/>
     </row>
     <row r="38" spans="1:49" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="179">
+      <c r="A38" s="201">
         <v>15</v>
       </c>
-      <c r="B38" s="180" t="s">
+      <c r="B38" s="193" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="184" t="s">
+      <c r="C38" s="192" t="s">
         <v>512</v>
       </c>
-      <c r="D38" s="182">
+      <c r="D38" s="202">
         <v>3</v>
       </c>
-      <c r="E38" s="116" t="s">
+      <c r="E38" s="115" t="s">
         <v>838</v>
       </c>
-      <c r="F38" s="129" t="s">
+      <c r="F38" s="128" t="s">
         <v>108</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="H38" s="126" t="s">
+      <c r="H38" s="125" t="s">
         <v>286</v>
       </c>
-      <c r="I38" s="184" t="s">
+      <c r="I38" s="192" t="s">
         <v>658</v>
       </c>
       <c r="J38" s="49" t="s">
         <v>660</v>
       </c>
-      <c r="K38" s="132">
+      <c r="K38" s="131">
         <v>0.6</v>
       </c>
       <c r="L38" s="74">
         <v>146.69999999999999</v>
       </c>
-      <c r="M38" s="98">
+      <c r="M38" s="97">
         <v>10.3</v>
       </c>
-      <c r="N38" s="98">
+      <c r="N38" s="97">
         <v>49</v>
       </c>
-      <c r="O38" s="124"/>
+      <c r="O38" s="123"/>
       <c r="P38" s="23"/>
       <c r="Q38" s="26">
         <v>318</v>
@@ -9532,7 +9569,7 @@
       <c r="R38" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="S38" s="160" t="s">
+      <c r="S38" s="154" t="s">
         <v>109</v>
       </c>
       <c r="T38" s="66" t="s">
@@ -9544,10 +9581,10 @@
       <c r="V38" s="43" t="s">
         <v>544</v>
       </c>
-      <c r="W38" s="157" t="s">
+      <c r="W38" s="161" t="s">
         <v>388</v>
       </c>
-      <c r="X38" s="157" t="s">
+      <c r="X38" s="161" t="s">
         <v>216</v>
       </c>
       <c r="Y38" s="43">
@@ -9566,51 +9603,51 @@
       <c r="AC38" s="26">
         <v>33</v>
       </c>
-      <c r="AD38" s="163">
+      <c r="AD38" s="164">
         <f t="shared" si="0"/>
         <v>34.65</v>
       </c>
-      <c r="AE38" s="163">
+      <c r="AE38" s="164">
         <v>32.4</v>
       </c>
-      <c r="AF38" s="163">
+      <c r="AF38" s="164">
         <f t="shared" si="2"/>
         <v>67.05</v>
       </c>
-      <c r="AG38" s="165">
+      <c r="AG38" s="167">
         <v>68.900000000000006</v>
       </c>
-      <c r="AH38" s="135">
+      <c r="AH38" s="134">
         <f t="shared" si="3"/>
         <v>7241.39</v>
       </c>
       <c r="AI38" s="26"/>
-      <c r="AJ38" s="167">
+      <c r="AJ38" s="170">
         <v>472827</v>
       </c>
-      <c r="AK38" s="163">
+      <c r="AK38" s="164">
         <f t="shared" si="4"/>
         <v>131.34083333333334</v>
       </c>
-      <c r="AL38" s="169">
+      <c r="AL38" s="177">
         <v>105.4</v>
       </c>
-      <c r="AM38" s="157">
+      <c r="AM38" s="161">
         <v>40.6</v>
       </c>
-      <c r="AN38" s="157">
+      <c r="AN38" s="161">
         <v>105.1</v>
       </c>
       <c r="AO38" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="AP38" s="157" t="s">
+      <c r="AP38" s="161" t="s">
         <v>215</v>
       </c>
       <c r="AQ38" s="43">
         <v>4</v>
       </c>
-      <c r="AR38" s="154" t="s">
+      <c r="AR38" s="181" t="s">
         <v>301</v>
       </c>
       <c r="AS38" s="26" t="s">
@@ -9619,7 +9656,7 @@
       <c r="AT38" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="AU38" s="157">
+      <c r="AU38" s="161">
         <f>AA38+30+AQ38</f>
         <v>154</v>
       </c>
@@ -9633,14 +9670,14 @@
       </c>
     </row>
     <row r="39" spans="1:49" ht="66" x14ac:dyDescent="0.25">
-      <c r="A39" s="179"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="116" t="s">
+      <c r="A39" s="201"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="115" t="s">
         <v>839</v>
       </c>
-      <c r="F39" s="129" t="s">
+      <c r="F39" s="128" t="s">
         <v>108</v>
       </c>
       <c r="G39" s="25" t="s">
@@ -9649,23 +9686,23 @@
       <c r="H39" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I39" s="184"/>
+      <c r="I39" s="192"/>
       <c r="J39" s="49" t="s">
         <v>816</v>
       </c>
-      <c r="K39" s="132">
+      <c r="K39" s="131">
         <v>0.2</v>
       </c>
       <c r="L39" s="74">
         <v>147.30000000000001</v>
       </c>
-      <c r="M39" s="98">
+      <c r="M39" s="97">
         <v>10.3</v>
       </c>
-      <c r="N39" s="98">
+      <c r="N39" s="97">
         <v>49</v>
       </c>
-      <c r="O39" s="124"/>
+      <c r="O39" s="123"/>
       <c r="P39" s="75"/>
       <c r="Q39" s="93">
         <v>318</v>
@@ -9673,8 +9710,8 @@
       <c r="R39" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="S39" s="161"/>
-      <c r="T39" s="105" t="s">
+      <c r="S39" s="155"/>
+      <c r="T39" s="104" t="s">
         <v>816</v>
       </c>
       <c r="U39" s="52">
@@ -9683,46 +9720,46 @@
       <c r="V39" s="93" t="s">
         <v>544</v>
       </c>
-      <c r="W39" s="158"/>
-      <c r="X39" s="158"/>
+      <c r="W39" s="162"/>
+      <c r="X39" s="162"/>
       <c r="Y39" s="93"/>
       <c r="Z39" s="92"/>
       <c r="AA39" s="67"/>
       <c r="AB39" s="93"/>
       <c r="AC39" s="93"/>
-      <c r="AD39" s="164"/>
-      <c r="AE39" s="164"/>
-      <c r="AF39" s="164"/>
-      <c r="AG39" s="166"/>
-      <c r="AH39" s="135">
+      <c r="AD39" s="165"/>
+      <c r="AE39" s="165"/>
+      <c r="AF39" s="165"/>
+      <c r="AG39" s="168"/>
+      <c r="AH39" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI39" s="93"/>
-      <c r="AJ39" s="168"/>
-      <c r="AK39" s="164"/>
-      <c r="AL39" s="170"/>
-      <c r="AM39" s="158"/>
-      <c r="AN39" s="158"/>
+      <c r="AJ39" s="171"/>
+      <c r="AK39" s="165"/>
+      <c r="AL39" s="184"/>
+      <c r="AM39" s="162"/>
+      <c r="AN39" s="162"/>
       <c r="AO39" s="93"/>
-      <c r="AP39" s="158"/>
+      <c r="AP39" s="162"/>
       <c r="AQ39" s="93"/>
-      <c r="AR39" s="155"/>
+      <c r="AR39" s="182"/>
       <c r="AS39" s="93"/>
       <c r="AT39" s="94"/>
-      <c r="AU39" s="158"/>
+      <c r="AU39" s="162"/>
       <c r="AV39" s="72"/>
       <c r="AW39" s="72"/>
     </row>
     <row r="40" spans="1:49" ht="66" x14ac:dyDescent="0.25">
-      <c r="A40" s="179"/>
-      <c r="B40" s="187"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="116" t="s">
+      <c r="A40" s="201"/>
+      <c r="B40" s="194"/>
+      <c r="C40" s="192"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="115" t="s">
         <v>840</v>
       </c>
-      <c r="F40" s="129" t="s">
+      <c r="F40" s="128" t="s">
         <v>108</v>
       </c>
       <c r="G40" s="25" t="s">
@@ -9731,23 +9768,23 @@
       <c r="H40" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="I40" s="184"/>
+      <c r="I40" s="192"/>
       <c r="J40" s="49" t="s">
         <v>659</v>
       </c>
-      <c r="K40" s="132">
+      <c r="K40" s="131">
         <v>0.2</v>
       </c>
       <c r="L40" s="74">
         <v>145</v>
       </c>
-      <c r="M40" s="98">
+      <c r="M40" s="97">
         <v>16.2</v>
       </c>
-      <c r="N40" s="98">
+      <c r="N40" s="97">
         <v>55.4</v>
       </c>
-      <c r="O40" s="124"/>
+      <c r="O40" s="123"/>
       <c r="P40" s="75"/>
       <c r="Q40" s="93">
         <v>318</v>
@@ -9755,7 +9792,7 @@
       <c r="R40" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="S40" s="162"/>
+      <c r="S40" s="156"/>
       <c r="T40" s="92" t="s">
         <v>817</v>
       </c>
@@ -9765,34 +9802,34 @@
       <c r="V40" s="93" t="s">
         <v>544</v>
       </c>
-      <c r="W40" s="159"/>
-      <c r="X40" s="159"/>
+      <c r="W40" s="163"/>
+      <c r="X40" s="163"/>
       <c r="Y40" s="93"/>
       <c r="Z40" s="92"/>
       <c r="AA40" s="67"/>
       <c r="AB40" s="93"/>
       <c r="AC40" s="93"/>
-      <c r="AD40" s="178"/>
-      <c r="AE40" s="178"/>
-      <c r="AF40" s="178"/>
-      <c r="AG40" s="176"/>
-      <c r="AH40" s="135">
+      <c r="AD40" s="166"/>
+      <c r="AE40" s="166"/>
+      <c r="AF40" s="166"/>
+      <c r="AG40" s="169"/>
+      <c r="AH40" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI40" s="93"/>
-      <c r="AJ40" s="177"/>
-      <c r="AK40" s="178"/>
-      <c r="AL40" s="171"/>
-      <c r="AM40" s="159"/>
-      <c r="AN40" s="159"/>
+      <c r="AJ40" s="172"/>
+      <c r="AK40" s="166"/>
+      <c r="AL40" s="178"/>
+      <c r="AM40" s="163"/>
+      <c r="AN40" s="163"/>
       <c r="AO40" s="93"/>
-      <c r="AP40" s="159"/>
+      <c r="AP40" s="163"/>
       <c r="AQ40" s="93"/>
-      <c r="AR40" s="156"/>
+      <c r="AR40" s="183"/>
       <c r="AS40" s="93"/>
       <c r="AT40" s="94"/>
-      <c r="AU40" s="159"/>
+      <c r="AU40" s="163"/>
       <c r="AV40" s="72"/>
       <c r="AW40" s="72"/>
     </row>
@@ -9800,19 +9837,19 @@
       <c r="A41" s="20">
         <v>16</v>
       </c>
-      <c r="B41" s="180" t="s">
+      <c r="B41" s="193" t="s">
         <v>112</v>
       </c>
       <c r="C41" s="49" t="s">
         <v>513</v>
       </c>
-      <c r="D41" s="130">
+      <c r="D41" s="129">
         <v>1</v>
       </c>
       <c r="E41" s="49" t="s">
         <v>513</v>
       </c>
-      <c r="F41" s="129" t="s">
+      <c r="F41" s="128" t="s">
         <v>113</v>
       </c>
       <c r="G41" s="25" t="s">
@@ -9833,13 +9870,13 @@
       <c r="L41" s="74">
         <v>145.19999999999999</v>
       </c>
-      <c r="M41" s="98">
+      <c r="M41" s="97">
         <v>20.6</v>
       </c>
-      <c r="N41" s="98">
+      <c r="N41" s="97">
         <v>50.8</v>
       </c>
-      <c r="O41" s="124"/>
+      <c r="O41" s="123"/>
       <c r="P41" s="23"/>
       <c r="Q41" s="26">
         <v>119</v>
@@ -9895,7 +9932,7 @@
       <c r="AG41" s="46">
         <v>69.3</v>
       </c>
-      <c r="AH41" s="135">
+      <c r="AH41" s="134">
         <f t="shared" si="3"/>
         <v>7110.1799999999994</v>
       </c>
@@ -9907,7 +9944,7 @@
         <f t="shared" si="4"/>
         <v>131.17027777777778</v>
       </c>
-      <c r="AL41" s="147">
+      <c r="AL41" s="146">
         <v>103.6</v>
       </c>
       <c r="AM41" s="26">
@@ -9951,17 +9988,17 @@
       <c r="A42" s="20">
         <v>17</v>
       </c>
-      <c r="B42" s="187"/>
+      <c r="B42" s="194"/>
       <c r="C42" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="D42" s="130">
+      <c r="D42" s="129">
         <v>1</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="F42" s="129" t="s">
+      <c r="F42" s="128" t="s">
         <v>113</v>
       </c>
       <c r="G42" s="25" t="s">
@@ -9982,13 +10019,13 @@
       <c r="L42" s="49">
         <v>146.1</v>
       </c>
-      <c r="M42" s="98">
+      <c r="M42" s="97">
         <v>22.2</v>
       </c>
-      <c r="N42" s="98">
+      <c r="N42" s="97">
         <v>38.4</v>
       </c>
-      <c r="O42" s="124"/>
+      <c r="O42" s="123"/>
       <c r="P42" s="23"/>
       <c r="Q42" s="26">
         <v>241</v>
@@ -10044,7 +10081,7 @@
       <c r="AG42" s="46">
         <v>22.7</v>
       </c>
-      <c r="AH42" s="135">
+      <c r="AH42" s="134">
         <f t="shared" si="3"/>
         <v>13560.98</v>
       </c>
@@ -10056,7 +10093,7 @@
         <f t="shared" si="4"/>
         <v>5.1944444444444446E-2</v>
       </c>
-      <c r="AL42" s="147">
+      <c r="AL42" s="146">
         <v>104.1</v>
       </c>
       <c r="AM42" s="26">
@@ -10091,19 +10128,19 @@
       <c r="A43" s="20">
         <v>18</v>
       </c>
-      <c r="B43" s="180" t="s">
+      <c r="B43" s="193" t="s">
         <v>117</v>
       </c>
       <c r="C43" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="D43" s="130">
+      <c r="D43" s="129">
         <v>1</v>
       </c>
       <c r="E43" s="49" t="s">
         <v>515</v>
       </c>
-      <c r="F43" s="129" t="s">
+      <c r="F43" s="128" t="s">
         <v>118</v>
       </c>
       <c r="G43" s="25" t="s">
@@ -10124,13 +10161,13 @@
       <c r="L43" s="49">
         <v>150</v>
       </c>
-      <c r="M43" s="98">
+      <c r="M43" s="97">
         <v>20.8</v>
       </c>
-      <c r="N43" s="98">
+      <c r="N43" s="97">
         <v>53</v>
       </c>
-      <c r="O43" s="124"/>
+      <c r="O43" s="123"/>
       <c r="P43" s="23"/>
       <c r="Q43" s="26">
         <v>122</v>
@@ -10186,7 +10223,7 @@
       <c r="AG43" s="46">
         <v>85.8</v>
       </c>
-      <c r="AH43" s="135">
+      <c r="AH43" s="134">
         <f t="shared" si="3"/>
         <v>10767.9</v>
       </c>
@@ -10198,7 +10235,7 @@
         <f t="shared" si="4"/>
         <v>123.62638888888888</v>
       </c>
-      <c r="AL43" s="147">
+      <c r="AL43" s="146">
         <v>101.3</v>
       </c>
       <c r="AM43" s="26">
@@ -10242,17 +10279,17 @@
       <c r="A44" s="20">
         <v>19</v>
       </c>
-      <c r="B44" s="187"/>
+      <c r="B44" s="194"/>
       <c r="C44" s="49" t="s">
         <v>516</v>
       </c>
-      <c r="D44" s="130">
+      <c r="D44" s="129">
         <v>1</v>
       </c>
       <c r="E44" s="49" t="s">
         <v>516</v>
       </c>
-      <c r="F44" s="129" t="s">
+      <c r="F44" s="128" t="s">
         <v>118</v>
       </c>
       <c r="G44" s="25" t="s">
@@ -10273,13 +10310,13 @@
       <c r="L44" s="49">
         <v>151.5</v>
       </c>
-      <c r="M44" s="98">
+      <c r="M44" s="97">
         <v>21.9</v>
       </c>
-      <c r="N44" s="98">
+      <c r="N44" s="97">
         <v>45</v>
       </c>
-      <c r="O44" s="124"/>
+      <c r="O44" s="123"/>
       <c r="P44" s="23"/>
       <c r="Q44" s="26" t="s">
         <v>122</v>
@@ -10335,7 +10372,7 @@
       <c r="AG44" s="46">
         <v>20.6</v>
       </c>
-      <c r="AH44" s="135">
+      <c r="AH44" s="134">
         <f t="shared" si="3"/>
         <v>10948.900000000001</v>
       </c>
@@ -10347,7 +10384,7 @@
         <f t="shared" si="4"/>
         <v>3.5024999999999999</v>
       </c>
-      <c r="AL44" s="147">
+      <c r="AL44" s="146">
         <v>101.4</v>
       </c>
       <c r="AM44" s="26">
@@ -10382,19 +10419,19 @@
       <c r="A45" s="20">
         <v>20</v>
       </c>
-      <c r="B45" s="188" t="s">
+      <c r="B45" s="195" t="s">
         <v>125</v>
       </c>
       <c r="C45" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="D45" s="130">
+      <c r="D45" s="129">
         <v>1</v>
       </c>
       <c r="E45" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="F45" s="129" t="s">
+      <c r="F45" s="128" t="s">
         <v>126</v>
       </c>
       <c r="G45" s="25" t="s">
@@ -10415,13 +10452,13 @@
       <c r="L45" s="49">
         <v>145</v>
       </c>
-      <c r="M45" s="98">
+      <c r="M45" s="97">
         <v>16</v>
       </c>
-      <c r="N45" s="98">
+      <c r="N45" s="97">
         <v>44.6</v>
       </c>
-      <c r="O45" s="124"/>
+      <c r="O45" s="123"/>
       <c r="P45" s="23"/>
       <c r="Q45" s="26">
         <v>123</v>
@@ -10477,7 +10514,7 @@
       <c r="AG45" s="46">
         <v>73.3</v>
       </c>
-      <c r="AH45" s="135">
+      <c r="AH45" s="134">
         <f t="shared" si="3"/>
         <v>6017.9299999999994</v>
       </c>
@@ -10489,7 +10526,7 @@
         <f t="shared" si="4"/>
         <v>123.62638888888888</v>
       </c>
-      <c r="AL45" s="147">
+      <c r="AL45" s="146">
         <v>65.7</v>
       </c>
       <c r="AM45" s="26">
@@ -10533,17 +10570,17 @@
       <c r="A46" s="20">
         <v>21</v>
       </c>
-      <c r="B46" s="188"/>
+      <c r="B46" s="195"/>
       <c r="C46" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="D46" s="130">
+      <c r="D46" s="129">
         <v>1</v>
       </c>
       <c r="E46" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="F46" s="129" t="s">
+      <c r="F46" s="128" t="s">
         <v>126</v>
       </c>
       <c r="G46" s="25" t="s">
@@ -10564,13 +10601,13 @@
       <c r="L46" s="49">
         <v>147</v>
       </c>
-      <c r="M46" s="98">
+      <c r="M46" s="97">
         <v>15.5</v>
       </c>
-      <c r="N46" s="98">
+      <c r="N46" s="97">
         <v>35.700000000000003</v>
       </c>
-      <c r="O46" s="124"/>
+      <c r="O46" s="123"/>
       <c r="P46" s="23"/>
       <c r="Q46" s="26">
         <v>124</v>
@@ -10626,7 +10663,7 @@
       <c r="AG46" s="46">
         <v>20.6</v>
       </c>
-      <c r="AH46" s="135">
+      <c r="AH46" s="134">
         <f t="shared" si="3"/>
         <v>11070.44</v>
       </c>
@@ -10638,7 +10675,7 @@
         <f t="shared" si="4"/>
         <v>5.5177777777777779</v>
       </c>
-      <c r="AL46" s="147">
+      <c r="AL46" s="146">
         <v>65.7</v>
       </c>
       <c r="AM46" s="26">
@@ -10670,22 +10707,22 @@
       <c r="AV46" s="26"/>
     </row>
     <row r="47" spans="1:49" ht="66" x14ac:dyDescent="0.25">
-      <c r="A47" s="179">
+      <c r="A47" s="201">
         <v>22</v>
       </c>
-      <c r="B47" s="180" t="s">
+      <c r="B47" s="193" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="182" t="s">
+      <c r="C47" s="202" t="s">
         <v>328</v>
       </c>
-      <c r="D47" s="182">
+      <c r="D47" s="202">
         <v>3</v>
       </c>
-      <c r="E47" s="116" t="s">
+      <c r="E47" s="115" t="s">
         <v>845</v>
       </c>
-      <c r="F47" s="131" t="s">
+      <c r="F47" s="130" t="s">
         <v>329</v>
       </c>
       <c r="G47" s="25" t="s">
@@ -10700,42 +10737,42 @@
       <c r="J47" s="49" t="s">
         <v>848</v>
       </c>
-      <c r="K47" s="132">
+      <c r="K47" s="131">
         <v>0.5</v>
       </c>
       <c r="L47" s="49">
         <v>180.1</v>
       </c>
-      <c r="M47" s="118">
+      <c r="M47" s="117">
         <v>13.2</v>
       </c>
-      <c r="N47" s="118">
+      <c r="N47" s="117">
         <v>47.8</v>
       </c>
-      <c r="O47" s="124"/>
+      <c r="O47" s="123"/>
       <c r="P47" s="23"/>
-      <c r="Q47" s="157">
+      <c r="Q47" s="161">
         <v>132</v>
       </c>
-      <c r="R47" s="157" t="s">
+      <c r="R47" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="S47" s="160" t="s">
+      <c r="S47" s="154" t="s">
         <v>134</v>
       </c>
       <c r="T47" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="U47" s="172">
+      <c r="U47" s="188">
         <v>200</v>
       </c>
       <c r="V47" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="W47" s="157" t="s">
+      <c r="W47" s="161" t="s">
         <v>395</v>
       </c>
-      <c r="X47" s="157" t="s">
+      <c r="X47" s="161" t="s">
         <v>222</v>
       </c>
       <c r="Y47" s="43">
@@ -10754,51 +10791,51 @@
       <c r="AC47" s="36">
         <v>43.21</v>
       </c>
-      <c r="AD47" s="163">
+      <c r="AD47" s="164">
         <f t="shared" si="0"/>
         <v>45.3705</v>
       </c>
-      <c r="AE47" s="174">
+      <c r="AE47" s="205">
         <v>27.9</v>
       </c>
-      <c r="AF47" s="163">
+      <c r="AF47" s="164">
         <f t="shared" si="2"/>
         <v>73.270499999999998</v>
       </c>
-      <c r="AG47" s="165">
+      <c r="AG47" s="167">
         <v>85.8</v>
       </c>
-      <c r="AH47" s="135">
+      <c r="AH47" s="134">
         <f t="shared" si="3"/>
         <v>7541.8200000000006</v>
       </c>
       <c r="AI47" s="26"/>
-      <c r="AJ47" s="167">
+      <c r="AJ47" s="170">
         <v>212596</v>
       </c>
-      <c r="AK47" s="163">
+      <c r="AK47" s="164">
         <f t="shared" si="4"/>
         <v>59.054444444444442</v>
       </c>
-      <c r="AL47" s="169">
+      <c r="AL47" s="177">
         <v>122.6</v>
       </c>
-      <c r="AM47" s="157">
+      <c r="AM47" s="161">
         <v>93.7</v>
       </c>
-      <c r="AN47" s="157">
+      <c r="AN47" s="161">
         <v>87.9</v>
       </c>
       <c r="AO47" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="AP47" s="157" t="s">
+      <c r="AP47" s="161" t="s">
         <v>279</v>
       </c>
       <c r="AQ47" s="43">
         <v>6</v>
       </c>
-      <c r="AR47" s="154">
+      <c r="AR47" s="181">
         <f t="shared" si="5"/>
         <v>26.348956638234593</v>
       </c>
@@ -10808,21 +10845,21 @@
       <c r="AT47" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="AU47" s="157">
+      <c r="AU47" s="161">
         <f>AA47+30+AQ47</f>
         <v>156</v>
       </c>
       <c r="AV47" s="26"/>
     </row>
     <row r="48" spans="1:49" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="179"/>
-      <c r="B48" s="181"/>
-      <c r="C48" s="183"/>
-      <c r="D48" s="183"/>
-      <c r="E48" s="116" t="s">
+      <c r="A48" s="201"/>
+      <c r="B48" s="198"/>
+      <c r="C48" s="203"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="115" t="s">
         <v>842</v>
       </c>
-      <c r="F48" s="131" t="s">
+      <c r="F48" s="130" t="s">
         <v>329</v>
       </c>
       <c r="G48" s="25" t="s">
@@ -10837,67 +10874,67 @@
       <c r="J48" s="49" t="s">
         <v>821</v>
       </c>
-      <c r="K48" s="132">
+      <c r="K48" s="131">
         <v>0.3</v>
       </c>
       <c r="L48" s="49">
         <v>178.5</v>
       </c>
-      <c r="M48" s="98">
+      <c r="M48" s="97">
         <v>13.1</v>
       </c>
-      <c r="N48" s="98">
+      <c r="N48" s="97">
         <v>48.2</v>
       </c>
-      <c r="O48" s="124"/>
+      <c r="O48" s="123"/>
       <c r="P48" s="75"/>
-      <c r="Q48" s="158"/>
-      <c r="R48" s="158"/>
-      <c r="S48" s="161"/>
-      <c r="T48" s="105" t="s">
+      <c r="Q48" s="162"/>
+      <c r="R48" s="162"/>
+      <c r="S48" s="155"/>
+      <c r="T48" s="104" t="s">
         <v>821</v>
       </c>
-      <c r="U48" s="173"/>
+      <c r="U48" s="189"/>
       <c r="V48" s="93"/>
-      <c r="W48" s="158"/>
-      <c r="X48" s="158"/>
+      <c r="W48" s="162"/>
+      <c r="X48" s="162"/>
       <c r="Y48" s="93"/>
       <c r="Z48" s="92"/>
       <c r="AA48" s="67"/>
       <c r="AB48" s="93"/>
       <c r="AC48" s="36"/>
-      <c r="AD48" s="164"/>
-      <c r="AE48" s="175"/>
-      <c r="AF48" s="164"/>
-      <c r="AG48" s="166"/>
-      <c r="AH48" s="135">
+      <c r="AD48" s="165"/>
+      <c r="AE48" s="206"/>
+      <c r="AF48" s="165"/>
+      <c r="AG48" s="168"/>
+      <c r="AH48" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI48" s="93"/>
-      <c r="AJ48" s="168"/>
-      <c r="AK48" s="164"/>
-      <c r="AL48" s="170"/>
-      <c r="AM48" s="158"/>
-      <c r="AN48" s="158"/>
+      <c r="AJ48" s="171"/>
+      <c r="AK48" s="165"/>
+      <c r="AL48" s="184"/>
+      <c r="AM48" s="162"/>
+      <c r="AN48" s="162"/>
       <c r="AO48" s="93"/>
-      <c r="AP48" s="158"/>
+      <c r="AP48" s="162"/>
       <c r="AQ48" s="93"/>
-      <c r="AR48" s="155"/>
+      <c r="AR48" s="182"/>
       <c r="AS48" s="93"/>
       <c r="AT48" s="93"/>
-      <c r="AU48" s="158"/>
+      <c r="AU48" s="162"/>
       <c r="AV48" s="72"/>
     </row>
     <row r="49" spans="1:48" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="122"/>
-      <c r="B49" s="181"/>
-      <c r="C49" s="183"/>
-      <c r="D49" s="185"/>
-      <c r="E49" s="116" t="s">
+      <c r="A49" s="121"/>
+      <c r="B49" s="198"/>
+      <c r="C49" s="203"/>
+      <c r="D49" s="204"/>
+      <c r="E49" s="115" t="s">
         <v>841</v>
       </c>
-      <c r="F49" s="131" t="s">
+      <c r="F49" s="130" t="s">
         <v>329</v>
       </c>
       <c r="G49" s="25" t="s">
@@ -10912,73 +10949,73 @@
       <c r="J49" s="49" t="s">
         <v>699</v>
       </c>
-      <c r="K49" s="132">
+      <c r="K49" s="131">
         <v>0.2</v>
       </c>
       <c r="L49" s="49">
         <v>173.5</v>
       </c>
-      <c r="M49" s="118">
+      <c r="M49" s="117">
         <v>11.6</v>
       </c>
-      <c r="N49" s="118">
+      <c r="N49" s="117">
         <v>38.799999999999997</v>
       </c>
-      <c r="O49" s="124"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="158"/>
-      <c r="R49" s="158"/>
-      <c r="S49" s="161"/>
-      <c r="T49" s="105"/>
-      <c r="U49" s="173"/>
-      <c r="V49" s="120"/>
-      <c r="W49" s="158"/>
-      <c r="X49" s="158"/>
-      <c r="Y49" s="120"/>
-      <c r="Z49" s="118"/>
+      <c r="O49" s="123"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="162"/>
+      <c r="R49" s="162"/>
+      <c r="S49" s="155"/>
+      <c r="T49" s="104"/>
+      <c r="U49" s="189"/>
+      <c r="V49" s="119"/>
+      <c r="W49" s="162"/>
+      <c r="X49" s="162"/>
+      <c r="Y49" s="119"/>
+      <c r="Z49" s="117"/>
       <c r="AA49" s="67"/>
-      <c r="AB49" s="120"/>
+      <c r="AB49" s="119"/>
       <c r="AC49" s="36"/>
-      <c r="AD49" s="164"/>
-      <c r="AE49" s="175"/>
-      <c r="AF49" s="164"/>
-      <c r="AG49" s="166"/>
-      <c r="AH49" s="135">
+      <c r="AD49" s="165"/>
+      <c r="AE49" s="206"/>
+      <c r="AF49" s="165"/>
+      <c r="AG49" s="168"/>
+      <c r="AH49" s="134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI49" s="120"/>
-      <c r="AJ49" s="168"/>
-      <c r="AK49" s="164"/>
-      <c r="AL49" s="170"/>
-      <c r="AM49" s="158"/>
-      <c r="AN49" s="158"/>
-      <c r="AO49" s="120"/>
-      <c r="AP49" s="158"/>
-      <c r="AQ49" s="120"/>
-      <c r="AR49" s="155"/>
-      <c r="AS49" s="120"/>
-      <c r="AT49" s="120"/>
-      <c r="AU49" s="158"/>
-      <c r="AV49" s="120"/>
+      <c r="AI49" s="119"/>
+      <c r="AJ49" s="171"/>
+      <c r="AK49" s="165"/>
+      <c r="AL49" s="184"/>
+      <c r="AM49" s="162"/>
+      <c r="AN49" s="162"/>
+      <c r="AO49" s="119"/>
+      <c r="AP49" s="162"/>
+      <c r="AQ49" s="119"/>
+      <c r="AR49" s="182"/>
+      <c r="AS49" s="119"/>
+      <c r="AT49" s="119"/>
+      <c r="AU49" s="162"/>
+      <c r="AV49" s="119"/>
     </row>
     <row r="50" spans="1:48" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>23</v>
       </c>
-      <c r="B50" s="115" t="s">
+      <c r="B50" s="114" t="s">
         <v>137</v>
       </c>
       <c r="C50" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="D50" s="130">
+      <c r="D50" s="129">
         <v>1</v>
       </c>
       <c r="E50" s="49" t="s">
         <v>519</v>
       </c>
-      <c r="F50" s="118" t="s">
+      <c r="F50" s="117" t="s">
         <v>138</v>
       </c>
       <c r="G50" s="25" t="s">
@@ -10987,7 +11024,7 @@
       <c r="H50" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I50" s="118" t="s">
+      <c r="I50" s="117" t="s">
         <v>700</v>
       </c>
       <c r="J50" s="74" t="s">
@@ -10999,13 +11036,13 @@
       <c r="L50" s="74">
         <v>174.8</v>
       </c>
-      <c r="M50" s="98">
+      <c r="M50" s="97">
         <v>10.1</v>
       </c>
-      <c r="N50" s="98">
+      <c r="N50" s="97">
         <v>47</v>
       </c>
-      <c r="O50" s="124"/>
+      <c r="O50" s="123"/>
       <c r="P50" s="23"/>
       <c r="Q50" s="26">
         <v>259</v>
@@ -11061,7 +11098,7 @@
       <c r="AG50" s="46">
         <v>73.3</v>
       </c>
-      <c r="AH50" s="135">
+      <c r="AH50" s="134">
         <f t="shared" si="3"/>
         <v>7887.079999999999</v>
       </c>
@@ -11073,7 +11110,7 @@
         <f t="shared" si="4"/>
         <v>118.10861111111112</v>
       </c>
-      <c r="AL50" s="147">
+      <c r="AL50" s="146">
         <v>120.2</v>
       </c>
       <c r="AM50" s="26">
@@ -11109,19 +11146,19 @@
       <c r="A51" s="11">
         <v>24</v>
       </c>
-      <c r="B51" s="115" t="s">
+      <c r="B51" s="114" t="s">
         <v>143</v>
       </c>
       <c r="C51" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="D51" s="130">
+      <c r="D51" s="129">
         <v>1</v>
       </c>
       <c r="E51" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="F51" s="118" t="s">
+      <c r="F51" s="117" t="s">
         <v>144</v>
       </c>
       <c r="G51" s="25" t="s">
@@ -11130,7 +11167,7 @@
       <c r="H51" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I51" s="118" t="s">
+      <c r="I51" s="117" t="s">
         <v>822</v>
       </c>
       <c r="J51" s="74" t="s">
@@ -11142,13 +11179,13 @@
       <c r="L51" s="74">
         <v>188.9</v>
       </c>
-      <c r="M51" s="98">
+      <c r="M51" s="97">
         <v>24.5</v>
       </c>
-      <c r="N51" s="98">
+      <c r="N51" s="97">
         <v>45</v>
       </c>
-      <c r="O51" s="124"/>
+      <c r="O51" s="123"/>
       <c r="P51" s="23"/>
       <c r="Q51" s="26" t="s">
         <v>145</v>
@@ -11159,7 +11196,7 @@
       <c r="S51" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="T51" s="105" t="s">
+      <c r="T51" s="104" t="s">
         <v>822</v>
       </c>
       <c r="U51" s="52">
@@ -11204,7 +11241,7 @@
       <c r="AG51" s="46">
         <v>13.1</v>
       </c>
-      <c r="AH51" s="135">
+      <c r="AH51" s="134">
         <f t="shared" si="3"/>
         <v>1392.53</v>
       </c>
@@ -11216,7 +11253,7 @@
         <f t="shared" si="4"/>
         <v>118.10861111111112</v>
       </c>
-      <c r="AL51" s="147">
+      <c r="AL51" s="146">
         <v>118.5</v>
       </c>
       <c r="AM51" s="26">
@@ -11252,28 +11289,28 @@
       <c r="A52" s="11">
         <v>53</v>
       </c>
-      <c r="B52" s="188" t="s">
+      <c r="B52" s="195" t="s">
         <v>147</v>
       </c>
       <c r="C52" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="D52" s="130">
+      <c r="D52" s="129">
         <v>1</v>
       </c>
       <c r="E52" s="49" t="s">
         <v>521</v>
       </c>
-      <c r="F52" s="129" t="s">
+      <c r="F52" s="128" t="s">
         <v>148</v>
       </c>
       <c r="G52" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="H52" s="152" t="s">
+      <c r="H52" s="151" t="s">
         <v>286</v>
       </c>
-      <c r="I52" s="118" t="s">
+      <c r="I52" s="117" t="s">
         <v>701</v>
       </c>
       <c r="J52" s="74" t="s">
@@ -11285,13 +11322,13 @@
       <c r="L52" s="74">
         <v>210.7</v>
       </c>
-      <c r="M52" s="98">
+      <c r="M52" s="97">
         <v>13.2</v>
       </c>
-      <c r="N52" s="98">
+      <c r="N52" s="97">
         <v>39.5</v>
       </c>
-      <c r="O52" s="124"/>
+      <c r="O52" s="123"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="36" t="s">
         <v>617</v>
@@ -11347,7 +11384,7 @@
       <c r="AG52" s="46">
         <v>34.299999999999997</v>
       </c>
-      <c r="AH52" s="135">
+      <c r="AH52" s="134">
         <f t="shared" si="3"/>
         <v>1251.9499999999998</v>
       </c>
@@ -11359,7 +11396,7 @@
         <f t="shared" si="4"/>
         <v>0.57472222222222225</v>
       </c>
-      <c r="AL52" s="147">
+      <c r="AL52" s="146">
         <v>2.2000000000000002</v>
       </c>
       <c r="AM52" s="30">
@@ -11396,26 +11433,26 @@
       <c r="A53" s="11">
         <v>54</v>
       </c>
-      <c r="B53" s="188"/>
+      <c r="B53" s="195"/>
       <c r="C53" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="D53" s="130">
+      <c r="D53" s="129">
         <v>1</v>
       </c>
       <c r="E53" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="F53" s="129" t="s">
+      <c r="F53" s="128" t="s">
         <v>148</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="H53" s="152" t="s">
+      <c r="H53" s="151" t="s">
         <v>286</v>
       </c>
-      <c r="I53" s="118" t="s">
+      <c r="I53" s="117" t="s">
         <v>702</v>
       </c>
       <c r="J53" s="74" t="s">
@@ -11427,13 +11464,13 @@
       <c r="L53" s="74">
         <v>205.1</v>
       </c>
-      <c r="M53" s="98">
+      <c r="M53" s="97">
         <v>10.5</v>
       </c>
-      <c r="N53" s="98">
+      <c r="N53" s="97">
         <v>36.1</v>
       </c>
-      <c r="O53" s="124"/>
+      <c r="O53" s="123"/>
       <c r="P53" s="23"/>
       <c r="Q53" s="41" t="s">
         <v>619</v>
@@ -11489,7 +11526,7 @@
       <c r="AG53" s="46">
         <v>20.6</v>
       </c>
-      <c r="AH53" s="135">
+      <c r="AH53" s="134">
         <f t="shared" si="3"/>
         <v>14862.900000000001</v>
       </c>
@@ -11502,7 +11539,7 @@
         <f>AJ53/3600</f>
         <v>10.802458333333332</v>
       </c>
-      <c r="AL53" s="147">
+      <c r="AL53" s="146">
         <v>2.2000000000000002</v>
       </c>
       <c r="AM53" s="30">
@@ -11537,28 +11574,28 @@
       <c r="A54" s="11">
         <v>55</v>
       </c>
-      <c r="B54" s="188" t="s">
+      <c r="B54" s="195" t="s">
         <v>153</v>
       </c>
       <c r="C54" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="D54" s="130">
+      <c r="D54" s="129">
         <v>1</v>
       </c>
       <c r="E54" s="49" t="s">
         <v>523</v>
       </c>
-      <c r="F54" s="129" t="s">
+      <c r="F54" s="128" t="s">
         <v>154</v>
       </c>
       <c r="G54" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="H54" s="152" t="s">
+      <c r="H54" s="151" t="s">
         <v>286</v>
       </c>
-      <c r="I54" s="118" t="s">
+      <c r="I54" s="117" t="s">
         <v>823</v>
       </c>
       <c r="J54" s="74" t="s">
@@ -11570,13 +11607,13 @@
       <c r="L54" s="74">
         <v>207.6</v>
       </c>
-      <c r="M54" s="98">
+      <c r="M54" s="97">
         <v>21.2</v>
       </c>
-      <c r="N54" s="98">
+      <c r="N54" s="97">
         <v>36.5</v>
       </c>
-      <c r="O54" s="124"/>
+      <c r="O54" s="123"/>
       <c r="P54" s="23"/>
       <c r="Q54" s="42" t="s">
         <v>620</v>
@@ -11632,7 +11669,7 @@
       <c r="AG54" s="46">
         <v>2.5</v>
       </c>
-      <c r="AH54" s="135">
+      <c r="AH54" s="134">
         <f t="shared" si="3"/>
         <v>91.25</v>
       </c>
@@ -11644,7 +11681,7 @@
         <f t="shared" si="4"/>
         <v>0.57472222222222225</v>
       </c>
-      <c r="AL54" s="147">
+      <c r="AL54" s="146">
         <v>1.2</v>
       </c>
       <c r="AM54" s="30">
@@ -11681,26 +11718,26 @@
       <c r="A55" s="11">
         <v>56</v>
       </c>
-      <c r="B55" s="188"/>
+      <c r="B55" s="195"/>
       <c r="C55" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="D55" s="130">
+      <c r="D55" s="129">
         <v>1</v>
       </c>
       <c r="E55" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="F55" s="129" t="s">
+      <c r="F55" s="128" t="s">
         <v>154</v>
       </c>
       <c r="G55" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="H55" s="152" t="s">
+      <c r="H55" s="151" t="s">
         <v>286</v>
       </c>
-      <c r="I55" s="118" t="s">
+      <c r="I55" s="117" t="s">
         <v>824</v>
       </c>
       <c r="J55" s="74" t="s">
@@ -11712,13 +11749,13 @@
       <c r="L55" s="74">
         <v>206.1</v>
       </c>
-      <c r="M55" s="98">
+      <c r="M55" s="97">
         <v>23.2</v>
       </c>
-      <c r="N55" s="98">
+      <c r="N55" s="97">
         <v>34.299999999999997</v>
       </c>
-      <c r="O55" s="124"/>
+      <c r="O55" s="123"/>
       <c r="P55" s="23"/>
       <c r="Q55" s="41" t="s">
         <v>621</v>
@@ -11774,7 +11811,7 @@
       <c r="AG55" s="46">
         <v>20.6</v>
       </c>
-      <c r="AH55" s="135">
+      <c r="AH55" s="134">
         <f t="shared" si="3"/>
         <v>15497.380000000001</v>
       </c>
@@ -11787,7 +11824,7 @@
         <f>AJ55/3600</f>
         <v>3.7614999999999998</v>
       </c>
-      <c r="AL55" s="147">
+      <c r="AL55" s="146">
         <v>1.2</v>
       </c>
       <c r="AM55" s="30">
@@ -11822,13 +11859,13 @@
       <c r="A56" s="22">
         <v>9</v>
       </c>
-      <c r="B56" s="115" t="s">
+      <c r="B56" s="114" t="s">
         <v>157</v>
       </c>
       <c r="C56" s="49" t="s">
         <v>525</v>
       </c>
-      <c r="D56" s="130">
+      <c r="D56" s="129">
         <v>1</v>
       </c>
       <c r="E56" s="49" t="s">
@@ -11861,7 +11898,7 @@
       <c r="N56" s="49">
         <v>45.1</v>
       </c>
-      <c r="O56" s="123"/>
+      <c r="O56" s="122"/>
       <c r="P56" s="25"/>
       <c r="Q56" s="36">
         <v>21</v>
@@ -11917,7 +11954,7 @@
       <c r="AG56" s="46">
         <v>60.2</v>
       </c>
-      <c r="AH56" s="135">
+      <c r="AH56" s="134">
         <f t="shared" si="3"/>
         <v>66.220000000000013</v>
       </c>
@@ -11929,7 +11966,7 @@
         <f t="shared" si="4"/>
         <v>0.40749999999999997</v>
       </c>
-      <c r="AL56" s="147">
+      <c r="AL56" s="146">
         <v>2</v>
       </c>
       <c r="AM56" s="30">
@@ -11964,19 +12001,19 @@
       <c r="A57" s="11">
         <v>10</v>
       </c>
-      <c r="B57" s="114" t="s">
+      <c r="B57" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="C57" s="118" t="s">
+      <c r="C57" s="117" t="s">
         <v>555</v>
       </c>
-      <c r="D57" s="129">
+      <c r="D57" s="128">
         <v>1</v>
       </c>
-      <c r="E57" s="118" t="s">
+      <c r="E57" s="117" t="s">
         <v>555</v>
       </c>
-      <c r="F57" s="118" t="s">
+      <c r="F57" s="117" t="s">
         <v>456</v>
       </c>
       <c r="G57" s="25" t="s">
@@ -11985,7 +12022,7 @@
       <c r="H57" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I57" s="118" t="s">
+      <c r="I57" s="117" t="s">
         <v>444</v>
       </c>
       <c r="J57" s="74" t="s">
@@ -11997,13 +12034,13 @@
       <c r="L57" s="74">
         <v>133.69999999999999</v>
       </c>
-      <c r="M57" s="98">
+      <c r="M57" s="97">
         <v>11.1</v>
       </c>
-      <c r="N57" s="98">
+      <c r="N57" s="97">
         <v>45.4</v>
       </c>
-      <c r="O57" s="124"/>
+      <c r="O57" s="123"/>
       <c r="P57" s="23"/>
       <c r="Q57" s="26">
         <v>259</v>
@@ -12059,7 +12096,7 @@
       <c r="AG57" s="46">
         <v>13.1</v>
       </c>
-      <c r="AH57" s="135">
+      <c r="AH57" s="134">
         <f t="shared" si="3"/>
         <v>1409.56</v>
       </c>
@@ -12071,7 +12108,7 @@
         <f t="shared" si="4"/>
         <v>118.10861111111112</v>
       </c>
-      <c r="AL57" s="147">
+      <c r="AL57" s="146">
         <v>220.2</v>
       </c>
       <c r="AM57" s="26">
@@ -12107,19 +12144,19 @@
       <c r="A58" s="11">
         <v>11</v>
       </c>
-      <c r="B58" s="189" t="s">
+      <c r="B58" s="196" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="118" t="s">
+      <c r="C58" s="117" t="s">
         <v>526</v>
       </c>
-      <c r="D58" s="129">
+      <c r="D58" s="128">
         <v>1</v>
       </c>
-      <c r="E58" s="118" t="s">
+      <c r="E58" s="117" t="s">
         <v>526</v>
       </c>
-      <c r="F58" s="118" t="s">
+      <c r="F58" s="117" t="s">
         <v>446</v>
       </c>
       <c r="G58" s="25" t="s">
@@ -12128,7 +12165,7 @@
       <c r="H58" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I58" s="118" t="s">
+      <c r="I58" s="117" t="s">
         <v>445</v>
       </c>
       <c r="J58" s="74" t="s">
@@ -12140,13 +12177,13 @@
       <c r="L58" s="74">
         <v>125.5</v>
       </c>
-      <c r="M58" s="98">
+      <c r="M58" s="97">
         <v>8.5</v>
       </c>
-      <c r="N58" s="98">
+      <c r="N58" s="97">
         <v>44.8</v>
       </c>
-      <c r="O58" s="124"/>
+      <c r="O58" s="123"/>
       <c r="P58" s="23"/>
       <c r="Q58" s="26">
         <v>403</v>
@@ -12202,7 +12239,7 @@
       <c r="AG58" s="46">
         <v>69.900000000000006</v>
       </c>
-      <c r="AH58" s="135">
+      <c r="AH58" s="134">
         <f t="shared" si="3"/>
         <v>3075.6000000000004</v>
       </c>
@@ -12214,7 +12251,7 @@
         <f t="shared" si="4"/>
         <v>3.9080555555555554</v>
       </c>
-      <c r="AL58" s="147">
+      <c r="AL58" s="146">
         <v>45.9</v>
       </c>
       <c r="AM58" s="26">
@@ -12246,62 +12283,62 @@
       </c>
       <c r="AV58" s="26"/>
     </row>
-    <row r="59" spans="1:48" s="136" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="136">
+    <row r="59" spans="1:48" s="135" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="135">
         <v>12</v>
       </c>
-      <c r="B59" s="191"/>
-      <c r="C59" s="137" t="s">
+      <c r="B59" s="199"/>
+      <c r="C59" s="136" t="s">
         <v>527</v>
       </c>
-      <c r="D59" s="137">
+      <c r="D59" s="136">
         <v>1</v>
       </c>
-      <c r="E59" s="137" t="s">
+      <c r="E59" s="136" t="s">
         <v>527</v>
       </c>
-      <c r="F59" s="137" t="s">
+      <c r="F59" s="136" t="s">
         <v>447</v>
       </c>
-      <c r="G59" s="126" t="s">
+      <c r="G59" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="H59" s="126" t="s">
+      <c r="H59" s="125" t="s">
         <v>286</v>
       </c>
-      <c r="I59" s="137" t="s">
+      <c r="I59" s="136" t="s">
         <v>704</v>
       </c>
-      <c r="J59" s="137" t="s">
+      <c r="J59" s="136" t="s">
         <v>703</v>
       </c>
-      <c r="K59" s="137">
+      <c r="K59" s="136">
         <v>1</v>
       </c>
-      <c r="L59" s="137">
+      <c r="L59" s="136">
         <v>122</v>
       </c>
-      <c r="M59" s="137">
+      <c r="M59" s="136">
         <v>7.2</v>
       </c>
-      <c r="N59" s="137">
+      <c r="N59" s="136">
         <v>39.700000000000003</v>
       </c>
-      <c r="O59" s="137"/>
-      <c r="P59" s="126"/>
+      <c r="O59" s="136"/>
+      <c r="P59" s="125"/>
       <c r="Q59" s="35">
         <v>408</v>
       </c>
       <c r="R59" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="S59" s="137" t="s">
+      <c r="S59" s="136" t="s">
         <v>314</v>
       </c>
-      <c r="T59" s="137" t="s">
+      <c r="T59" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="U59" s="138">
+      <c r="U59" s="137">
         <v>100</v>
       </c>
       <c r="V59" s="35" t="s">
@@ -12316,10 +12353,10 @@
       <c r="Y59" s="35">
         <v>2</v>
       </c>
-      <c r="Z59" s="137" t="s">
+      <c r="Z59" s="136" t="s">
         <v>796</v>
       </c>
-      <c r="AA59" s="139">
+      <c r="AA59" s="138">
         <v>120</v>
       </c>
       <c r="AB59" s="35">
@@ -12329,33 +12366,33 @@
       <c r="AC59" s="35">
         <v>0.03</v>
       </c>
-      <c r="AD59" s="140">
+      <c r="AD59" s="139">
         <f t="shared" si="0"/>
         <v>3.15E-2</v>
       </c>
-      <c r="AE59" s="140">
+      <c r="AE59" s="139">
         <v>11.5</v>
       </c>
-      <c r="AF59" s="140">
+      <c r="AF59" s="139">
         <f t="shared" si="2"/>
         <v>11.531499999999999</v>
       </c>
-      <c r="AG59" s="140">
+      <c r="AG59" s="139">
         <v>22.7</v>
       </c>
-      <c r="AH59" s="135">
+      <c r="AH59" s="134">
         <f t="shared" si="3"/>
         <v>14378.179999999998</v>
       </c>
       <c r="AI59" s="35"/>
-      <c r="AJ59" s="141">
+      <c r="AJ59" s="140">
         <v>479</v>
       </c>
-      <c r="AK59" s="140">
+      <c r="AK59" s="139">
         <f t="shared" si="4"/>
         <v>0.13305555555555557</v>
       </c>
-      <c r="AL59" s="147">
+      <c r="AL59" s="146">
         <v>46</v>
       </c>
       <c r="AM59" s="35">
@@ -12373,13 +12410,13 @@
       <c r="AQ59" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="AR59" s="142">
+      <c r="AR59" s="141">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS59" s="35"/>
       <c r="AT59" s="35"/>
-      <c r="AU59" s="143" t="s">
+      <c r="AU59" s="142" t="s">
         <v>556</v>
       </c>
       <c r="AV59" s="35"/>
@@ -12388,19 +12425,19 @@
       <c r="A60" s="11">
         <v>13</v>
       </c>
-      <c r="B60" s="100" t="s">
+      <c r="B60" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="C60" s="118" t="s">
+      <c r="C60" s="117" t="s">
         <v>528</v>
       </c>
-      <c r="D60" s="129">
+      <c r="D60" s="128">
         <v>1</v>
       </c>
-      <c r="E60" s="118" t="s">
+      <c r="E60" s="117" t="s">
         <v>528</v>
       </c>
-      <c r="F60" s="118" t="s">
+      <c r="F60" s="117" t="s">
         <v>449</v>
       </c>
       <c r="G60" s="25" t="s">
@@ -12409,7 +12446,7 @@
       <c r="H60" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I60" s="118" t="s">
+      <c r="I60" s="117" t="s">
         <v>707</v>
       </c>
       <c r="J60" s="74" t="s">
@@ -12421,13 +12458,13 @@
       <c r="L60" s="74">
         <v>129.1</v>
       </c>
-      <c r="M60" s="98">
+      <c r="M60" s="97">
         <v>7.1</v>
       </c>
-      <c r="N60" s="98">
+      <c r="N60" s="97">
         <v>44.6</v>
       </c>
-      <c r="O60" s="124"/>
+      <c r="O60" s="123"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="36">
         <v>405</v>
@@ -12481,7 +12518,7 @@
       <c r="AG60" s="46">
         <v>69.3</v>
       </c>
-      <c r="AH60" s="135">
+      <c r="AH60" s="134">
         <f t="shared" si="3"/>
         <v>2529.4499999999998</v>
       </c>
@@ -12493,7 +12530,7 @@
         <f t="shared" si="4"/>
         <v>0.57472222222222225</v>
       </c>
-      <c r="AL60" s="147">
+      <c r="AL60" s="146">
         <v>44.9</v>
       </c>
       <c r="AM60" s="26">
@@ -12526,19 +12563,19 @@
       <c r="A61" s="11">
         <v>25</v>
       </c>
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="101" t="s">
         <v>454</v>
       </c>
-      <c r="C61" s="118" t="s">
+      <c r="C61" s="117" t="s">
         <v>529</v>
       </c>
-      <c r="D61" s="129">
+      <c r="D61" s="128">
         <v>1</v>
       </c>
-      <c r="E61" s="118" t="s">
+      <c r="E61" s="117" t="s">
         <v>529</v>
       </c>
-      <c r="F61" s="118" t="s">
+      <c r="F61" s="117" t="s">
         <v>448</v>
       </c>
       <c r="G61" s="25" t="s">
@@ -12547,7 +12584,7 @@
       <c r="H61" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I61" s="118" t="s">
+      <c r="I61" s="117" t="s">
         <v>430</v>
       </c>
       <c r="J61" s="74" t="s">
@@ -12559,13 +12596,13 @@
       <c r="L61" s="74">
         <v>77.900000000000006</v>
       </c>
-      <c r="M61" s="98">
+      <c r="M61" s="97">
         <v>-22.2</v>
       </c>
-      <c r="N61" s="98">
+      <c r="N61" s="97">
         <v>35.5</v>
       </c>
-      <c r="O61" s="124"/>
+      <c r="O61" s="123"/>
       <c r="P61" s="23"/>
       <c r="Q61" s="26">
         <v>415</v>
@@ -12621,7 +12658,7 @@
       <c r="AG61" s="46">
         <v>69.3</v>
       </c>
-      <c r="AH61" s="135">
+      <c r="AH61" s="134">
         <f t="shared" si="3"/>
         <v>2508.6600000000003</v>
       </c>
@@ -12633,7 +12670,7 @@
         <f t="shared" si="4"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="AL61" s="147">
+      <c r="AL61" s="146">
         <v>44.5</v>
       </c>
       <c r="AM61" s="26">
@@ -12666,19 +12703,19 @@
       <c r="A62" s="11">
         <v>1</v>
       </c>
-      <c r="B62" s="189" t="s">
+      <c r="B62" s="196" t="s">
         <v>168</v>
       </c>
-      <c r="C62" s="118" t="s">
+      <c r="C62" s="117" t="s">
         <v>530</v>
       </c>
-      <c r="D62" s="129">
+      <c r="D62" s="128">
         <v>1</v>
       </c>
-      <c r="E62" s="118" t="s">
+      <c r="E62" s="117" t="s">
         <v>530</v>
       </c>
-      <c r="F62" s="118" t="s">
+      <c r="F62" s="117" t="s">
         <v>413</v>
       </c>
       <c r="G62" s="25" t="s">
@@ -12687,7 +12724,7 @@
       <c r="H62" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I62" s="118" t="s">
+      <c r="I62" s="117" t="s">
         <v>648</v>
       </c>
       <c r="J62" s="74" t="s">
@@ -12699,13 +12736,13 @@
       <c r="L62" s="74">
         <v>114.4</v>
       </c>
-      <c r="M62" s="98">
+      <c r="M62" s="97">
         <v>19.8</v>
       </c>
-      <c r="N62" s="98">
+      <c r="N62" s="97">
         <v>47.4</v>
       </c>
-      <c r="O62" s="124"/>
+      <c r="O62" s="123"/>
       <c r="P62" s="23"/>
       <c r="Q62" s="30" t="s">
         <v>631</v>
@@ -12761,7 +12798,7 @@
       <c r="AG62" s="46">
         <v>0.3</v>
       </c>
-      <c r="AH62" s="135">
+      <c r="AH62" s="134">
         <f t="shared" si="3"/>
         <v>245.61</v>
       </c>
@@ -12774,7 +12811,7 @@
         <f t="shared" si="4"/>
         <v>4.5483333333333329</v>
       </c>
-      <c r="AL62" s="147">
+      <c r="AL62" s="146">
         <v>5</v>
       </c>
       <c r="AM62" s="30">
@@ -12807,17 +12844,17 @@
       <c r="A63" s="11">
         <v>2</v>
       </c>
-      <c r="B63" s="190"/>
-      <c r="C63" s="118" t="s">
+      <c r="B63" s="197"/>
+      <c r="C63" s="117" t="s">
         <v>531</v>
       </c>
-      <c r="D63" s="129">
+      <c r="D63" s="128">
         <v>1</v>
       </c>
-      <c r="E63" s="118" t="s">
+      <c r="E63" s="117" t="s">
         <v>531</v>
       </c>
-      <c r="F63" s="118" t="s">
+      <c r="F63" s="117" t="s">
         <v>650</v>
       </c>
       <c r="G63" s="25" t="s">
@@ -12826,7 +12863,7 @@
       <c r="H63" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="I63" s="118" t="s">
+      <c r="I63" s="117" t="s">
         <v>649</v>
       </c>
       <c r="J63" s="74" t="s">
@@ -12838,13 +12875,13 @@
       <c r="L63" s="74">
         <v>117.5</v>
       </c>
-      <c r="M63" s="98">
+      <c r="M63" s="97">
         <v>17.3</v>
       </c>
-      <c r="N63" s="98">
+      <c r="N63" s="97">
         <v>45.7</v>
       </c>
-      <c r="O63" s="124"/>
+      <c r="O63" s="123"/>
       <c r="P63" s="23"/>
       <c r="Q63" s="30" t="s">
         <v>631</v>
@@ -12855,7 +12892,7 @@
       <c r="S63" s="66" t="s">
         <v>424</v>
       </c>
-      <c r="T63" s="105" t="s">
+      <c r="T63" s="104" t="s">
         <v>826</v>
       </c>
       <c r="U63" s="52">
@@ -12901,7 +12938,7 @@
       <c r="AG63" s="46">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AH63" s="135">
+      <c r="AH63" s="134">
         <f t="shared" si="3"/>
         <v>7941.3899999999994</v>
       </c>
@@ -12914,7 +12951,7 @@
         <f t="shared" ref="AK63" si="11">AJ63/3600</f>
         <v>4.5483333333333329</v>
       </c>
-      <c r="AL63" s="147">
+      <c r="AL63" s="146">
         <v>5</v>
       </c>
       <c r="AM63" s="30">
@@ -12947,17 +12984,17 @@
       <c r="A64" s="11">
         <v>3</v>
       </c>
-      <c r="B64" s="190"/>
-      <c r="C64" s="118" t="s">
+      <c r="B64" s="197"/>
+      <c r="C64" s="117" t="s">
         <v>532</v>
       </c>
-      <c r="D64" s="129">
+      <c r="D64" s="128">
         <v>1</v>
       </c>
-      <c r="E64" s="118" t="s">
+      <c r="E64" s="117" t="s">
         <v>532</v>
       </c>
-      <c r="F64" s="118" t="s">
+      <c r="F64" s="117" t="s">
         <v>414</v>
       </c>
       <c r="G64" s="25" t="s">
@@ -12966,7 +13003,7 @@
       <c r="H64" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I64" s="118" t="s">
+      <c r="I64" s="117" t="s">
         <v>710</v>
       </c>
       <c r="J64" s="74" t="s">
@@ -12978,13 +13015,13 @@
       <c r="L64" s="74">
         <v>102.8</v>
       </c>
-      <c r="M64" s="98">
+      <c r="M64" s="97">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N64" s="98">
+      <c r="N64" s="97">
         <v>35.5</v>
       </c>
-      <c r="O64" s="124"/>
+      <c r="O64" s="123"/>
       <c r="P64" s="23"/>
       <c r="Q64" s="30" t="s">
         <v>630</v>
@@ -12995,7 +13032,7 @@
       <c r="S64" s="66" t="s">
         <v>418</v>
       </c>
-      <c r="T64" s="105" t="s">
+      <c r="T64" s="104" t="s">
         <v>712</v>
       </c>
       <c r="U64" s="52">
@@ -13041,7 +13078,7 @@
       <c r="AG64" s="46">
         <v>0.5</v>
       </c>
-      <c r="AH64" s="135">
+      <c r="AH64" s="134">
         <f t="shared" si="3"/>
         <v>409.35</v>
       </c>
@@ -13054,7 +13091,7 @@
         <f t="shared" ref="AK64:AK65" si="13">AJ64/3600</f>
         <v>2.2741666666666664</v>
       </c>
-      <c r="AL64" s="147">
+      <c r="AL64" s="146">
         <v>543</v>
       </c>
       <c r="AM64" s="30">
@@ -13087,17 +13124,17 @@
       <c r="A65" s="11">
         <v>4</v>
       </c>
-      <c r="B65" s="191"/>
-      <c r="C65" s="118" t="s">
+      <c r="B65" s="199"/>
+      <c r="C65" s="117" t="s">
         <v>533</v>
       </c>
-      <c r="D65" s="129">
+      <c r="D65" s="128">
         <v>1</v>
       </c>
-      <c r="E65" s="118" t="s">
+      <c r="E65" s="117" t="s">
         <v>533</v>
       </c>
-      <c r="F65" s="118" t="s">
+      <c r="F65" s="117" t="s">
         <v>415</v>
       </c>
       <c r="G65" s="25" t="s">
@@ -13106,7 +13143,7 @@
       <c r="H65" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I65" s="118" t="s">
+      <c r="I65" s="117" t="s">
         <v>711</v>
       </c>
       <c r="J65" s="49" t="s">
@@ -13124,18 +13161,18 @@
       <c r="N65" s="49">
         <v>35.700000000000003</v>
       </c>
-      <c r="O65" s="123"/>
+      <c r="O65" s="122"/>
       <c r="P65" s="25"/>
-      <c r="Q65" s="97" t="s">
+      <c r="Q65" s="96" t="s">
         <v>629</v>
       </c>
-      <c r="R65" s="97" t="s">
+      <c r="R65" s="96" t="s">
         <v>24</v>
       </c>
       <c r="S65" s="49" t="s">
         <v>419</v>
       </c>
-      <c r="T65" s="106" t="s">
+      <c r="T65" s="105" t="s">
         <v>713</v>
       </c>
       <c r="U65" s="53">
@@ -13181,7 +13218,7 @@
       <c r="AG65" s="46">
         <v>0.5</v>
       </c>
-      <c r="AH65" s="135">
+      <c r="AH65" s="134">
         <f t="shared" si="3"/>
         <v>397.4</v>
       </c>
@@ -13194,7 +13231,7 @@
         <f t="shared" si="13"/>
         <v>0.44155555555555553</v>
       </c>
-      <c r="AL65" s="147">
+      <c r="AL65" s="146">
         <v>413</v>
       </c>
       <c r="AM65" s="30">
@@ -13227,19 +13264,19 @@
       <c r="A66" s="11">
         <v>51</v>
       </c>
-      <c r="B66" s="114" t="s">
+      <c r="B66" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="C66" s="118" t="s">
+      <c r="C66" s="117" t="s">
         <v>534</v>
       </c>
-      <c r="D66" s="129">
+      <c r="D66" s="128">
         <v>1</v>
       </c>
-      <c r="E66" s="118" t="s">
+      <c r="E66" s="117" t="s">
         <v>534</v>
       </c>
-      <c r="F66" s="118" t="s">
+      <c r="F66" s="117" t="s">
         <v>651</v>
       </c>
       <c r="G66" s="25" t="s">
@@ -13257,27 +13294,27 @@
       <c r="K66" s="49">
         <v>1</v>
       </c>
-      <c r="L66" s="137">
+      <c r="L66" s="136">
         <v>115.3</v>
       </c>
-      <c r="M66" s="137">
+      <c r="M66" s="136">
         <v>3.5</v>
       </c>
-      <c r="N66" s="137">
+      <c r="N66" s="136">
         <v>43.5</v>
       </c>
-      <c r="O66" s="123"/>
+      <c r="O66" s="122"/>
       <c r="P66" s="25"/>
-      <c r="Q66" s="97" t="s">
+      <c r="Q66" s="96" t="s">
         <v>630</v>
       </c>
-      <c r="R66" s="97" t="s">
+      <c r="R66" s="96" t="s">
         <v>24</v>
       </c>
       <c r="S66" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="T66" s="106" t="s">
+      <c r="T66" s="105" t="s">
         <v>827</v>
       </c>
       <c r="U66" s="53">
@@ -13323,7 +13360,7 @@
       <c r="AG66" s="46">
         <v>0.4</v>
       </c>
-      <c r="AH66" s="135">
+      <c r="AH66" s="134">
         <f t="shared" si="3"/>
         <v>327.48</v>
       </c>
@@ -13336,7 +13373,7 @@
         <f t="shared" ref="AK66:AK67" si="18">AJ66/3600</f>
         <v>2.2741666666666664</v>
       </c>
-      <c r="AL66" s="147">
+      <c r="AL66" s="146">
         <v>543</v>
       </c>
       <c r="AM66" s="30">
@@ -13369,22 +13406,22 @@
       <c r="A67" s="11">
         <v>52</v>
       </c>
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="C67" s="118" t="s">
+      <c r="C67" s="117" t="s">
         <v>535</v>
       </c>
-      <c r="D67" s="129">
+      <c r="D67" s="128">
         <v>1</v>
       </c>
-      <c r="E67" s="118" t="s">
+      <c r="E67" s="117" t="s">
         <v>535</v>
       </c>
-      <c r="F67" s="118" t="s">
+      <c r="F67" s="117" t="s">
         <v>652</v>
       </c>
-      <c r="G67" s="153" t="s">
+      <c r="G67" s="152" t="s">
         <v>169</v>
       </c>
       <c r="H67" s="25" t="s">
@@ -13399,27 +13436,27 @@
       <c r="K67" s="49">
         <v>1</v>
       </c>
-      <c r="L67" s="137">
+      <c r="L67" s="136">
         <v>115</v>
       </c>
-      <c r="M67" s="137">
+      <c r="M67" s="136">
         <v>4.8</v>
       </c>
-      <c r="N67" s="137">
+      <c r="N67" s="136">
         <v>42.8</v>
       </c>
-      <c r="O67" s="123"/>
+      <c r="O67" s="122"/>
       <c r="P67" s="25"/>
-      <c r="Q67" s="97" t="s">
+      <c r="Q67" s="96" t="s">
         <v>629</v>
       </c>
-      <c r="R67" s="97" t="s">
+      <c r="R67" s="96" t="s">
         <v>24</v>
       </c>
       <c r="S67" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="T67" s="106" t="s">
+      <c r="T67" s="105" t="s">
         <v>827</v>
       </c>
       <c r="U67" s="53">
@@ -13465,7 +13502,7 @@
       <c r="AG67" s="46">
         <v>0.1</v>
       </c>
-      <c r="AH67" s="135">
+      <c r="AH67" s="134">
         <f t="shared" si="3"/>
         <v>79.48</v>
       </c>
@@ -13478,7 +13515,7 @@
         <f t="shared" si="18"/>
         <v>0.44155555555555553</v>
       </c>
-      <c r="AL67" s="147">
+      <c r="AL67" s="146">
         <v>413</v>
       </c>
       <c r="AM67" s="30">
@@ -13511,28 +13548,28 @@
       <c r="A68" s="11">
         <v>59</v>
       </c>
-      <c r="B68" s="114" t="s">
+      <c r="B68" s="113" t="s">
         <v>235</v>
       </c>
-      <c r="C68" s="118" t="s">
+      <c r="C68" s="117" t="s">
         <v>536</v>
       </c>
-      <c r="D68" s="129">
+      <c r="D68" s="128">
         <v>1</v>
       </c>
-      <c r="E68" s="118" t="s">
+      <c r="E68" s="117" t="s">
         <v>536</v>
       </c>
-      <c r="F68" s="118" t="s">
+      <c r="F68" s="117" t="s">
         <v>653</v>
       </c>
       <c r="G68" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H68" s="152" t="s">
+      <c r="H68" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="I68" s="118" t="s">
+      <c r="I68" s="117" t="s">
         <v>714</v>
       </c>
       <c r="J68" s="74" t="s">
@@ -13544,13 +13581,13 @@
       <c r="L68" s="74">
         <v>213.1</v>
       </c>
-      <c r="M68" s="98">
+      <c r="M68" s="97">
         <v>-21.4</v>
       </c>
-      <c r="N68" s="98">
+      <c r="N68" s="97">
         <v>29.9</v>
       </c>
-      <c r="O68" s="124"/>
+      <c r="O68" s="123"/>
       <c r="P68" s="23"/>
       <c r="Q68" s="30" t="s">
         <v>627</v>
@@ -13561,7 +13598,7 @@
       <c r="S68" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="T68" s="105" t="s">
+      <c r="T68" s="104" t="s">
         <v>714</v>
       </c>
       <c r="U68" s="52">
@@ -13604,7 +13641,7 @@
       <c r="AG68" s="46">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AH68" s="135">
+      <c r="AH68" s="134">
         <f t="shared" ref="AH68:AH81" si="19">AG68*AN68</f>
         <v>7941.3899999999994</v>
       </c>
@@ -13617,7 +13654,7 @@
         <f t="shared" si="4"/>
         <v>4.5483333333333329</v>
       </c>
-      <c r="AL68" s="147">
+      <c r="AL68" s="146">
         <v>7.2</v>
       </c>
       <c r="AM68" s="30">
@@ -13650,28 +13687,28 @@
       <c r="A69" s="11">
         <v>60</v>
       </c>
-      <c r="B69" s="192" t="s">
+      <c r="B69" s="191" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="118" t="s">
+      <c r="C69" s="117" t="s">
         <v>537</v>
       </c>
-      <c r="D69" s="129">
+      <c r="D69" s="128">
         <v>1</v>
       </c>
-      <c r="E69" s="118" t="s">
+      <c r="E69" s="117" t="s">
         <v>537</v>
       </c>
-      <c r="F69" s="129" t="s">
+      <c r="F69" s="128" t="s">
         <v>176</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H69" s="152" t="s">
+      <c r="H69" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="I69" s="118" t="s">
+      <c r="I69" s="117" t="s">
         <v>715</v>
       </c>
       <c r="J69" s="74" t="s">
@@ -13683,13 +13720,13 @@
       <c r="L69" s="74">
         <v>158.69999999999999</v>
       </c>
-      <c r="M69" s="98">
+      <c r="M69" s="97">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N69" s="98">
+      <c r="N69" s="97">
         <v>32.9</v>
       </c>
-      <c r="O69" s="124"/>
+      <c r="O69" s="123"/>
       <c r="P69" s="23"/>
       <c r="Q69" s="42" t="s">
         <v>620</v>
@@ -13745,7 +13782,7 @@
       <c r="AG69" s="46">
         <v>2.5</v>
       </c>
-      <c r="AH69" s="135">
+      <c r="AH69" s="134">
         <f t="shared" si="19"/>
         <v>91.25</v>
       </c>
@@ -13757,7 +13794,7 @@
         <f t="shared" ref="AK69" si="23">AJ69/3600</f>
         <v>0.57472222222222225</v>
       </c>
-      <c r="AL69" s="147">
+      <c r="AL69" s="146">
         <v>1.2</v>
       </c>
       <c r="AM69" s="30">
@@ -13785,26 +13822,26 @@
       <c r="A70" s="11">
         <v>61</v>
       </c>
-      <c r="B70" s="192"/>
-      <c r="C70" s="118" t="s">
+      <c r="B70" s="191"/>
+      <c r="C70" s="117" t="s">
         <v>538</v>
       </c>
-      <c r="D70" s="129">
+      <c r="D70" s="128">
         <v>1</v>
       </c>
-      <c r="E70" s="118" t="s">
+      <c r="E70" s="117" t="s">
         <v>538</v>
       </c>
-      <c r="F70" s="129" t="s">
+      <c r="F70" s="128" t="s">
         <v>176</v>
       </c>
       <c r="G70" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H70" s="152" t="s">
+      <c r="H70" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="I70" s="118" t="s">
+      <c r="I70" s="117" t="s">
         <v>716</v>
       </c>
       <c r="J70" s="74" t="s">
@@ -13816,13 +13853,13 @@
       <c r="L70" s="74">
         <v>152.30000000000001</v>
       </c>
-      <c r="M70" s="98">
+      <c r="M70" s="97">
         <v>3.8</v>
       </c>
-      <c r="N70" s="98">
+      <c r="N70" s="97">
         <v>32.200000000000003</v>
       </c>
-      <c r="O70" s="124"/>
+      <c r="O70" s="123"/>
       <c r="P70" s="23"/>
       <c r="Q70" s="26" t="s">
         <v>623</v>
@@ -13878,7 +13915,7 @@
       <c r="AG70" s="63">
         <v>20.6</v>
       </c>
-      <c r="AH70" s="135">
+      <c r="AH70" s="134">
         <f t="shared" si="19"/>
         <v>13663.98</v>
       </c>
@@ -13891,7 +13928,7 @@
         <f t="shared" si="4"/>
         <v>4.6062500000000002</v>
       </c>
-      <c r="AL70" s="147">
+      <c r="AL70" s="146">
         <v>1.2</v>
       </c>
       <c r="AM70" s="30">
@@ -13921,7 +13958,7 @@
       <c r="AV70" s="26"/>
     </row>
     <row r="71" spans="1:48" s="77" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="117" t="s">
+      <c r="B71" s="116" t="s">
         <v>337</v>
       </c>
       <c r="C71" s="79" t="s">
@@ -14008,7 +14045,7 @@
       <c r="AG71" s="46">
         <v>3</v>
       </c>
-      <c r="AH71" s="135">
+      <c r="AH71" s="134">
         <f t="shared" si="19"/>
         <v>2552.3999999999996</v>
       </c>
@@ -14021,7 +14058,7 @@
         <f>AJ71/3600</f>
         <v>6.5228000000000002</v>
       </c>
-      <c r="AL71" s="147">
+      <c r="AL71" s="146">
         <v>9</v>
       </c>
       <c r="AM71" s="80">
@@ -14054,19 +14091,19 @@
       <c r="A72" s="11">
         <v>28</v>
       </c>
-      <c r="B72" s="189" t="s">
+      <c r="B72" s="196" t="s">
         <v>338</v>
       </c>
       <c r="C72" s="49" t="s">
         <v>717</v>
       </c>
-      <c r="D72" s="130">
+      <c r="D72" s="129">
         <v>1</v>
       </c>
       <c r="E72" s="49" t="s">
         <v>717</v>
       </c>
-      <c r="F72" s="118" t="s">
+      <c r="F72" s="117" t="s">
         <v>856</v>
       </c>
       <c r="G72" s="25" t="s">
@@ -14075,7 +14112,7 @@
       <c r="H72" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I72" s="118" t="s">
+      <c r="I72" s="117" t="s">
         <v>429</v>
       </c>
       <c r="J72" s="74" t="s">
@@ -14087,13 +14124,13 @@
       <c r="L72" s="74">
         <v>103</v>
       </c>
-      <c r="M72" s="98">
+      <c r="M72" s="97">
         <v>-23</v>
       </c>
-      <c r="N72" s="98">
+      <c r="N72" s="97">
         <v>37.799999999999997</v>
       </c>
-      <c r="O72" s="124"/>
+      <c r="O72" s="123"/>
       <c r="P72" s="23"/>
       <c r="Q72" s="30" t="s">
         <v>625</v>
@@ -14149,7 +14186,7 @@
       <c r="AG72" s="46">
         <v>3</v>
       </c>
-      <c r="AH72" s="135">
+      <c r="AH72" s="134">
         <f t="shared" si="19"/>
         <v>2552.3999999999996</v>
       </c>
@@ -14162,7 +14199,7 @@
         <f t="shared" ref="AK72:AK73" si="25">AJ72/3600</f>
         <v>6.5228000000000002</v>
       </c>
-      <c r="AL72" s="147">
+      <c r="AL72" s="146">
         <v>8.5</v>
       </c>
       <c r="AM72" s="36">
@@ -14195,17 +14232,17 @@
       <c r="A73" s="11">
         <v>26</v>
       </c>
-      <c r="B73" s="191"/>
+      <c r="B73" s="199"/>
       <c r="C73" s="49" t="s">
         <v>718</v>
       </c>
-      <c r="D73" s="130">
+      <c r="D73" s="129">
         <v>1</v>
       </c>
       <c r="E73" s="49" t="s">
         <v>718</v>
       </c>
-      <c r="F73" s="118" t="s">
+      <c r="F73" s="117" t="s">
         <v>857</v>
       </c>
       <c r="G73" s="25" t="s">
@@ -14214,7 +14251,7 @@
       <c r="H73" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="I73" s="118" t="s">
+      <c r="I73" s="117" t="s">
         <v>430</v>
       </c>
       <c r="J73" s="74" t="s">
@@ -14226,13 +14263,13 @@
       <c r="L73" s="74">
         <v>77.2</v>
       </c>
-      <c r="M73" s="98">
+      <c r="M73" s="97">
         <v>-23.3</v>
       </c>
-      <c r="N73" s="98">
+      <c r="N73" s="97">
         <v>35.5</v>
       </c>
-      <c r="O73" s="124"/>
+      <c r="O73" s="123"/>
       <c r="P73" s="23"/>
       <c r="Q73" s="30" t="s">
         <v>626</v>
@@ -14243,7 +14280,7 @@
       <c r="S73" s="66" t="s">
         <v>432</v>
       </c>
-      <c r="T73" s="105" t="s">
+      <c r="T73" s="104" t="s">
         <v>720</v>
       </c>
       <c r="U73" s="52">
@@ -14289,7 +14326,7 @@
       <c r="AG73" s="46">
         <v>3.1</v>
       </c>
-      <c r="AH73" s="135">
+      <c r="AH73" s="134">
         <f t="shared" si="19"/>
         <v>2637.48</v>
       </c>
@@ -14302,7 +14339,7 @@
         <f t="shared" si="25"/>
         <v>6.5228000000000002</v>
       </c>
-      <c r="AL73" s="147">
+      <c r="AL73" s="146">
         <v>8.5</v>
       </c>
       <c r="AM73" s="36">
@@ -14335,55 +14372,55 @@
       <c r="A74" s="11">
         <v>62</v>
       </c>
-      <c r="B74" s="192" t="s">
+      <c r="B74" s="191" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="186" t="s">
+      <c r="C74" s="158" t="s">
         <v>540</v>
       </c>
-      <c r="D74" s="129">
+      <c r="D74" s="154">
         <v>4</v>
       </c>
-      <c r="E74" s="118" t="s">
-        <v>729</v>
-      </c>
-      <c r="F74" s="186" t="s">
+      <c r="E74" s="117" t="s">
+        <v>877</v>
+      </c>
+      <c r="F74" s="158" t="s">
         <v>180</v>
       </c>
-      <c r="G74" s="152" t="s">
+      <c r="G74" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="H74" s="152" t="s">
+      <c r="H74" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="I74" s="118" t="s">
+      <c r="I74" s="117" t="s">
         <v>850</v>
       </c>
       <c r="J74" s="74"/>
       <c r="K74" s="49">
         <v>0.25</v>
       </c>
-      <c r="L74" s="137">
+      <c r="L74" s="136">
         <v>158.30000000000001</v>
       </c>
-      <c r="M74" s="137">
+      <c r="M74" s="136">
         <v>8.5</v>
       </c>
-      <c r="N74" s="137">
+      <c r="N74" s="136">
         <v>30</v>
       </c>
-      <c r="O74" s="124"/>
+      <c r="O74" s="123"/>
       <c r="P74" s="23"/>
-      <c r="Q74" s="200" t="s">
+      <c r="Q74" s="159" t="s">
         <v>624</v>
       </c>
-      <c r="R74" s="200" t="s">
+      <c r="R74" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="S74" s="186" t="s">
+      <c r="S74" s="158" t="s">
         <v>95</v>
       </c>
-      <c r="T74" s="186" t="s">
+      <c r="T74" s="158" t="s">
         <v>181</v>
       </c>
       <c r="U74" s="52">
@@ -14392,7 +14429,7 @@
       <c r="V74" s="43" t="s">
         <v>544</v>
       </c>
-      <c r="W74" s="200" t="s">
+      <c r="W74" s="159" t="s">
         <v>464</v>
       </c>
       <c r="X74" s="26" t="s">
@@ -14411,14 +14448,14 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="AC74" s="200">
+      <c r="AC74" s="159">
         <v>15.92</v>
       </c>
       <c r="AD74" s="28">
         <f t="shared" si="0"/>
         <v>16.716000000000001</v>
       </c>
-      <c r="AE74" s="204">
+      <c r="AE74" s="175">
         <v>0</v>
       </c>
       <c r="AF74" s="28">
@@ -14428,12 +14465,12 @@
       <c r="AG74" s="46">
         <v>113.3</v>
       </c>
-      <c r="AH74" s="135">
+      <c r="AH74" s="134">
         <f t="shared" si="19"/>
         <v>88238.04</v>
       </c>
       <c r="AI74" s="30"/>
-      <c r="AJ74" s="205">
+      <c r="AJ74" s="176">
         <f>400*AN74</f>
         <v>311520</v>
       </c>
@@ -14441,16 +14478,16 @@
         <f t="shared" si="4"/>
         <v>86.533333333333331</v>
       </c>
-      <c r="AL74" s="201">
+      <c r="AL74" s="180">
         <v>2.1</v>
       </c>
-      <c r="AM74" s="200">
+      <c r="AM74" s="159">
         <v>40</v>
       </c>
       <c r="AN74" s="30">
         <v>778.8</v>
       </c>
-      <c r="AO74" s="200" t="s">
+      <c r="AO74" s="159" t="s">
         <v>182</v>
       </c>
       <c r="AP74" s="26" t="s">
@@ -14468,45 +14505,45 @@
       <c r="AU74" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="AV74" s="200"/>
+      <c r="AV74" s="159"/>
     </row>
     <row r="75" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B75" s="192"/>
-      <c r="C75" s="186"/>
-      <c r="D75" s="129"/>
-      <c r="E75" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="F75" s="186"/>
-      <c r="G75" s="152" t="s">
+      <c r="B75" s="191"/>
+      <c r="C75" s="158"/>
+      <c r="D75" s="155"/>
+      <c r="E75" s="117" t="s">
+        <v>878</v>
+      </c>
+      <c r="F75" s="158"/>
+      <c r="G75" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="H75" s="152" t="s">
+      <c r="H75" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="I75" s="118"/>
+      <c r="I75" s="117"/>
       <c r="J75" s="74"/>
-      <c r="K75" s="148">
+      <c r="K75" s="147">
         <v>0.25</v>
       </c>
-      <c r="L75" s="137">
+      <c r="L75" s="136">
         <v>58.1</v>
       </c>
-      <c r="M75" s="137">
+      <c r="M75" s="136">
         <v>8.4</v>
       </c>
-      <c r="N75" s="137">
+      <c r="N75" s="136">
         <v>30</v>
       </c>
-      <c r="O75" s="124"/>
+      <c r="O75" s="123"/>
       <c r="P75" s="23"/>
-      <c r="Q75" s="200"/>
-      <c r="R75" s="200"/>
-      <c r="S75" s="186"/>
-      <c r="T75" s="186"/>
+      <c r="Q75" s="159"/>
+      <c r="R75" s="159"/>
+      <c r="S75" s="158"/>
+      <c r="T75" s="158"/>
       <c r="U75" s="52"/>
       <c r="V75" s="43"/>
-      <c r="W75" s="200"/>
+      <c r="W75" s="159"/>
       <c r="X75" s="26"/>
       <c r="Y75" s="43"/>
       <c r="Z75" s="66"/>
@@ -14517,31 +14554,31 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="AC75" s="200"/>
+      <c r="AC75" s="159"/>
       <c r="AD75" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE75" s="204"/>
+      <c r="AE75" s="175"/>
       <c r="AF75" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG75" s="46"/>
-      <c r="AH75" s="135">
+      <c r="AH75" s="134">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI75" s="30"/>
-      <c r="AJ75" s="205"/>
+      <c r="AJ75" s="176"/>
       <c r="AK75" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AL75" s="201"/>
-      <c r="AM75" s="200"/>
+      <c r="AL75" s="180"/>
+      <c r="AM75" s="159"/>
       <c r="AN75" s="30"/>
-      <c r="AO75" s="200"/>
+      <c r="AO75" s="159"/>
       <c r="AP75" s="26" t="s">
         <v>27</v>
       </c>
@@ -14556,45 +14593,45 @@
         <f t="shared" ref="AU75:AU77" si="27">AA75+AQ75</f>
         <v>120</v>
       </c>
-      <c r="AV75" s="200"/>
+      <c r="AV75" s="159"/>
     </row>
     <row r="76" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B76" s="192"/>
-      <c r="C76" s="186"/>
-      <c r="D76" s="129"/>
-      <c r="E76" s="118" t="s">
-        <v>184</v>
-      </c>
-      <c r="F76" s="186"/>
-      <c r="G76" s="152" t="s">
+      <c r="B76" s="191"/>
+      <c r="C76" s="158"/>
+      <c r="D76" s="155"/>
+      <c r="E76" s="117" t="s">
+        <v>879</v>
+      </c>
+      <c r="F76" s="158"/>
+      <c r="G76" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="H76" s="152" t="s">
+      <c r="H76" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="I76" s="118"/>
+      <c r="I76" s="117"/>
       <c r="J76" s="74"/>
-      <c r="K76" s="148">
+      <c r="K76" s="147">
         <v>0.25</v>
       </c>
-      <c r="L76" s="137">
+      <c r="L76" s="136">
         <v>158.30000000000001</v>
       </c>
-      <c r="M76" s="137">
+      <c r="M76" s="136">
         <v>-8.5</v>
       </c>
-      <c r="N76" s="137">
+      <c r="N76" s="136">
         <v>30</v>
       </c>
-      <c r="O76" s="124"/>
+      <c r="O76" s="123"/>
       <c r="P76" s="23"/>
-      <c r="Q76" s="200"/>
-      <c r="R76" s="200"/>
-      <c r="S76" s="186"/>
-      <c r="T76" s="186"/>
+      <c r="Q76" s="159"/>
+      <c r="R76" s="159"/>
+      <c r="S76" s="158"/>
+      <c r="T76" s="158"/>
       <c r="U76" s="52"/>
       <c r="V76" s="43"/>
-      <c r="W76" s="200"/>
+      <c r="W76" s="159"/>
       <c r="X76" s="26"/>
       <c r="Y76" s="43"/>
       <c r="Z76" s="66"/>
@@ -14605,31 +14642,31 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="AC76" s="200"/>
+      <c r="AC76" s="159"/>
       <c r="AD76" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE76" s="204"/>
+      <c r="AE76" s="175"/>
       <c r="AF76" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG76" s="46"/>
-      <c r="AH76" s="135">
+      <c r="AH76" s="134">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI76" s="30"/>
-      <c r="AJ76" s="205"/>
+      <c r="AJ76" s="176"/>
       <c r="AK76" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AL76" s="201"/>
-      <c r="AM76" s="200"/>
+      <c r="AL76" s="180"/>
+      <c r="AM76" s="159"/>
       <c r="AN76" s="30"/>
-      <c r="AO76" s="200"/>
+      <c r="AO76" s="159"/>
       <c r="AP76" s="26" t="s">
         <v>27</v>
       </c>
@@ -14644,45 +14681,45 @@
         <f t="shared" si="27"/>
         <v>120</v>
       </c>
-      <c r="AV76" s="200"/>
+      <c r="AV76" s="159"/>
     </row>
     <row r="77" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="192"/>
-      <c r="C77" s="186"/>
-      <c r="D77" s="129"/>
-      <c r="E77" s="118" t="s">
-        <v>185</v>
-      </c>
-      <c r="F77" s="186"/>
-      <c r="G77" s="152" t="s">
+      <c r="B77" s="191"/>
+      <c r="C77" s="158"/>
+      <c r="D77" s="156"/>
+      <c r="E77" s="117" t="s">
+        <v>880</v>
+      </c>
+      <c r="F77" s="158"/>
+      <c r="G77" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="H77" s="152" t="s">
+      <c r="H77" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="I77" s="118"/>
+      <c r="I77" s="117"/>
       <c r="J77" s="74"/>
-      <c r="K77" s="148">
+      <c r="K77" s="147">
         <v>0.25</v>
       </c>
-      <c r="L77" s="137">
+      <c r="L77" s="136">
         <v>58.1</v>
       </c>
-      <c r="M77" s="137">
+      <c r="M77" s="136">
         <v>-8.4</v>
       </c>
-      <c r="N77" s="137">
+      <c r="N77" s="136">
         <v>30</v>
       </c>
-      <c r="O77" s="124"/>
+      <c r="O77" s="123"/>
       <c r="P77" s="23"/>
-      <c r="Q77" s="200"/>
-      <c r="R77" s="200"/>
-      <c r="S77" s="186"/>
-      <c r="T77" s="186"/>
+      <c r="Q77" s="159"/>
+      <c r="R77" s="159"/>
+      <c r="S77" s="158"/>
+      <c r="T77" s="158"/>
       <c r="U77" s="52"/>
       <c r="V77" s="43"/>
-      <c r="W77" s="200"/>
+      <c r="W77" s="159"/>
       <c r="X77" s="26"/>
       <c r="Y77" s="43"/>
       <c r="Z77" s="66"/>
@@ -14693,31 +14730,31 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="AC77" s="200"/>
+      <c r="AC77" s="159"/>
       <c r="AD77" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE77" s="204"/>
+      <c r="AE77" s="175"/>
       <c r="AF77" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG77" s="46"/>
-      <c r="AH77" s="135">
+      <c r="AH77" s="134">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI77" s="30"/>
-      <c r="AJ77" s="205"/>
+      <c r="AJ77" s="176"/>
       <c r="AK77" s="46">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AL77" s="201"/>
-      <c r="AM77" s="200"/>
+      <c r="AL77" s="180"/>
+      <c r="AM77" s="159"/>
       <c r="AN77" s="30"/>
-      <c r="AO77" s="200"/>
+      <c r="AO77" s="159"/>
       <c r="AP77" s="26" t="s">
         <v>27</v>
       </c>
@@ -14732,61 +14769,61 @@
         <f t="shared" si="27"/>
         <v>120</v>
       </c>
-      <c r="AV77" s="200"/>
+      <c r="AV77" s="159"/>
     </row>
     <row r="78" spans="1:48" ht="66" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>63</v>
       </c>
-      <c r="B78" s="193" t="s">
+      <c r="B78" s="200" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="186" t="s">
+      <c r="C78" s="158" t="s">
         <v>541</v>
       </c>
-      <c r="D78" s="129">
+      <c r="D78" s="154">
         <v>4</v>
       </c>
-      <c r="E78" s="118" t="s">
-        <v>730</v>
-      </c>
-      <c r="F78" s="186" t="s">
+      <c r="E78" s="117" t="s">
+        <v>881</v>
+      </c>
+      <c r="F78" s="158" t="s">
         <v>187</v>
       </c>
-      <c r="G78" s="152" t="s">
+      <c r="G78" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="H78" s="152" t="s">
+      <c r="H78" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="I78" s="118" t="s">
+      <c r="I78" s="117" t="s">
         <v>850</v>
       </c>
       <c r="J78" s="74"/>
-      <c r="K78" s="148">
+      <c r="K78" s="147">
         <v>0.25</v>
       </c>
-      <c r="L78" s="137">
+      <c r="L78" s="136">
         <v>158.30000000000001</v>
       </c>
-      <c r="M78" s="137">
+      <c r="M78" s="136">
         <v>10.8</v>
       </c>
-      <c r="N78" s="137">
+      <c r="N78" s="136">
         <v>30</v>
       </c>
-      <c r="O78" s="124"/>
+      <c r="O78" s="123"/>
       <c r="P78" s="23"/>
-      <c r="Q78" s="198" t="s">
+      <c r="Q78" s="160" t="s">
         <v>616</v>
       </c>
-      <c r="R78" s="198" t="s">
+      <c r="R78" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="S78" s="206" t="s">
+      <c r="S78" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="T78" s="186" t="s">
+      <c r="T78" s="158" t="s">
         <v>181</v>
       </c>
       <c r="U78" s="52">
@@ -14796,7 +14833,7 @@
       <c r="V78" s="43" t="s">
         <v>550</v>
       </c>
-      <c r="W78" s="200" t="s">
+      <c r="W78" s="159" t="s">
         <v>409</v>
       </c>
       <c r="X78" s="26" t="s">
@@ -14815,14 +14852,14 @@
         <f t="shared" ref="AB78" si="28">AA78+Y78</f>
         <v>152</v>
       </c>
-      <c r="AC78" s="198">
+      <c r="AC78" s="160">
         <v>115.25</v>
       </c>
       <c r="AD78" s="28">
         <f t="shared" ref="AD78" si="29">AC78*$AY$1</f>
         <v>121.0125</v>
       </c>
-      <c r="AE78" s="202">
+      <c r="AE78" s="173">
         <v>0</v>
       </c>
       <c r="AF78" s="28">
@@ -14832,12 +14869,12 @@
       <c r="AG78" s="46">
         <v>78.099999999999994</v>
       </c>
-      <c r="AH78" s="135">
+      <c r="AH78" s="134">
         <f t="shared" si="19"/>
         <v>60824.279999999992</v>
       </c>
       <c r="AI78" s="30"/>
-      <c r="AJ78" s="203">
+      <c r="AJ78" s="174">
         <f>6000*AN78</f>
         <v>4672800</v>
       </c>
@@ -14845,16 +14882,16 @@
         <f t="shared" ref="AK78:AK81" si="31">AJ78/3600</f>
         <v>1298</v>
       </c>
-      <c r="AL78" s="199">
+      <c r="AL78" s="179">
         <v>11.6</v>
       </c>
-      <c r="AM78" s="198">
+      <c r="AM78" s="160">
         <v>40</v>
       </c>
       <c r="AN78" s="30">
         <v>778.8</v>
       </c>
-      <c r="AO78" s="198" t="s">
+      <c r="AO78" s="160" t="s">
         <v>182</v>
       </c>
       <c r="AP78" s="26" t="s">
@@ -14872,45 +14909,45 @@
       <c r="AU78" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="AV78" s="198"/>
+      <c r="AV78" s="160"/>
     </row>
     <row r="79" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B79" s="193"/>
-      <c r="C79" s="186"/>
-      <c r="D79" s="129"/>
-      <c r="E79" s="121" t="s">
-        <v>188</v>
-      </c>
-      <c r="F79" s="186"/>
-      <c r="G79" s="152" t="s">
+      <c r="B79" s="200"/>
+      <c r="C79" s="158"/>
+      <c r="D79" s="155"/>
+      <c r="E79" s="120" t="s">
+        <v>882</v>
+      </c>
+      <c r="F79" s="158"/>
+      <c r="G79" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="H79" s="152" t="s">
+      <c r="H79" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="I79" s="121"/>
+      <c r="I79" s="120"/>
       <c r="J79" s="76"/>
-      <c r="K79" s="148">
+      <c r="K79" s="147">
         <v>0.25</v>
       </c>
-      <c r="L79" s="151">
+      <c r="L79" s="150">
         <v>58.2</v>
       </c>
-      <c r="M79" s="151">
+      <c r="M79" s="150">
         <v>10.5</v>
       </c>
-      <c r="N79" s="137">
+      <c r="N79" s="136">
         <v>30</v>
       </c>
-      <c r="O79" s="125"/>
+      <c r="O79" s="124"/>
       <c r="P79" s="15"/>
-      <c r="Q79" s="198"/>
-      <c r="R79" s="198"/>
-      <c r="S79" s="206"/>
-      <c r="T79" s="186"/>
+      <c r="Q79" s="160"/>
+      <c r="R79" s="160"/>
+      <c r="S79" s="157"/>
+      <c r="T79" s="158"/>
       <c r="U79" s="27"/>
       <c r="V79" s="43"/>
-      <c r="W79" s="200"/>
+      <c r="W79" s="159"/>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="71"/>
@@ -14918,28 +14955,28 @@
         <v>90</v>
       </c>
       <c r="AB79" s="21"/>
-      <c r="AC79" s="198"/>
+      <c r="AC79" s="160"/>
       <c r="AD79" s="18"/>
-      <c r="AE79" s="202"/>
+      <c r="AE79" s="173"/>
       <c r="AF79" s="18">
         <f t="shared" ref="AF79:AF81" si="32">AE79+AC79</f>
         <v>0</v>
       </c>
       <c r="AG79" s="64"/>
-      <c r="AH79" s="135">
+      <c r="AH79" s="134">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI79" s="21"/>
-      <c r="AJ79" s="203"/>
+      <c r="AJ79" s="174"/>
       <c r="AK79" s="64">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AL79" s="199"/>
-      <c r="AM79" s="198"/>
+      <c r="AL79" s="179"/>
+      <c r="AM79" s="160"/>
       <c r="AN79" s="16"/>
-      <c r="AO79" s="198"/>
+      <c r="AO79" s="160"/>
       <c r="AP79" s="16" t="s">
         <v>27</v>
       </c>
@@ -14951,45 +14988,45 @@
       <c r="AS79" s="16"/>
       <c r="AT79" s="16"/>
       <c r="AU79" s="16"/>
-      <c r="AV79" s="198"/>
+      <c r="AV79" s="160"/>
     </row>
     <row r="80" spans="1:48" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B80" s="193"/>
-      <c r="C80" s="186"/>
-      <c r="D80" s="129"/>
-      <c r="E80" s="121" t="s">
-        <v>189</v>
-      </c>
-      <c r="F80" s="186"/>
-      <c r="G80" s="152" t="s">
+      <c r="B80" s="200"/>
+      <c r="C80" s="158"/>
+      <c r="D80" s="155"/>
+      <c r="E80" s="120" t="s">
+        <v>884</v>
+      </c>
+      <c r="F80" s="158"/>
+      <c r="G80" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="H80" s="152" t="s">
+      <c r="H80" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="I80" s="121"/>
+      <c r="I80" s="120"/>
       <c r="J80" s="76"/>
-      <c r="K80" s="148">
+      <c r="K80" s="147">
         <v>0.25</v>
       </c>
-      <c r="L80" s="137">
+      <c r="L80" s="136">
         <v>158.30000000000001</v>
       </c>
-      <c r="M80" s="137">
+      <c r="M80" s="136">
         <v>-10.8</v>
       </c>
-      <c r="N80" s="137">
+      <c r="N80" s="136">
         <v>30</v>
       </c>
-      <c r="O80" s="125"/>
+      <c r="O80" s="124"/>
       <c r="P80" s="15"/>
-      <c r="Q80" s="198"/>
-      <c r="R80" s="198"/>
-      <c r="S80" s="206"/>
-      <c r="T80" s="186"/>
+      <c r="Q80" s="160"/>
+      <c r="R80" s="160"/>
+      <c r="S80" s="157"/>
+      <c r="T80" s="158"/>
       <c r="U80" s="27"/>
       <c r="V80" s="43"/>
-      <c r="W80" s="200"/>
+      <c r="W80" s="159"/>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="71"/>
@@ -14997,28 +15034,28 @@
         <v>90</v>
       </c>
       <c r="AB80" s="21"/>
-      <c r="AC80" s="198"/>
+      <c r="AC80" s="160"/>
       <c r="AD80" s="18"/>
-      <c r="AE80" s="202"/>
+      <c r="AE80" s="173"/>
       <c r="AF80" s="18">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG80" s="64"/>
-      <c r="AH80" s="135">
+      <c r="AH80" s="134">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI80" s="21"/>
-      <c r="AJ80" s="203"/>
+      <c r="AJ80" s="174"/>
       <c r="AK80" s="64">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AL80" s="199"/>
-      <c r="AM80" s="198"/>
+      <c r="AL80" s="179"/>
+      <c r="AM80" s="160"/>
       <c r="AN80" s="16"/>
-      <c r="AO80" s="198"/>
+      <c r="AO80" s="160"/>
       <c r="AP80" s="16" t="s">
         <v>27</v>
       </c>
@@ -15030,45 +15067,45 @@
       <c r="AS80" s="16"/>
       <c r="AT80" s="16"/>
       <c r="AU80" s="16"/>
-      <c r="AV80" s="198"/>
+      <c r="AV80" s="160"/>
     </row>
     <row r="81" spans="2:48" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B81" s="193"/>
-      <c r="C81" s="186"/>
-      <c r="D81" s="129"/>
-      <c r="E81" s="121" t="s">
-        <v>190</v>
-      </c>
-      <c r="F81" s="186"/>
-      <c r="G81" s="152" t="s">
+      <c r="B81" s="200"/>
+      <c r="C81" s="158"/>
+      <c r="D81" s="156"/>
+      <c r="E81" s="120" t="s">
+        <v>883</v>
+      </c>
+      <c r="F81" s="158"/>
+      <c r="G81" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="H81" s="152" t="s">
+      <c r="H81" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="I81" s="121"/>
+      <c r="I81" s="120"/>
       <c r="J81" s="76"/>
-      <c r="K81" s="148">
+      <c r="K81" s="147">
         <v>0.25</v>
       </c>
-      <c r="L81" s="151">
+      <c r="L81" s="150">
         <v>58.2</v>
       </c>
-      <c r="M81" s="151">
+      <c r="M81" s="150">
         <v>-10.5</v>
       </c>
-      <c r="N81" s="137">
+      <c r="N81" s="136">
         <v>30</v>
       </c>
-      <c r="O81" s="125"/>
+      <c r="O81" s="124"/>
       <c r="P81" s="15"/>
-      <c r="Q81" s="198"/>
-      <c r="R81" s="198"/>
-      <c r="S81" s="206"/>
-      <c r="T81" s="186"/>
+      <c r="Q81" s="160"/>
+      <c r="R81" s="160"/>
+      <c r="S81" s="157"/>
+      <c r="T81" s="158"/>
       <c r="U81" s="27"/>
       <c r="V81" s="43"/>
-      <c r="W81" s="200"/>
+      <c r="W81" s="159"/>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="71"/>
@@ -15076,28 +15113,28 @@
         <v>90</v>
       </c>
       <c r="AB81" s="21"/>
-      <c r="AC81" s="198"/>
+      <c r="AC81" s="160"/>
       <c r="AD81" s="18"/>
-      <c r="AE81" s="202"/>
+      <c r="AE81" s="173"/>
       <c r="AF81" s="18">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG81" s="64"/>
-      <c r="AH81" s="135">
+      <c r="AH81" s="134">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AI81" s="21"/>
-      <c r="AJ81" s="203"/>
+      <c r="AJ81" s="174"/>
       <c r="AK81" s="64">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="AL81" s="199"/>
-      <c r="AM81" s="198"/>
+      <c r="AL81" s="179"/>
+      <c r="AM81" s="160"/>
       <c r="AN81" s="16"/>
-      <c r="AO81" s="198"/>
+      <c r="AO81" s="160"/>
       <c r="AP81" s="16" t="s">
         <v>27</v>
       </c>
@@ -15109,73 +15146,150 @@
       <c r="AS81" s="16"/>
       <c r="AT81" s="16"/>
       <c r="AU81" s="16"/>
-      <c r="AV81" s="198"/>
+      <c r="AV81" s="160"/>
     </row>
     <row r="82" spans="2:48" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B82" s="24"/>
     </row>
+    <row r="84" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="G84" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="85" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="G85" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="H85" s="11">
+        <f>COUNTIF($H$3:$H$81,G85)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="G86" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H86" s="11">
+        <f>COUNTIF($H$3:$H$81,G86)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="G87" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="H87" s="11">
+        <f>COUNTIF($H$3:$H$81,G87)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="G88" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H88" s="11">
+        <f>COUNTIF($H$3:$H$81,G88)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="H89" s="11">
+        <f>SUM(H85:H88)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="H90" s="207">
+        <f>81-3+1-1</f>
+        <v>78</v>
+      </c>
+      <c r="I90" s="48" t="s">
+        <v>887</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="156">
-    <mergeCell ref="S78:S81"/>
-    <mergeCell ref="T78:T81"/>
-    <mergeCell ref="W78:W81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="W74:W77"/>
-    <mergeCell ref="AC74:AC77"/>
-    <mergeCell ref="Q78:Q81"/>
-    <mergeCell ref="R78:R81"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="Q74:Q77"/>
-    <mergeCell ref="R74:R77"/>
-    <mergeCell ref="S74:S77"/>
-    <mergeCell ref="T74:T77"/>
-    <mergeCell ref="AV78:AV81"/>
-    <mergeCell ref="AL78:AL81"/>
-    <mergeCell ref="AM78:AM81"/>
-    <mergeCell ref="AO78:AO81"/>
-    <mergeCell ref="AV74:AV77"/>
-    <mergeCell ref="AL74:AL77"/>
-    <mergeCell ref="AM74:AM77"/>
-    <mergeCell ref="AO74:AO77"/>
-    <mergeCell ref="W38:W40"/>
-    <mergeCell ref="X38:X40"/>
-    <mergeCell ref="AD38:AD40"/>
-    <mergeCell ref="AE38:AE40"/>
-    <mergeCell ref="AF38:AF40"/>
-    <mergeCell ref="AG38:AG40"/>
-    <mergeCell ref="AJ38:AJ40"/>
-    <mergeCell ref="AK38:AK40"/>
-    <mergeCell ref="AC78:AC81"/>
-    <mergeCell ref="AE78:AE81"/>
-    <mergeCell ref="AJ78:AJ81"/>
-    <mergeCell ref="AE74:AE77"/>
-    <mergeCell ref="AJ74:AJ77"/>
-    <mergeCell ref="AN38:AN40"/>
-    <mergeCell ref="AR38:AR40"/>
-    <mergeCell ref="AU38:AU40"/>
-    <mergeCell ref="AM30:AM32"/>
-    <mergeCell ref="AN30:AN32"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="W27:W28"/>
+  <autoFilter ref="A2:AY81" xr:uid="{5592CA37-0E81-4B28-9EEE-59B6566DFDEE}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="A"/>
+        <filter val="B"/>
+        <filter val="C"/>
+        <filter val="Hull"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="158">
+    <mergeCell ref="AK30:AK32"/>
+    <mergeCell ref="AK27:AK28"/>
+    <mergeCell ref="AR30:AR32"/>
+    <mergeCell ref="AU30:AU32"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="AM47:AM49"/>
+    <mergeCell ref="AN47:AN49"/>
+    <mergeCell ref="AP47:AP49"/>
+    <mergeCell ref="AR47:AR49"/>
+    <mergeCell ref="AU47:AU49"/>
+    <mergeCell ref="AF47:AF49"/>
+    <mergeCell ref="AG47:AG49"/>
+    <mergeCell ref="AJ47:AJ49"/>
+    <mergeCell ref="AK47:AK49"/>
+    <mergeCell ref="AL47:AL49"/>
+    <mergeCell ref="AL38:AL40"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="AD47:AD49"/>
+    <mergeCell ref="AE47:AE49"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="AM38:AM40"/>
+    <mergeCell ref="AG30:AG32"/>
+    <mergeCell ref="AJ30:AJ32"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="R30:R32"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
     <mergeCell ref="AD27:AD28"/>
     <mergeCell ref="X27:X28"/>
     <mergeCell ref="AE27:AE28"/>
-    <mergeCell ref="AF27:AF28"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="T30:T32"/>
-    <mergeCell ref="U30:U32"/>
-    <mergeCell ref="W30:W32"/>
-    <mergeCell ref="X30:X32"/>
-    <mergeCell ref="AD30:AD32"/>
-    <mergeCell ref="AE30:AE32"/>
-    <mergeCell ref="AF30:AF32"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B72:B73"/>
     <mergeCell ref="AR24:AR25"/>
     <mergeCell ref="AU24:AU25"/>
     <mergeCell ref="C27:C28"/>
@@ -15200,81 +15314,75 @@
     <mergeCell ref="AJ27:AJ28"/>
     <mergeCell ref="AR27:AR28"/>
     <mergeCell ref="AU27:AU28"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="AF27:AF28"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="T30:T32"/>
+    <mergeCell ref="U30:U32"/>
+    <mergeCell ref="W30:W32"/>
+    <mergeCell ref="X30:X32"/>
+    <mergeCell ref="AD30:AD32"/>
+    <mergeCell ref="AE30:AE32"/>
+    <mergeCell ref="AF30:AF32"/>
     <mergeCell ref="AL27:AL28"/>
     <mergeCell ref="AM27:AM28"/>
+    <mergeCell ref="AV78:AV81"/>
+    <mergeCell ref="AL78:AL81"/>
+    <mergeCell ref="AM78:AM81"/>
+    <mergeCell ref="AO78:AO81"/>
+    <mergeCell ref="AV74:AV77"/>
+    <mergeCell ref="AL74:AL77"/>
+    <mergeCell ref="AM74:AM77"/>
+    <mergeCell ref="AO74:AO77"/>
+    <mergeCell ref="AN38:AN40"/>
+    <mergeCell ref="AR38:AR40"/>
+    <mergeCell ref="AU38:AU40"/>
     <mergeCell ref="AN27:AN28"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B72:B73"/>
     <mergeCell ref="AL30:AL32"/>
+    <mergeCell ref="AM30:AM32"/>
+    <mergeCell ref="AN30:AN32"/>
     <mergeCell ref="AP27:AP28"/>
     <mergeCell ref="AP38:AP40"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="R30:R32"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
     <mergeCell ref="AP30:AP32"/>
-    <mergeCell ref="AK27:AK28"/>
-    <mergeCell ref="AR30:AR32"/>
-    <mergeCell ref="AU30:AU32"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="AM47:AM49"/>
-    <mergeCell ref="AN47:AN49"/>
-    <mergeCell ref="AP47:AP49"/>
-    <mergeCell ref="AR47:AR49"/>
-    <mergeCell ref="AU47:AU49"/>
-    <mergeCell ref="AF47:AF49"/>
-    <mergeCell ref="AG47:AG49"/>
-    <mergeCell ref="AJ47:AJ49"/>
-    <mergeCell ref="AK47:AK49"/>
-    <mergeCell ref="AL47:AL49"/>
-    <mergeCell ref="AL38:AL40"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="AD47:AD49"/>
-    <mergeCell ref="AE47:AE49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="AM38:AM40"/>
-    <mergeCell ref="AG30:AG32"/>
-    <mergeCell ref="AJ30:AJ32"/>
-    <mergeCell ref="AK30:AK32"/>
+    <mergeCell ref="W38:W40"/>
+    <mergeCell ref="X38:X40"/>
+    <mergeCell ref="AD38:AD40"/>
+    <mergeCell ref="AE38:AE40"/>
+    <mergeCell ref="AF38:AF40"/>
+    <mergeCell ref="AG38:AG40"/>
+    <mergeCell ref="AJ38:AJ40"/>
+    <mergeCell ref="AK38:AK40"/>
+    <mergeCell ref="AC78:AC81"/>
+    <mergeCell ref="AE78:AE81"/>
+    <mergeCell ref="AJ78:AJ81"/>
+    <mergeCell ref="AE74:AE77"/>
+    <mergeCell ref="AJ74:AJ77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="S78:S81"/>
+    <mergeCell ref="T78:T81"/>
+    <mergeCell ref="W78:W81"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="W74:W77"/>
+    <mergeCell ref="AC74:AC77"/>
+    <mergeCell ref="Q78:Q81"/>
+    <mergeCell ref="R78:R81"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="Q74:Q77"/>
+    <mergeCell ref="R74:R77"/>
+    <mergeCell ref="S74:S77"/>
+    <mergeCell ref="T74:T77"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="37" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="47" max="68" man="1"/>
   </colBreaks>
@@ -15332,7 +15440,7 @@
         <f>3.14*(25.4*16)^2*E3/10^9</f>
         <v>11.409319116800001</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="G3" s="98" t="s">
         <v>745</v>
       </c>
     </row>
@@ -15618,13 +15726,13 @@
       <c r="D2" s="69" t="s">
         <v>811</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="148" t="s">
         <v>869</v>
       </c>
       <c r="G2">
         <v>1000</v>
       </c>
-      <c r="H2" s="150" t="s">
+      <c r="H2" s="149" t="s">
         <v>870</v>
       </c>
       <c r="I2">
@@ -15638,16 +15746,16 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="144" t="s">
         <v>484</v>
       </c>
-      <c r="B3" s="145">
+      <c r="B3" s="144">
         <v>176.1</v>
       </c>
-      <c r="C3" s="145">
+      <c r="C3" s="144">
         <v>-10.4</v>
       </c>
-      <c r="D3" s="145">
+      <c r="D3" s="144">
         <v>44.8</v>
       </c>
       <c r="F3" t="s">
@@ -15685,16 +15793,16 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="144" t="s">
         <v>485</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="144">
         <v>189.9</v>
       </c>
-      <c r="C4" s="145">
+      <c r="C4" s="144">
         <v>-7</v>
       </c>
-      <c r="D4" s="145">
+      <c r="D4" s="144">
         <v>44.9</v>
       </c>
       <c r="F4" t="s">
@@ -15732,16 +15840,16 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="145" t="s">
+      <c r="A5" s="144" t="s">
         <v>486</v>
       </c>
-      <c r="B5" s="145">
+      <c r="B5" s="144">
         <v>186.6</v>
       </c>
-      <c r="C5" s="145">
+      <c r="C5" s="144">
         <v>-10.8</v>
       </c>
-      <c r="D5" s="145">
+      <c r="D5" s="144">
         <v>45</v>
       </c>
       <c r="F5" t="s">
@@ -15779,16 +15887,16 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="144" t="s">
         <v>487</v>
       </c>
-      <c r="B6" s="145">
+      <c r="B6" s="144">
         <v>176.1</v>
       </c>
-      <c r="C6" s="145">
+      <c r="C6" s="144">
         <v>-10.3</v>
       </c>
-      <c r="D6" s="145">
+      <c r="D6" s="144">
         <v>44.8</v>
       </c>
       <c r="F6" t="s">
@@ -15826,16 +15934,16 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="145" t="s">
         <v>488</v>
       </c>
-      <c r="B7" s="146">
+      <c r="B7" s="145">
         <v>176.9</v>
       </c>
-      <c r="C7" s="146">
+      <c r="C7" s="145">
         <v>20.6</v>
       </c>
-      <c r="D7" s="146">
+      <c r="D7" s="145">
         <v>31.5</v>
       </c>
       <c r="F7" t="s">
@@ -15873,16 +15981,16 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="145" t="s">
         <v>489</v>
       </c>
-      <c r="B8" s="146">
+      <c r="B8" s="145">
         <v>165.5</v>
       </c>
-      <c r="C8" s="146">
+      <c r="C8" s="145">
         <v>9.5</v>
       </c>
-      <c r="D8" s="146">
+      <c r="D8" s="145">
         <v>30.5</v>
       </c>
       <c r="F8" t="s">
@@ -15920,16 +16028,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="144" t="s">
         <v>490</v>
       </c>
-      <c r="B9" s="145">
+      <c r="B9" s="144">
         <v>185</v>
       </c>
-      <c r="C9" s="145">
+      <c r="C9" s="144">
         <v>-9</v>
       </c>
-      <c r="D9" s="145">
+      <c r="D9" s="144">
         <v>40.5</v>
       </c>
       <c r="F9" t="s">
@@ -15967,16 +16075,16 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="144" t="s">
         <v>491</v>
       </c>
-      <c r="B10" s="145">
+      <c r="B10" s="144">
         <v>172.8</v>
       </c>
-      <c r="C10" s="145">
+      <c r="C10" s="144">
         <v>-8.9</v>
       </c>
-      <c r="D10" s="145">
+      <c r="D10" s="144">
         <v>36.1</v>
       </c>
       <c r="F10" t="s">
@@ -16014,16 +16122,16 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="144" t="s">
         <v>492</v>
       </c>
-      <c r="B11" s="146">
+      <c r="B11" s="145">
         <v>181</v>
       </c>
-      <c r="C11" s="146">
+      <c r="C11" s="145">
         <v>-18</v>
       </c>
-      <c r="D11" s="146">
+      <c r="D11" s="145">
         <v>41</v>
       </c>
       <c r="F11" t="s">
@@ -16061,16 +16169,16 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="144" t="s">
         <v>493</v>
       </c>
-      <c r="B12" s="146">
+      <c r="B12" s="145">
         <v>173</v>
       </c>
-      <c r="C12" s="146">
+      <c r="C12" s="145">
         <v>-18</v>
       </c>
-      <c r="D12" s="146">
+      <c r="D12" s="145">
         <v>41</v>
       </c>
       <c r="F12" t="s">
@@ -16108,16 +16216,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="144" t="s">
         <v>494</v>
       </c>
-      <c r="B13" s="145">
+      <c r="B13" s="144">
         <v>174</v>
       </c>
-      <c r="C13" s="145">
+      <c r="C13" s="144">
         <v>-19</v>
       </c>
-      <c r="D13" s="145">
+      <c r="D13" s="144">
         <v>36</v>
       </c>
       <c r="F13" t="s">
@@ -16155,16 +16263,16 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="144" t="s">
         <v>495</v>
       </c>
-      <c r="B14" s="145">
+      <c r="B14" s="144">
         <v>157.9</v>
       </c>
-      <c r="C14" s="145">
+      <c r="C14" s="144">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="D14" s="145">
+      <c r="D14" s="144">
         <v>44.8</v>
       </c>
       <c r="F14" t="s">
@@ -16202,16 +16310,16 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="144" t="s">
         <v>496</v>
       </c>
-      <c r="B15" s="145">
+      <c r="B15" s="144">
         <v>151.9</v>
       </c>
-      <c r="C15" s="145">
+      <c r="C15" s="144">
         <v>-14.4</v>
       </c>
-      <c r="D15" s="145">
+      <c r="D15" s="144">
         <v>49.3</v>
       </c>
       <c r="F15" t="s">
@@ -16249,16 +16357,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="145" t="s">
+      <c r="A16" s="144" t="s">
         <v>497</v>
       </c>
-      <c r="B16" s="145">
+      <c r="B16" s="144">
         <v>161</v>
       </c>
-      <c r="C16" s="145">
+      <c r="C16" s="144">
         <v>-18.600000000000001</v>
       </c>
-      <c r="D16" s="145">
+      <c r="D16" s="144">
         <v>39.799999999999997</v>
       </c>
       <c r="F16" t="s">
@@ -16296,16 +16404,16 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="144" t="s">
         <v>498</v>
       </c>
-      <c r="B17" s="145">
+      <c r="B17" s="144">
         <v>159.5</v>
       </c>
-      <c r="C17" s="145">
+      <c r="C17" s="144">
         <v>-7.5</v>
       </c>
-      <c r="D17" s="145">
+      <c r="D17" s="144">
         <v>36.5</v>
       </c>
       <c r="F17" t="s">
@@ -16343,16 +16451,16 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="145" t="s">
+      <c r="A18" s="144" t="s">
         <v>499</v>
       </c>
-      <c r="B18" s="145">
+      <c r="B18" s="144">
         <v>157.69999999999999</v>
       </c>
-      <c r="C18" s="145">
+      <c r="C18" s="144">
         <v>-8.4</v>
       </c>
-      <c r="D18" s="145">
+      <c r="D18" s="144">
         <v>48.9</v>
       </c>
       <c r="F18" t="s">
@@ -16390,16 +16498,16 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="146" t="s">
+      <c r="A19" s="145" t="s">
         <v>500</v>
       </c>
-      <c r="B19" s="146">
+      <c r="B19" s="145">
         <v>188.2</v>
       </c>
-      <c r="C19" s="146">
+      <c r="C19" s="145">
         <v>-19.600000000000001</v>
       </c>
-      <c r="D19" s="146">
+      <c r="D19" s="145">
         <v>40.9</v>
       </c>
       <c r="F19" t="s">
@@ -16437,16 +16545,16 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="145" t="s">
         <v>501</v>
       </c>
-      <c r="B20" s="146">
+      <c r="B20" s="145">
         <v>187.2</v>
       </c>
-      <c r="C20" s="146">
+      <c r="C20" s="145">
         <v>-12.6</v>
       </c>
-      <c r="D20" s="146">
+      <c r="D20" s="145">
         <v>36.299999999999997</v>
       </c>
       <c r="F20" t="s">
@@ -16484,16 +16592,16 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="145" t="s">
         <v>724</v>
       </c>
-      <c r="B21" s="145">
+      <c r="B21" s="144">
         <v>111.5</v>
       </c>
-      <c r="C21" s="145">
+      <c r="C21" s="144">
         <v>-19.600000000000001</v>
       </c>
-      <c r="D21" s="145">
+      <c r="D21" s="144">
         <v>36.6</v>
       </c>
       <c r="F21" t="s">
@@ -16531,16 +16639,16 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="145" t="s">
         <v>723</v>
       </c>
-      <c r="B22" s="145">
+      <c r="B22" s="144">
         <v>46.8</v>
       </c>
-      <c r="C22" s="145">
+      <c r="C22" s="144">
         <v>-20</v>
       </c>
-      <c r="D22" s="145">
+      <c r="D22" s="144">
         <v>32.799999999999997</v>
       </c>
       <c r="F22" t="s">
@@ -16578,16 +16686,16 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="145" t="s">
         <v>728</v>
       </c>
-      <c r="B23" s="145">
+      <c r="B23" s="144">
         <v>-5.6</v>
       </c>
-      <c r="C23" s="145">
+      <c r="C23" s="144">
         <v>-5.8</v>
       </c>
-      <c r="D23" s="145">
+      <c r="D23" s="144">
         <v>38</v>
       </c>
       <c r="F23" t="s">
@@ -16625,16 +16733,16 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="145" t="s">
         <v>832</v>
       </c>
-      <c r="B24" s="146">
+      <c r="B24" s="145">
         <v>131.5</v>
       </c>
-      <c r="C24" s="146">
+      <c r="C24" s="145">
         <v>18.8</v>
       </c>
-      <c r="D24" s="146">
+      <c r="D24" s="145">
         <v>47.2</v>
       </c>
       <c r="F24" t="s">
@@ -16672,16 +16780,16 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="145" t="s">
         <v>833</v>
       </c>
-      <c r="B25" s="146">
+      <c r="B25" s="145">
         <v>130.9</v>
       </c>
-      <c r="C25" s="146">
+      <c r="C25" s="145">
         <v>16.899999999999999</v>
       </c>
-      <c r="D25" s="146">
+      <c r="D25" s="145">
         <v>38.5</v>
       </c>
       <c r="F25" t="s">
@@ -16719,16 +16827,16 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="146" t="s">
+      <c r="A26" s="145" t="s">
         <v>503</v>
       </c>
-      <c r="B26" s="146">
+      <c r="B26" s="145">
         <v>126.1</v>
       </c>
-      <c r="C26" s="146">
+      <c r="C26" s="145">
         <v>12.4</v>
       </c>
-      <c r="D26" s="146">
+      <c r="D26" s="145">
         <v>35.799999999999997</v>
       </c>
       <c r="F26" t="s">
@@ -16766,16 +16874,16 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="146" t="s">
+      <c r="A27" s="145" t="s">
         <v>834</v>
       </c>
-      <c r="B27" s="145">
+      <c r="B27" s="144">
         <v>133.30000000000001</v>
       </c>
-      <c r="C27" s="145">
+      <c r="C27" s="144">
         <v>15.3</v>
       </c>
-      <c r="D27" s="145">
+      <c r="D27" s="144">
         <v>47.3</v>
       </c>
       <c r="F27" t="s">
@@ -16813,16 +16921,16 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="145" t="s">
         <v>835</v>
       </c>
-      <c r="B28" s="145">
+      <c r="B28" s="144">
         <v>131.4</v>
       </c>
-      <c r="C28" s="145">
+      <c r="C28" s="144">
         <v>12.2</v>
       </c>
-      <c r="D28" s="145">
+      <c r="D28" s="144">
         <v>38.6</v>
       </c>
       <c r="F28" t="s">
@@ -16860,16 +16968,16 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="145" t="s">
         <v>505</v>
       </c>
-      <c r="B29" s="145">
+      <c r="B29" s="144">
         <v>128</v>
       </c>
-      <c r="C29" s="145">
+      <c r="C29" s="144">
         <v>6.2</v>
       </c>
-      <c r="D29" s="145">
+      <c r="D29" s="144">
         <v>41</v>
       </c>
       <c r="F29" t="s">
@@ -16907,16 +17015,16 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="146" t="s">
+      <c r="A30" s="145" t="s">
         <v>846</v>
       </c>
-      <c r="B30" s="145">
+      <c r="B30" s="144">
         <v>123.2</v>
       </c>
-      <c r="C30" s="145">
+      <c r="C30" s="144">
         <v>-12</v>
       </c>
-      <c r="D30" s="145">
+      <c r="D30" s="144">
         <v>55.6</v>
       </c>
       <c r="F30" t="s">
@@ -16954,16 +17062,16 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="146" t="s">
+      <c r="A31" s="145" t="s">
         <v>836</v>
       </c>
-      <c r="B31" s="145">
+      <c r="B31" s="144">
         <v>124.5</v>
       </c>
-      <c r="C31" s="145">
+      <c r="C31" s="144">
         <v>-9</v>
       </c>
-      <c r="D31" s="145">
+      <c r="D31" s="144">
         <v>47.6</v>
       </c>
       <c r="F31" t="s">
@@ -17001,16 +17109,16 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="145" t="s">
         <v>837</v>
       </c>
-      <c r="B32" s="145">
+      <c r="B32" s="144">
         <v>125.9</v>
       </c>
-      <c r="C32" s="145">
+      <c r="C32" s="144">
         <v>-15.1</v>
       </c>
-      <c r="D32" s="145">
+      <c r="D32" s="144">
         <v>38.700000000000003</v>
       </c>
       <c r="F32" t="s">
@@ -17048,16 +17156,16 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="145" t="s">
         <v>507</v>
       </c>
-      <c r="B33" s="145">
+      <c r="B33" s="144">
         <v>124.1</v>
       </c>
-      <c r="C33" s="145">
+      <c r="C33" s="144">
         <v>-21.6</v>
       </c>
-      <c r="D33" s="145">
+      <c r="D33" s="144">
         <v>41.4</v>
       </c>
       <c r="F33" t="s">
@@ -17095,16 +17203,16 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="146" t="s">
+      <c r="A34" s="145" t="s">
         <v>508</v>
       </c>
-      <c r="B34" s="145">
+      <c r="B34" s="144">
         <v>128.30000000000001</v>
       </c>
-      <c r="C34" s="145">
+      <c r="C34" s="144">
         <v>-21.5</v>
       </c>
-      <c r="D34" s="145">
+      <c r="D34" s="144">
         <v>41.1</v>
       </c>
       <c r="F34" t="s">
@@ -17142,16 +17250,16 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="146" t="s">
+      <c r="A35" s="145" t="s">
         <v>509</v>
       </c>
-      <c r="B35" s="145">
+      <c r="B35" s="144">
         <v>128.80000000000001</v>
       </c>
-      <c r="C35" s="145">
+      <c r="C35" s="144">
         <v>-6.4</v>
       </c>
-      <c r="D35" s="145">
+      <c r="D35" s="144">
         <v>48</v>
       </c>
       <c r="F35" t="s">
@@ -17189,16 +17297,16 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="146" t="s">
+      <c r="A36" s="145" t="s">
         <v>510</v>
       </c>
-      <c r="B36" s="145">
+      <c r="B36" s="144">
         <v>136.6</v>
       </c>
-      <c r="C36" s="145">
+      <c r="C36" s="144">
         <v>-16</v>
       </c>
-      <c r="D36" s="145">
+      <c r="D36" s="144">
         <v>51.2</v>
       </c>
       <c r="F36" t="s">
@@ -17236,16 +17344,16 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="146" t="s">
+      <c r="A37" s="145" t="s">
         <v>511</v>
       </c>
-      <c r="B37" s="145">
+      <c r="B37" s="144">
         <v>144.6</v>
       </c>
-      <c r="C37" s="145">
+      <c r="C37" s="144">
         <v>7.5</v>
       </c>
-      <c r="D37" s="145">
+      <c r="D37" s="144">
         <v>38.4</v>
       </c>
       <c r="F37" t="s">
@@ -17283,16 +17391,16 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="116" t="s">
+      <c r="A38" s="115" t="s">
         <v>838</v>
       </c>
-      <c r="B38" s="145">
+      <c r="B38" s="144">
         <v>146.69999999999999</v>
       </c>
-      <c r="C38" s="145">
+      <c r="C38" s="144">
         <v>10.3</v>
       </c>
-      <c r="D38" s="145">
+      <c r="D38" s="144">
         <v>49</v>
       </c>
       <c r="F38" t="s">
@@ -17330,16 +17438,16 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="116" t="s">
+      <c r="A39" s="115" t="s">
         <v>839</v>
       </c>
-      <c r="B39" s="145">
+      <c r="B39" s="144">
         <v>147.30000000000001</v>
       </c>
-      <c r="C39" s="145">
+      <c r="C39" s="144">
         <v>10.3</v>
       </c>
-      <c r="D39" s="145">
+      <c r="D39" s="144">
         <v>49</v>
       </c>
       <c r="F39" t="s">
@@ -17377,16 +17485,16 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="116" t="s">
+      <c r="A40" s="115" t="s">
         <v>840</v>
       </c>
-      <c r="B40" s="145">
+      <c r="B40" s="144">
         <v>145</v>
       </c>
-      <c r="C40" s="145">
+      <c r="C40" s="144">
         <v>16.2</v>
       </c>
-      <c r="D40" s="145">
+      <c r="D40" s="144">
         <v>55.4</v>
       </c>
       <c r="F40" t="s">
@@ -17424,16 +17532,16 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="145" t="s">
         <v>513</v>
       </c>
-      <c r="B41" s="145">
+      <c r="B41" s="144">
         <v>145.19999999999999</v>
       </c>
-      <c r="C41" s="145">
+      <c r="C41" s="144">
         <v>20.6</v>
       </c>
-      <c r="D41" s="145">
+      <c r="D41" s="144">
         <v>50.8</v>
       </c>
       <c r="F41" t="s">
@@ -17471,16 +17579,16 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="146" t="s">
+      <c r="A42" s="145" t="s">
         <v>514</v>
       </c>
-      <c r="B42" s="146">
+      <c r="B42" s="145">
         <v>146.1</v>
       </c>
-      <c r="C42" s="145">
+      <c r="C42" s="144">
         <v>22.2</v>
       </c>
-      <c r="D42" s="145">
+      <c r="D42" s="144">
         <v>38.4</v>
       </c>
       <c r="F42" t="s">
@@ -17518,16 +17626,16 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="145" t="s">
         <v>515</v>
       </c>
-      <c r="B43" s="146">
+      <c r="B43" s="145">
         <v>150</v>
       </c>
-      <c r="C43" s="145">
+      <c r="C43" s="144">
         <v>20.8</v>
       </c>
-      <c r="D43" s="145">
+      <c r="D43" s="144">
         <v>53</v>
       </c>
       <c r="F43" t="s">
@@ -17565,16 +17673,16 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="145" t="s">
         <v>516</v>
       </c>
-      <c r="B44" s="146">
+      <c r="B44" s="145">
         <v>151.5</v>
       </c>
-      <c r="C44" s="145">
+      <c r="C44" s="144">
         <v>21.9</v>
       </c>
-      <c r="D44" s="145">
+      <c r="D44" s="144">
         <v>45</v>
       </c>
       <c r="F44" t="s">
@@ -17612,16 +17720,16 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="146" t="s">
+      <c r="A45" s="145" t="s">
         <v>517</v>
       </c>
-      <c r="B45" s="146">
+      <c r="B45" s="145">
         <v>145</v>
       </c>
-      <c r="C45" s="145">
+      <c r="C45" s="144">
         <v>16</v>
       </c>
-      <c r="D45" s="145">
+      <c r="D45" s="144">
         <v>44.6</v>
       </c>
       <c r="F45" t="s">
@@ -17659,16 +17767,16 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="146" t="s">
+      <c r="A46" s="145" t="s">
         <v>518</v>
       </c>
-      <c r="B46" s="146">
+      <c r="B46" s="145">
         <v>147</v>
       </c>
-      <c r="C46" s="145">
+      <c r="C46" s="144">
         <v>15.5</v>
       </c>
-      <c r="D46" s="145">
+      <c r="D46" s="144">
         <v>35.700000000000003</v>
       </c>
       <c r="F46" t="s">
@@ -17706,16 +17814,16 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="116" t="s">
+      <c r="A47" s="115" t="s">
         <v>845</v>
       </c>
-      <c r="B47" s="146">
+      <c r="B47" s="145">
         <v>180.1</v>
       </c>
-      <c r="C47" s="145">
+      <c r="C47" s="144">
         <v>13.2</v>
       </c>
-      <c r="D47" s="145">
+      <c r="D47" s="144">
         <v>47.8</v>
       </c>
       <c r="F47" t="s">
@@ -17753,16 +17861,16 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="116" t="s">
+      <c r="A48" s="115" t="s">
         <v>842</v>
       </c>
-      <c r="B48" s="146">
+      <c r="B48" s="145">
         <v>178.5</v>
       </c>
-      <c r="C48" s="145">
+      <c r="C48" s="144">
         <v>13.1</v>
       </c>
-      <c r="D48" s="145">
+      <c r="D48" s="144">
         <v>48.2</v>
       </c>
       <c r="F48" t="s">
@@ -17800,16 +17908,16 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="116" t="s">
+      <c r="A49" s="115" t="s">
         <v>841</v>
       </c>
-      <c r="B49" s="146">
+      <c r="B49" s="145">
         <v>173.5</v>
       </c>
-      <c r="C49" s="145">
+      <c r="C49" s="144">
         <v>11.6</v>
       </c>
-      <c r="D49" s="145">
+      <c r="D49" s="144">
         <v>38.799999999999997</v>
       </c>
       <c r="F49" t="s">
@@ -17847,16 +17955,16 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="146" t="s">
+      <c r="A50" s="145" t="s">
         <v>519</v>
       </c>
-      <c r="B50" s="145">
+      <c r="B50" s="144">
         <v>174.8</v>
       </c>
-      <c r="C50" s="145">
+      <c r="C50" s="144">
         <v>10.1</v>
       </c>
-      <c r="D50" s="145">
+      <c r="D50" s="144">
         <v>47</v>
       </c>
       <c r="F50" t="s">
@@ -17894,16 +18002,16 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="146" t="s">
+      <c r="A51" s="145" t="s">
         <v>520</v>
       </c>
-      <c r="B51" s="145">
+      <c r="B51" s="144">
         <v>188.9</v>
       </c>
-      <c r="C51" s="145">
+      <c r="C51" s="144">
         <v>24.5</v>
       </c>
-      <c r="D51" s="145">
+      <c r="D51" s="144">
         <v>45</v>
       </c>
       <c r="F51" t="s">
@@ -17941,16 +18049,16 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="146" t="s">
+      <c r="A52" s="145" t="s">
         <v>521</v>
       </c>
-      <c r="B52" s="145">
+      <c r="B52" s="144">
         <v>210.7</v>
       </c>
-      <c r="C52" s="145">
+      <c r="C52" s="144">
         <v>13.2</v>
       </c>
-      <c r="D52" s="145">
+      <c r="D52" s="144">
         <v>39.5</v>
       </c>
       <c r="F52" t="s">
@@ -17988,16 +18096,16 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="146" t="s">
+      <c r="A53" s="145" t="s">
         <v>522</v>
       </c>
-      <c r="B53" s="145">
+      <c r="B53" s="144">
         <v>205.1</v>
       </c>
-      <c r="C53" s="145">
+      <c r="C53" s="144">
         <v>10.5</v>
       </c>
-      <c r="D53" s="145">
+      <c r="D53" s="144">
         <v>36.1</v>
       </c>
       <c r="F53" t="s">
@@ -18035,16 +18143,16 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="146" t="s">
+      <c r="A54" s="145" t="s">
         <v>523</v>
       </c>
-      <c r="B54" s="145">
+      <c r="B54" s="144">
         <v>207.6</v>
       </c>
-      <c r="C54" s="145">
+      <c r="C54" s="144">
         <v>21.2</v>
       </c>
-      <c r="D54" s="145">
+      <c r="D54" s="144">
         <v>36.5</v>
       </c>
       <c r="F54" t="s">
@@ -18082,16 +18190,16 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="146" t="s">
+      <c r="A55" s="145" t="s">
         <v>524</v>
       </c>
-      <c r="B55" s="145">
+      <c r="B55" s="144">
         <v>206.1</v>
       </c>
-      <c r="C55" s="145">
+      <c r="C55" s="144">
         <v>23.2</v>
       </c>
-      <c r="D55" s="145">
+      <c r="D55" s="144">
         <v>34.299999999999997</v>
       </c>
       <c r="F55" t="s">
@@ -18129,16 +18237,16 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="146" t="s">
+      <c r="A56" s="145" t="s">
         <v>525</v>
       </c>
-      <c r="B56" s="146">
+      <c r="B56" s="145">
         <v>127.4</v>
       </c>
-      <c r="C56" s="146">
+      <c r="C56" s="145">
         <v>22.2</v>
       </c>
-      <c r="D56" s="146">
+      <c r="D56" s="145">
         <v>45.1</v>
       </c>
       <c r="F56" t="s">
@@ -18176,16 +18284,16 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="145" t="s">
+      <c r="A57" s="144" t="s">
         <v>555</v>
       </c>
-      <c r="B57" s="145">
+      <c r="B57" s="144">
         <v>133.69999999999999</v>
       </c>
-      <c r="C57" s="145">
+      <c r="C57" s="144">
         <v>11.1</v>
       </c>
-      <c r="D57" s="145">
+      <c r="D57" s="144">
         <v>45.4</v>
       </c>
       <c r="F57" t="s">
@@ -18223,16 +18331,16 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="145" t="s">
+      <c r="A58" s="144" t="s">
         <v>526</v>
       </c>
-      <c r="B58" s="145">
+      <c r="B58" s="144">
         <v>125.5</v>
       </c>
-      <c r="C58" s="145">
+      <c r="C58" s="144">
         <v>8.5</v>
       </c>
-      <c r="D58" s="145">
+      <c r="D58" s="144">
         <v>44.8</v>
       </c>
       <c r="F58" t="s">
@@ -18270,16 +18378,16 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="137" t="s">
+      <c r="A59" s="136" t="s">
         <v>527</v>
       </c>
-      <c r="B59" s="137">
+      <c r="B59" s="136">
         <v>122</v>
       </c>
-      <c r="C59" s="137">
+      <c r="C59" s="136">
         <v>7.2</v>
       </c>
-      <c r="D59" s="137">
+      <c r="D59" s="136">
         <v>39.700000000000003</v>
       </c>
       <c r="F59" t="s">
@@ -18317,16 +18425,16 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="145" t="s">
+      <c r="A60" s="144" t="s">
         <v>528</v>
       </c>
-      <c r="B60" s="145">
+      <c r="B60" s="144">
         <v>129.1</v>
       </c>
-      <c r="C60" s="145">
+      <c r="C60" s="144">
         <v>7.1</v>
       </c>
-      <c r="D60" s="145">
+      <c r="D60" s="144">
         <v>44.6</v>
       </c>
       <c r="F60" t="s">
@@ -18364,16 +18472,16 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="145" t="s">
+      <c r="A61" s="144" t="s">
         <v>529</v>
       </c>
-      <c r="B61" s="145">
+      <c r="B61" s="144">
         <v>77.900000000000006</v>
       </c>
-      <c r="C61" s="145">
+      <c r="C61" s="144">
         <v>-22.2</v>
       </c>
-      <c r="D61" s="145">
+      <c r="D61" s="144">
         <v>35.5</v>
       </c>
       <c r="F61" t="s">
@@ -18411,16 +18519,16 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="145" t="s">
+      <c r="A62" s="144" t="s">
         <v>530</v>
       </c>
-      <c r="B62" s="145">
+      <c r="B62" s="144">
         <v>114.4</v>
       </c>
-      <c r="C62" s="145">
+      <c r="C62" s="144">
         <v>19.8</v>
       </c>
-      <c r="D62" s="145">
+      <c r="D62" s="144">
         <v>47.4</v>
       </c>
       <c r="F62" t="s">
@@ -18458,16 +18566,16 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="145" t="s">
+      <c r="A63" s="144" t="s">
         <v>531</v>
       </c>
-      <c r="B63" s="145">
+      <c r="B63" s="144">
         <v>117.5</v>
       </c>
-      <c r="C63" s="145">
+      <c r="C63" s="144">
         <v>17.3</v>
       </c>
-      <c r="D63" s="145">
+      <c r="D63" s="144">
         <v>45.7</v>
       </c>
       <c r="F63" t="s">
@@ -18505,16 +18613,16 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="145" t="s">
+      <c r="A64" s="144" t="s">
         <v>532</v>
       </c>
-      <c r="B64" s="145">
+      <c r="B64" s="144">
         <v>102.8</v>
       </c>
-      <c r="C64" s="145">
+      <c r="C64" s="144">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D64" s="145">
+      <c r="D64" s="144">
         <v>35.5</v>
       </c>
       <c r="F64" t="s">
@@ -18552,16 +18660,16 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="145" t="s">
+      <c r="A65" s="144" t="s">
         <v>533</v>
       </c>
-      <c r="B65" s="146">
+      <c r="B65" s="145">
         <v>103.1</v>
       </c>
-      <c r="C65" s="146">
+      <c r="C65" s="145">
         <v>14.6</v>
       </c>
-      <c r="D65" s="146">
+      <c r="D65" s="145">
         <v>35.700000000000003</v>
       </c>
       <c r="F65" t="s">
@@ -18599,16 +18707,16 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="145" t="s">
+      <c r="A66" s="144" t="s">
         <v>534</v>
       </c>
-      <c r="B66" s="137">
+      <c r="B66" s="136">
         <v>115.3</v>
       </c>
-      <c r="C66" s="137">
+      <c r="C66" s="136">
         <v>3.5</v>
       </c>
-      <c r="D66" s="137">
+      <c r="D66" s="136">
         <v>43.5</v>
       </c>
       <c r="F66" t="s">
@@ -18646,16 +18754,16 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="145" t="s">
+      <c r="A67" s="144" t="s">
         <v>535</v>
       </c>
-      <c r="B67" s="137">
+      <c r="B67" s="136">
         <v>115</v>
       </c>
-      <c r="C67" s="137">
+      <c r="C67" s="136">
         <v>4.8</v>
       </c>
-      <c r="D67" s="137">
+      <c r="D67" s="136">
         <v>42.8</v>
       </c>
       <c r="F67" t="s">
@@ -18693,16 +18801,16 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="145" t="s">
+      <c r="A68" s="144" t="s">
         <v>536</v>
       </c>
-      <c r="B68" s="145">
+      <c r="B68" s="144">
         <v>213.1</v>
       </c>
-      <c r="C68" s="145">
+      <c r="C68" s="144">
         <v>-21.4</v>
       </c>
-      <c r="D68" s="145">
+      <c r="D68" s="144">
         <v>29.9</v>
       </c>
       <c r="F68" t="s">
@@ -18740,16 +18848,16 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="145" t="s">
+      <c r="A69" s="144" t="s">
         <v>537</v>
       </c>
-      <c r="B69" s="145">
+      <c r="B69" s="144">
         <v>158.69999999999999</v>
       </c>
-      <c r="C69" s="145">
+      <c r="C69" s="144">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D69" s="145">
+      <c r="D69" s="144">
         <v>32.9</v>
       </c>
       <c r="F69" t="s">
@@ -18787,16 +18895,16 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="145" t="s">
+      <c r="A70" s="144" t="s">
         <v>538</v>
       </c>
-      <c r="B70" s="145">
+      <c r="B70" s="144">
         <v>152.30000000000001</v>
       </c>
-      <c r="C70" s="145">
+      <c r="C70" s="144">
         <v>3.8</v>
       </c>
-      <c r="D70" s="145">
+      <c r="D70" s="144">
         <v>32.200000000000003</v>
       </c>
       <c r="F70" t="s">
@@ -18834,16 +18942,16 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="146" t="s">
+      <c r="A71" s="145" t="s">
         <v>717</v>
       </c>
-      <c r="B71" s="145">
+      <c r="B71" s="144">
         <v>103</v>
       </c>
-      <c r="C71" s="145">
+      <c r="C71" s="144">
         <v>-23</v>
       </c>
-      <c r="D71" s="145">
+      <c r="D71" s="144">
         <v>37.799999999999997</v>
       </c>
       <c r="F71" t="s">
@@ -18881,16 +18989,16 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="146" t="s">
+      <c r="A72" s="145" t="s">
         <v>718</v>
       </c>
-      <c r="B72" s="145">
+      <c r="B72" s="144">
         <v>77.2</v>
       </c>
-      <c r="C72" s="145">
+      <c r="C72" s="144">
         <v>-23.3</v>
       </c>
-      <c r="D72" s="145">
+      <c r="D72" s="144">
         <v>35.5</v>
       </c>
       <c r="F72" t="s">
@@ -18928,16 +19036,16 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="145" t="s">
+      <c r="A73" s="144" t="s">
         <v>729</v>
       </c>
-      <c r="B73" s="145">
+      <c r="B73" s="144">
         <v>158.30000000000001</v>
       </c>
-      <c r="C73" s="145">
+      <c r="C73" s="144">
         <v>8.5</v>
       </c>
-      <c r="D73" s="145">
+      <c r="D73" s="144">
         <v>30</v>
       </c>
       <c r="F73" t="s">
@@ -18975,16 +19083,16 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="145" t="s">
+      <c r="A74" s="144" t="s">
         <v>183</v>
       </c>
-      <c r="B74" s="145">
+      <c r="B74" s="144">
         <v>58.1</v>
       </c>
-      <c r="C74" s="145">
+      <c r="C74" s="144">
         <v>8.4</v>
       </c>
-      <c r="D74" s="145">
+      <c r="D74" s="144">
         <v>30</v>
       </c>
       <c r="F74" t="s">
@@ -19022,16 +19130,16 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="145" t="s">
+      <c r="A75" s="144" t="s">
         <v>184</v>
       </c>
-      <c r="B75" s="145">
+      <c r="B75" s="144">
         <v>158.30000000000001</v>
       </c>
-      <c r="C75" s="145">
+      <c r="C75" s="144">
         <v>-8.5</v>
       </c>
-      <c r="D75" s="145">
+      <c r="D75" s="144">
         <v>30</v>
       </c>
       <c r="F75" t="s">
@@ -19069,16 +19177,16 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="145" t="s">
+      <c r="A76" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="B76" s="145">
+      <c r="B76" s="144">
         <v>58.1</v>
       </c>
-      <c r="C76" s="145">
+      <c r="C76" s="144">
         <v>-8.4</v>
       </c>
-      <c r="D76" s="145">
+      <c r="D76" s="144">
         <v>30</v>
       </c>
       <c r="F76" t="s">
@@ -19116,16 +19224,16 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="145" t="s">
+      <c r="A77" s="144" t="s">
         <v>730</v>
       </c>
-      <c r="B77" s="145">
+      <c r="B77" s="144">
         <v>158.30000000000001</v>
       </c>
-      <c r="C77" s="145">
+      <c r="C77" s="144">
         <v>10.8</v>
       </c>
-      <c r="D77" s="145">
+      <c r="D77" s="144">
         <v>30</v>
       </c>
       <c r="F77" t="s">
@@ -19163,16 +19271,16 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="144" t="s">
+      <c r="A78" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="B78" s="144">
+      <c r="B78" s="143">
         <v>58.2</v>
       </c>
-      <c r="C78" s="144">
+      <c r="C78" s="143">
         <v>10.5</v>
       </c>
-      <c r="D78" s="145">
+      <c r="D78" s="144">
         <v>30</v>
       </c>
       <c r="F78" t="s">
@@ -19210,16 +19318,16 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="144" t="s">
+      <c r="A79" s="143" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="145">
+      <c r="B79" s="144">
         <v>158.30000000000001</v>
       </c>
-      <c r="C79" s="145">
+      <c r="C79" s="144">
         <v>-10.8</v>
       </c>
-      <c r="D79" s="145">
+      <c r="D79" s="144">
         <v>30</v>
       </c>
       <c r="F79" t="s">
@@ -19257,16 +19365,16 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="144" t="s">
+      <c r="A80" s="143" t="s">
         <v>190</v>
       </c>
-      <c r="B80" s="144">
+      <c r="B80" s="143">
         <v>58.2</v>
       </c>
-      <c r="C80" s="144">
+      <c r="C80" s="143">
         <v>-10.5</v>
       </c>
-      <c r="D80" s="145">
+      <c r="D80" s="144">
         <v>30</v>
       </c>
       <c r="F80" t="s">
@@ -19345,50 +19453,50 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:23" s="128" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="128" t="s">
+    <row r="2" spans="1:23" s="127" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="128">
+      <c r="D2" s="127">
         <v>3</v>
       </c>
-      <c r="E2" s="128">
+      <c r="E2" s="127">
         <v>4</v>
       </c>
-      <c r="F2" s="128">
+      <c r="F2" s="127">
         <v>151</v>
       </c>
-      <c r="G2" s="128" t="s">
+      <c r="G2" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="128" t="s">
+      <c r="H2" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="127" t="s">
         <v>858</v>
       </c>
-      <c r="J2" s="128" t="s">
+      <c r="J2" s="127" t="s">
         <v>859</v>
       </c>
-      <c r="K2" s="128" t="s">
+      <c r="K2" s="127" t="s">
         <v>860</v>
       </c>
-      <c r="L2" s="128" t="s">
+      <c r="L2" s="127" t="s">
         <v>861</v>
       </c>
-      <c r="M2" s="128" t="s">
+      <c r="M2" s="127" t="s">
         <v>862</v>
       </c>
-      <c r="N2" s="128" t="s">
+      <c r="N2" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="O2" s="128" t="s">
+      <c r="O2" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="P2" s="128" t="s">
+      <c r="P2" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="128" t="s">
+      <c r="Q2" s="127" t="s">
         <v>863</v>
       </c>
     </row>
@@ -20310,7 +20418,7 @@
       <c r="B9" t="s">
         <v>749</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="98" t="s">
         <v>748</v>
       </c>
       <c r="D9">
@@ -21421,18 +21529,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21455,26 +21563,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0111CE8-7B85-4427-87FC-DF1AB70FCCBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="24acf4f6-2027-4227-902f-54e7acde40e4"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6288cde2-e4af-4292-b2f5-6ae8cb4b0036"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{798D73A2-7EAA-4103-B191-161E65B38C72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0111CE8-7B85-4427-87FC-DF1AB70FCCBA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="24acf4f6-2027-4227-902f-54e7acde40e4"/>
-    <ds:schemaRef ds:uri="6288cde2-e4af-4292-b2f5-6ae8cb4b0036"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>